--- a/MusicApp/MusicRec.xlsx
+++ b/MusicApp/MusicRec.xlsx
@@ -94,7 +94,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,18 +139,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF6994C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -224,6 +212,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA7A7A7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBABABA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD5D5D5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCDCDC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -269,23 +281,25 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -294,14 +308,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFDCDCDC"/>
+      <color rgb="FFD5D5D5"/>
+      <color rgb="FFBABABA"/>
+      <color rgb="FFA7A7A7"/>
       <color rgb="FFF6994C"/>
       <color rgb="FFF8AE70"/>
       <color rgb="FFFBC293"/>
       <color rgb="FFFCCFAA"/>
       <color rgb="FFD27E7C"/>
       <color rgb="FFFCD8BA"/>
-      <color rgb="FFF8AB6C"/>
-      <color rgb="FFF4750C"/>
     </mruColors>
   </colors>
   <extLst>
@@ -604,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H97" sqref="H97:K106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -665,7 +681,7 @@
       <c r="C4" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -696,13 +712,13 @@
       <c r="D6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="28">
+      <c r="I6" s="26">
         <v>1</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="29">
+      <c r="K6" s="27">
         <v>0</v>
       </c>
       <c r="L6" s="5" t="s">
@@ -710,25 +726,25 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="17">
+      <c r="A7" s="15">
         <v>21</v>
       </c>
-      <c r="B7" s="21">
-        <v>1</v>
-      </c>
-      <c r="C7" s="17">
-        <v>1</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="28">
+      <c r="B7" s="19">
+        <v>1</v>
+      </c>
+      <c r="C7" s="15">
+        <v>1</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="26">
         <v>2</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K7" s="27">
         <v>1</v>
       </c>
       <c r="L7" s="5" t="s">
@@ -736,19 +752,19 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="17">
+      <c r="A8" s="15">
         <v>21</v>
       </c>
-      <c r="B8" s="21">
-        <v>1</v>
-      </c>
-      <c r="C8" s="17">
-        <v>2</v>
-      </c>
-      <c r="D8" s="17" t="s">
+      <c r="B8" s="19">
+        <v>1</v>
+      </c>
+      <c r="C8" s="15">
+        <v>2</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="28">
+      <c r="I8" s="26">
         <v>3</v>
       </c>
       <c r="J8" s="2" t="s">
@@ -756,19 +772,19 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="17">
+      <c r="A9" s="15">
         <v>21</v>
       </c>
-      <c r="B9" s="21">
-        <v>1</v>
-      </c>
-      <c r="C9" s="17">
-        <v>3</v>
-      </c>
-      <c r="D9" s="17" t="s">
+      <c r="B9" s="19">
+        <v>1</v>
+      </c>
+      <c r="C9" s="15">
+        <v>3</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="28">
+      <c r="I9" s="26">
         <v>4</v>
       </c>
       <c r="J9" s="2" t="s">
@@ -776,19 +792,19 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="17">
+      <c r="A10" s="15">
         <v>21</v>
       </c>
-      <c r="B10" s="21">
-        <v>1</v>
-      </c>
-      <c r="C10" s="17">
-        <v>4</v>
-      </c>
-      <c r="D10" s="17" t="s">
+      <c r="B10" s="19">
+        <v>1</v>
+      </c>
+      <c r="C10" s="15">
+        <v>4</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="26">
         <v>5</v>
       </c>
       <c r="J10" s="2" t="s">
@@ -796,16 +812,16 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="17">
+      <c r="A11" s="15">
         <v>21</v>
       </c>
-      <c r="B11" s="21">
-        <v>1</v>
-      </c>
-      <c r="C11" s="17">
-        <v>5</v>
-      </c>
-      <c r="D11" s="17" t="s">
+      <c r="B11" s="19">
+        <v>1</v>
+      </c>
+      <c r="C11" s="15">
+        <v>5</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>8</v>
       </c>
     </row>
@@ -819,7 +835,7 @@
       <c r="C12" s="4">
         <v>1</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="14" t="s">
         <v>7</v>
       </c>
     </row>
@@ -880,72 +896,72 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="18">
+      <c r="A17" s="16">
         <v>21</v>
       </c>
-      <c r="B17" s="18">
-        <v>0</v>
-      </c>
-      <c r="C17" s="18">
-        <v>1</v>
-      </c>
-      <c r="D17" s="19" t="s">
+      <c r="B17" s="16">
+        <v>0</v>
+      </c>
+      <c r="C17" s="16">
+        <v>1</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="18">
+      <c r="A18" s="16">
         <v>21</v>
       </c>
-      <c r="B18" s="18">
-        <v>0</v>
-      </c>
-      <c r="C18" s="18">
-        <v>2</v>
-      </c>
-      <c r="D18" s="19" t="s">
+      <c r="B18" s="16">
+        <v>0</v>
+      </c>
+      <c r="C18" s="16">
+        <v>2</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="18">
+      <c r="A19" s="16">
         <v>21</v>
       </c>
-      <c r="B19" s="18">
-        <v>0</v>
-      </c>
-      <c r="C19" s="18">
-        <v>3</v>
-      </c>
-      <c r="D19" s="18" t="s">
+      <c r="B19" s="16">
+        <v>0</v>
+      </c>
+      <c r="C19" s="16">
+        <v>3</v>
+      </c>
+      <c r="D19" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="18">
+      <c r="A20" s="16">
         <v>21</v>
       </c>
-      <c r="B20" s="18">
-        <v>0</v>
-      </c>
-      <c r="C20" s="18">
-        <v>4</v>
-      </c>
-      <c r="D20" s="18" t="s">
+      <c r="B20" s="16">
+        <v>0</v>
+      </c>
+      <c r="C20" s="16">
+        <v>4</v>
+      </c>
+      <c r="D20" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="18">
+      <c r="A21" s="16">
         <v>21</v>
       </c>
-      <c r="B21" s="18">
-        <v>0</v>
-      </c>
-      <c r="C21" s="18">
-        <v>5</v>
-      </c>
-      <c r="D21" s="18" t="s">
+      <c r="B21" s="16">
+        <v>0</v>
+      </c>
+      <c r="C21" s="16">
+        <v>5</v>
+      </c>
+      <c r="D21" s="16" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1020,1122 +1036,1122 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="10">
-        <v>22</v>
-      </c>
-      <c r="B27" s="10">
-        <v>0</v>
-      </c>
-      <c r="C27" s="10">
-        <v>1</v>
-      </c>
-      <c r="D27" s="15" t="s">
+      <c r="A27" s="8">
+        <v>22</v>
+      </c>
+      <c r="B27" s="8">
+        <v>0</v>
+      </c>
+      <c r="C27" s="8">
+        <v>1</v>
+      </c>
+      <c r="D27" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="10">
-        <v>22</v>
-      </c>
-      <c r="B28" s="10">
-        <v>0</v>
-      </c>
-      <c r="C28" s="10">
-        <v>2</v>
-      </c>
-      <c r="D28" s="10" t="s">
+      <c r="A28" s="8">
+        <v>22</v>
+      </c>
+      <c r="B28" s="8">
+        <v>0</v>
+      </c>
+      <c r="C28" s="8">
+        <v>2</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="10">
-        <v>22</v>
-      </c>
-      <c r="B29" s="10">
-        <v>0</v>
-      </c>
-      <c r="C29" s="10">
-        <v>3</v>
-      </c>
-      <c r="D29" s="10" t="s">
+      <c r="A29" s="8">
+        <v>22</v>
+      </c>
+      <c r="B29" s="8">
+        <v>0</v>
+      </c>
+      <c r="C29" s="8">
+        <v>3</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="10">
-        <v>22</v>
-      </c>
-      <c r="B30" s="10">
-        <v>0</v>
-      </c>
-      <c r="C30" s="10">
-        <v>4</v>
-      </c>
-      <c r="D30" s="10" t="s">
+      <c r="A30" s="8">
+        <v>22</v>
+      </c>
+      <c r="B30" s="8">
+        <v>0</v>
+      </c>
+      <c r="C30" s="8">
+        <v>4</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="10">
-        <v>22</v>
-      </c>
-      <c r="B31" s="10">
-        <v>0</v>
-      </c>
-      <c r="C31" s="10">
-        <v>5</v>
-      </c>
-      <c r="D31" s="10" t="s">
+      <c r="A31" s="8">
+        <v>22</v>
+      </c>
+      <c r="B31" s="8">
+        <v>0</v>
+      </c>
+      <c r="C31" s="8">
+        <v>5</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="11">
-        <v>22</v>
-      </c>
-      <c r="B32" s="11">
-        <v>1</v>
-      </c>
-      <c r="C32" s="11">
-        <v>1</v>
-      </c>
-      <c r="D32" s="11" t="s">
+      <c r="A32" s="9">
+        <v>22</v>
+      </c>
+      <c r="B32" s="9">
+        <v>1</v>
+      </c>
+      <c r="C32" s="9">
+        <v>1</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="11">
-        <v>22</v>
-      </c>
-      <c r="B33" s="11">
-        <v>1</v>
-      </c>
-      <c r="C33" s="11">
-        <v>2</v>
-      </c>
-      <c r="D33" s="11" t="s">
+      <c r="A33" s="9">
+        <v>22</v>
+      </c>
+      <c r="B33" s="9">
+        <v>1</v>
+      </c>
+      <c r="C33" s="9">
+        <v>2</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="11">
-        <v>22</v>
-      </c>
-      <c r="B34" s="11">
-        <v>1</v>
-      </c>
-      <c r="C34" s="11">
-        <v>3</v>
-      </c>
-      <c r="D34" s="11" t="s">
+      <c r="A34" s="9">
+        <v>22</v>
+      </c>
+      <c r="B34" s="9">
+        <v>1</v>
+      </c>
+      <c r="C34" s="9">
+        <v>3</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="11">
-        <v>22</v>
-      </c>
-      <c r="B35" s="11">
-        <v>1</v>
-      </c>
-      <c r="C35" s="11">
-        <v>4</v>
-      </c>
-      <c r="D35" s="11" t="s">
+      <c r="A35" s="9">
+        <v>22</v>
+      </c>
+      <c r="B35" s="9">
+        <v>1</v>
+      </c>
+      <c r="C35" s="9">
+        <v>4</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="11">
-        <v>22</v>
-      </c>
-      <c r="B36" s="11">
-        <v>1</v>
-      </c>
-      <c r="C36" s="11">
-        <v>5</v>
-      </c>
-      <c r="D36" s="11" t="s">
+      <c r="A36" s="9">
+        <v>22</v>
+      </c>
+      <c r="B36" s="9">
+        <v>1</v>
+      </c>
+      <c r="C36" s="9">
+        <v>5</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="23">
-        <v>22</v>
-      </c>
-      <c r="B37" s="23">
-        <v>1</v>
-      </c>
-      <c r="C37" s="23">
-        <v>1</v>
-      </c>
-      <c r="D37" s="23" t="s">
+      <c r="A37" s="21">
+        <v>22</v>
+      </c>
+      <c r="B37" s="21">
+        <v>1</v>
+      </c>
+      <c r="C37" s="21">
+        <v>1</v>
+      </c>
+      <c r="D37" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="23">
-        <v>22</v>
-      </c>
-      <c r="B38" s="23">
-        <v>1</v>
-      </c>
-      <c r="C38" s="23">
-        <v>2</v>
-      </c>
-      <c r="D38" s="23" t="s">
+      <c r="A38" s="21">
+        <v>22</v>
+      </c>
+      <c r="B38" s="21">
+        <v>1</v>
+      </c>
+      <c r="C38" s="21">
+        <v>2</v>
+      </c>
+      <c r="D38" s="21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="23">
-        <v>22</v>
-      </c>
-      <c r="B39" s="23">
-        <v>1</v>
-      </c>
-      <c r="C39" s="23">
-        <v>3</v>
-      </c>
-      <c r="D39" s="23" t="s">
+      <c r="A39" s="21">
+        <v>22</v>
+      </c>
+      <c r="B39" s="21">
+        <v>1</v>
+      </c>
+      <c r="C39" s="21">
+        <v>3</v>
+      </c>
+      <c r="D39" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="23">
-        <v>22</v>
-      </c>
-      <c r="B40" s="23">
-        <v>1</v>
-      </c>
-      <c r="C40" s="23">
-        <v>4</v>
-      </c>
-      <c r="D40" s="23" t="s">
+      <c r="A40" s="21">
+        <v>22</v>
+      </c>
+      <c r="B40" s="21">
+        <v>1</v>
+      </c>
+      <c r="C40" s="21">
+        <v>4</v>
+      </c>
+      <c r="D40" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="23">
-        <v>22</v>
-      </c>
-      <c r="B41" s="23">
-        <v>1</v>
-      </c>
-      <c r="C41" s="23">
-        <v>5</v>
-      </c>
-      <c r="D41" s="23" t="s">
+      <c r="A41" s="21">
+        <v>22</v>
+      </c>
+      <c r="B41" s="21">
+        <v>1</v>
+      </c>
+      <c r="C41" s="21">
+        <v>5</v>
+      </c>
+      <c r="D41" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="22">
-        <v>22</v>
-      </c>
-      <c r="B42" s="22">
-        <v>1</v>
-      </c>
-      <c r="C42" s="22">
-        <v>1</v>
-      </c>
-      <c r="D42" s="22" t="s">
+      <c r="A42" s="20">
+        <v>22</v>
+      </c>
+      <c r="B42" s="20">
+        <v>1</v>
+      </c>
+      <c r="C42" s="20">
+        <v>1</v>
+      </c>
+      <c r="D42" s="20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="22">
-        <v>22</v>
-      </c>
-      <c r="B43" s="22">
-        <v>1</v>
-      </c>
-      <c r="C43" s="22">
-        <v>2</v>
-      </c>
-      <c r="D43" s="22" t="s">
+      <c r="A43" s="20">
+        <v>22</v>
+      </c>
+      <c r="B43" s="20">
+        <v>1</v>
+      </c>
+      <c r="C43" s="20">
+        <v>2</v>
+      </c>
+      <c r="D43" s="20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="22">
-        <v>22</v>
-      </c>
-      <c r="B44" s="22">
-        <v>1</v>
-      </c>
-      <c r="C44" s="22">
-        <v>3</v>
-      </c>
-      <c r="D44" s="22" t="s">
+      <c r="A44" s="20">
+        <v>22</v>
+      </c>
+      <c r="B44" s="20">
+        <v>1</v>
+      </c>
+      <c r="C44" s="20">
+        <v>3</v>
+      </c>
+      <c r="D44" s="20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="22">
-        <v>22</v>
-      </c>
-      <c r="B45" s="22">
-        <v>1</v>
-      </c>
-      <c r="C45" s="22">
-        <v>4</v>
-      </c>
-      <c r="D45" s="22" t="s">
+      <c r="A45" s="20">
+        <v>22</v>
+      </c>
+      <c r="B45" s="20">
+        <v>1</v>
+      </c>
+      <c r="C45" s="20">
+        <v>4</v>
+      </c>
+      <c r="D45" s="20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="22">
-        <v>22</v>
-      </c>
-      <c r="B46" s="22">
-        <v>1</v>
-      </c>
-      <c r="C46" s="22">
-        <v>5</v>
-      </c>
-      <c r="D46" s="22" t="s">
+      <c r="A46" s="20">
+        <v>22</v>
+      </c>
+      <c r="B46" s="20">
+        <v>1</v>
+      </c>
+      <c r="C46" s="20">
+        <v>5</v>
+      </c>
+      <c r="D46" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="9">
-        <v>22</v>
-      </c>
-      <c r="B47" s="9">
-        <v>1</v>
-      </c>
-      <c r="C47" s="9">
-        <v>1</v>
-      </c>
-      <c r="D47" s="9" t="s">
+      <c r="A47" s="7">
+        <v>22</v>
+      </c>
+      <c r="B47" s="7">
+        <v>1</v>
+      </c>
+      <c r="C47" s="7">
+        <v>1</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="9">
-        <v>22</v>
-      </c>
-      <c r="B48" s="9">
-        <v>1</v>
-      </c>
-      <c r="C48" s="9">
-        <v>2</v>
-      </c>
-      <c r="D48" s="9" t="s">
+      <c r="A48" s="7">
+        <v>22</v>
+      </c>
+      <c r="B48" s="7">
+        <v>1</v>
+      </c>
+      <c r="C48" s="7">
+        <v>2</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="9">
-        <v>22</v>
-      </c>
-      <c r="B49" s="9">
-        <v>1</v>
-      </c>
-      <c r="C49" s="9">
-        <v>3</v>
-      </c>
-      <c r="D49" s="9" t="s">
+      <c r="A49" s="7">
+        <v>22</v>
+      </c>
+      <c r="B49" s="7">
+        <v>1</v>
+      </c>
+      <c r="C49" s="7">
+        <v>3</v>
+      </c>
+      <c r="D49" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="9">
-        <v>22</v>
-      </c>
-      <c r="B50" s="9">
-        <v>1</v>
-      </c>
-      <c r="C50" s="9">
-        <v>4</v>
-      </c>
-      <c r="D50" s="9" t="s">
+      <c r="A50" s="7">
+        <v>22</v>
+      </c>
+      <c r="B50" s="7">
+        <v>1</v>
+      </c>
+      <c r="C50" s="7">
+        <v>4</v>
+      </c>
+      <c r="D50" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="9">
-        <v>22</v>
-      </c>
-      <c r="B51" s="9">
-        <v>1</v>
-      </c>
-      <c r="C51" s="9">
-        <v>5</v>
-      </c>
-      <c r="D51" s="9" t="s">
+      <c r="A51" s="7">
+        <v>22</v>
+      </c>
+      <c r="B51" s="7">
+        <v>1</v>
+      </c>
+      <c r="C51" s="7">
+        <v>5</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="24">
-        <v>23</v>
-      </c>
-      <c r="B52" s="24">
-        <v>0</v>
-      </c>
-      <c r="C52" s="24">
-        <v>1</v>
-      </c>
-      <c r="D52" s="24" t="s">
+      <c r="A52" s="22">
+        <v>23</v>
+      </c>
+      <c r="B52" s="22">
+        <v>0</v>
+      </c>
+      <c r="C52" s="22">
+        <v>1</v>
+      </c>
+      <c r="D52" s="22" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="24">
-        <v>23</v>
-      </c>
-      <c r="B53" s="24">
-        <v>0</v>
-      </c>
-      <c r="C53" s="24">
-        <v>2</v>
-      </c>
-      <c r="D53" s="24" t="s">
+      <c r="A53" s="22">
+        <v>23</v>
+      </c>
+      <c r="B53" s="22">
+        <v>0</v>
+      </c>
+      <c r="C53" s="22">
+        <v>2</v>
+      </c>
+      <c r="D53" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="24">
-        <v>23</v>
-      </c>
-      <c r="B54" s="24">
-        <v>0</v>
-      </c>
-      <c r="C54" s="24">
-        <v>3</v>
-      </c>
-      <c r="D54" s="24" t="s">
+      <c r="A54" s="22">
+        <v>23</v>
+      </c>
+      <c r="B54" s="22">
+        <v>0</v>
+      </c>
+      <c r="C54" s="22">
+        <v>3</v>
+      </c>
+      <c r="D54" s="22" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="24">
-        <v>23</v>
-      </c>
-      <c r="B55" s="24">
-        <v>0</v>
-      </c>
-      <c r="C55" s="24">
-        <v>4</v>
-      </c>
-      <c r="D55" s="24" t="s">
+      <c r="A55" s="22">
+        <v>23</v>
+      </c>
+      <c r="B55" s="22">
+        <v>0</v>
+      </c>
+      <c r="C55" s="22">
+        <v>4</v>
+      </c>
+      <c r="D55" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="24">
-        <v>23</v>
-      </c>
-      <c r="B56" s="24">
-        <v>0</v>
-      </c>
-      <c r="C56" s="24">
-        <v>5</v>
-      </c>
-      <c r="D56" s="24" t="s">
+      <c r="A56" s="22">
+        <v>23</v>
+      </c>
+      <c r="B56" s="22">
+        <v>0</v>
+      </c>
+      <c r="C56" s="22">
+        <v>5</v>
+      </c>
+      <c r="D56" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="7">
-        <v>23</v>
-      </c>
-      <c r="B57" s="7">
-        <v>1</v>
-      </c>
-      <c r="C57" s="7">
-        <v>1</v>
-      </c>
-      <c r="D57" s="7" t="s">
+      <c r="A57" s="31">
+        <v>23</v>
+      </c>
+      <c r="B57" s="31">
+        <v>1</v>
+      </c>
+      <c r="C57" s="31">
+        <v>1</v>
+      </c>
+      <c r="D57" s="31" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="7">
-        <v>23</v>
-      </c>
-      <c r="B58" s="7">
-        <v>1</v>
-      </c>
-      <c r="C58" s="7">
-        <v>2</v>
-      </c>
-      <c r="D58" s="7" t="s">
+      <c r="A58" s="31">
+        <v>23</v>
+      </c>
+      <c r="B58" s="31">
+        <v>1</v>
+      </c>
+      <c r="C58" s="31">
+        <v>2</v>
+      </c>
+      <c r="D58" s="31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="7">
-        <v>23</v>
-      </c>
-      <c r="B59" s="7">
-        <v>1</v>
-      </c>
-      <c r="C59" s="7">
-        <v>3</v>
-      </c>
-      <c r="D59" s="7" t="s">
+      <c r="A59" s="31">
+        <v>23</v>
+      </c>
+      <c r="B59" s="31">
+        <v>1</v>
+      </c>
+      <c r="C59" s="31">
+        <v>3</v>
+      </c>
+      <c r="D59" s="31" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="7">
-        <v>23</v>
-      </c>
-      <c r="B60" s="7">
-        <v>1</v>
-      </c>
-      <c r="C60" s="7">
-        <v>4</v>
-      </c>
-      <c r="D60" s="7" t="s">
+      <c r="A60" s="31">
+        <v>23</v>
+      </c>
+      <c r="B60" s="31">
+        <v>1</v>
+      </c>
+      <c r="C60" s="31">
+        <v>4</v>
+      </c>
+      <c r="D60" s="31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="7">
-        <v>23</v>
-      </c>
-      <c r="B61" s="7">
-        <v>1</v>
-      </c>
-      <c r="C61" s="7">
-        <v>5</v>
-      </c>
-      <c r="D61" s="7" t="s">
+      <c r="A61" s="31">
+        <v>23</v>
+      </c>
+      <c r="B61" s="31">
+        <v>1</v>
+      </c>
+      <c r="C61" s="31">
+        <v>5</v>
+      </c>
+      <c r="D61" s="31" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="8">
-        <v>23</v>
-      </c>
-      <c r="B62" s="8">
-        <v>1</v>
-      </c>
-      <c r="C62" s="8">
-        <v>1</v>
-      </c>
-      <c r="D62" s="8" t="s">
+      <c r="A62" s="30">
+        <v>23</v>
+      </c>
+      <c r="B62" s="30">
+        <v>1</v>
+      </c>
+      <c r="C62" s="30">
+        <v>1</v>
+      </c>
+      <c r="D62" s="30" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="8">
-        <v>23</v>
-      </c>
-      <c r="B63" s="8">
-        <v>1</v>
-      </c>
-      <c r="C63" s="8">
-        <v>2</v>
-      </c>
-      <c r="D63" s="8" t="s">
+      <c r="A63" s="30">
+        <v>23</v>
+      </c>
+      <c r="B63" s="30">
+        <v>1</v>
+      </c>
+      <c r="C63" s="30">
+        <v>2</v>
+      </c>
+      <c r="D63" s="30" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="8">
-        <v>23</v>
-      </c>
-      <c r="B64" s="8">
-        <v>1</v>
-      </c>
-      <c r="C64" s="8">
-        <v>3</v>
-      </c>
-      <c r="D64" s="8" t="s">
+      <c r="A64" s="30">
+        <v>23</v>
+      </c>
+      <c r="B64" s="30">
+        <v>1</v>
+      </c>
+      <c r="C64" s="30">
+        <v>3</v>
+      </c>
+      <c r="D64" s="30" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="8">
-        <v>23</v>
-      </c>
-      <c r="B65" s="8">
-        <v>1</v>
-      </c>
-      <c r="C65" s="8">
-        <v>4</v>
-      </c>
-      <c r="D65" s="8" t="s">
+      <c r="A65" s="30">
+        <v>23</v>
+      </c>
+      <c r="B65" s="30">
+        <v>1</v>
+      </c>
+      <c r="C65" s="30">
+        <v>4</v>
+      </c>
+      <c r="D65" s="30" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="8">
-        <v>23</v>
-      </c>
-      <c r="B66" s="8">
-        <v>1</v>
-      </c>
-      <c r="C66" s="8">
-        <v>5</v>
-      </c>
-      <c r="D66" s="8" t="s">
+      <c r="A66" s="30">
+        <v>23</v>
+      </c>
+      <c r="B66" s="30">
+        <v>1</v>
+      </c>
+      <c r="C66" s="30">
+        <v>5</v>
+      </c>
+      <c r="D66" s="30" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="2">
-        <v>23</v>
-      </c>
-      <c r="B67" s="2">
-        <v>1</v>
-      </c>
-      <c r="C67" s="2">
-        <v>1</v>
-      </c>
-      <c r="D67" s="2" t="s">
+      <c r="A67" s="29">
+        <v>23</v>
+      </c>
+      <c r="B67" s="29">
+        <v>1</v>
+      </c>
+      <c r="C67" s="29">
+        <v>1</v>
+      </c>
+      <c r="D67" s="29" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="2">
-        <v>23</v>
-      </c>
-      <c r="B68" s="2">
-        <v>1</v>
-      </c>
-      <c r="C68" s="2">
-        <v>2</v>
-      </c>
-      <c r="D68" s="2" t="s">
+      <c r="A68" s="29">
+        <v>23</v>
+      </c>
+      <c r="B68" s="29">
+        <v>1</v>
+      </c>
+      <c r="C68" s="29">
+        <v>2</v>
+      </c>
+      <c r="D68" s="29" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="2">
-        <v>23</v>
-      </c>
-      <c r="B69" s="2">
-        <v>1</v>
-      </c>
-      <c r="C69" s="2">
-        <v>3</v>
-      </c>
-      <c r="D69" s="2" t="s">
+      <c r="A69" s="29">
+        <v>23</v>
+      </c>
+      <c r="B69" s="29">
+        <v>1</v>
+      </c>
+      <c r="C69" s="29">
+        <v>3</v>
+      </c>
+      <c r="D69" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="2">
-        <v>23</v>
-      </c>
-      <c r="B70" s="2">
-        <v>1</v>
-      </c>
-      <c r="C70" s="2">
-        <v>4</v>
-      </c>
-      <c r="D70" s="2" t="s">
+      <c r="A70" s="29">
+        <v>23</v>
+      </c>
+      <c r="B70" s="29">
+        <v>1</v>
+      </c>
+      <c r="C70" s="29">
+        <v>4</v>
+      </c>
+      <c r="D70" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="2">
-        <v>23</v>
-      </c>
-      <c r="B71" s="2">
-        <v>1</v>
-      </c>
-      <c r="C71" s="2">
-        <v>5</v>
-      </c>
-      <c r="D71" s="2" t="s">
+      <c r="A71" s="29">
+        <v>23</v>
+      </c>
+      <c r="B71" s="29">
+        <v>1</v>
+      </c>
+      <c r="C71" s="29">
+        <v>5</v>
+      </c>
+      <c r="D71" s="29" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="5">
-        <v>23</v>
-      </c>
-      <c r="B72" s="5">
-        <v>0</v>
-      </c>
-      <c r="C72" s="5">
-        <v>1</v>
-      </c>
-      <c r="D72" s="5" t="s">
+      <c r="A72" s="28">
+        <v>23</v>
+      </c>
+      <c r="B72" s="28">
+        <v>0</v>
+      </c>
+      <c r="C72" s="28">
+        <v>1</v>
+      </c>
+      <c r="D72" s="28" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="5">
-        <v>23</v>
-      </c>
-      <c r="B73" s="5">
-        <v>0</v>
-      </c>
-      <c r="C73" s="5">
-        <v>2</v>
-      </c>
-      <c r="D73" s="5" t="s">
+      <c r="A73" s="28">
+        <v>23</v>
+      </c>
+      <c r="B73" s="28">
+        <v>0</v>
+      </c>
+      <c r="C73" s="28">
+        <v>2</v>
+      </c>
+      <c r="D73" s="28" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="5">
-        <v>23</v>
-      </c>
-      <c r="B74" s="5">
-        <v>0</v>
-      </c>
-      <c r="C74" s="5">
-        <v>3</v>
-      </c>
-      <c r="D74" s="5" t="s">
+      <c r="A74" s="28">
+        <v>23</v>
+      </c>
+      <c r="B74" s="28">
+        <v>0</v>
+      </c>
+      <c r="C74" s="28">
+        <v>3</v>
+      </c>
+      <c r="D74" s="28" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="5">
-        <v>23</v>
-      </c>
-      <c r="B75" s="5">
-        <v>0</v>
-      </c>
-      <c r="C75" s="5">
-        <v>4</v>
-      </c>
-      <c r="D75" s="5" t="s">
+      <c r="A75" s="28">
+        <v>23</v>
+      </c>
+      <c r="B75" s="28">
+        <v>0</v>
+      </c>
+      <c r="C75" s="28">
+        <v>4</v>
+      </c>
+      <c r="D75" s="28" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="5">
-        <v>23</v>
-      </c>
-      <c r="B76" s="5">
-        <v>0</v>
-      </c>
-      <c r="C76" s="5">
-        <v>5</v>
-      </c>
-      <c r="D76" s="5" t="s">
+      <c r="A76" s="28">
+        <v>23</v>
+      </c>
+      <c r="B76" s="28">
+        <v>0</v>
+      </c>
+      <c r="C76" s="28">
+        <v>5</v>
+      </c>
+      <c r="D76" s="28" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="12">
+      <c r="A77" s="10">
         <v>24</v>
       </c>
-      <c r="B77" s="12">
-        <v>1</v>
-      </c>
-      <c r="C77" s="12">
-        <v>1</v>
-      </c>
-      <c r="D77" s="12" t="s">
+      <c r="B77" s="10">
+        <v>1</v>
+      </c>
+      <c r="C77" s="10">
+        <v>1</v>
+      </c>
+      <c r="D77" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" s="12">
+      <c r="A78" s="10">
         <v>24</v>
       </c>
-      <c r="B78" s="12">
-        <v>1</v>
-      </c>
-      <c r="C78" s="12">
-        <v>2</v>
-      </c>
-      <c r="D78" s="12" t="s">
+      <c r="B78" s="10">
+        <v>1</v>
+      </c>
+      <c r="C78" s="10">
+        <v>2</v>
+      </c>
+      <c r="D78" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" s="12">
+      <c r="A79" s="10">
         <v>24</v>
       </c>
-      <c r="B79" s="12">
-        <v>1</v>
-      </c>
-      <c r="C79" s="12">
-        <v>3</v>
-      </c>
-      <c r="D79" s="12" t="s">
+      <c r="B79" s="10">
+        <v>1</v>
+      </c>
+      <c r="C79" s="10">
+        <v>3</v>
+      </c>
+      <c r="D79" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" s="12">
+      <c r="A80" s="10">
         <v>24</v>
       </c>
-      <c r="B80" s="12">
-        <v>1</v>
-      </c>
-      <c r="C80" s="12">
-        <v>4</v>
-      </c>
-      <c r="D80" s="12" t="s">
+      <c r="B80" s="10">
+        <v>1</v>
+      </c>
+      <c r="C80" s="10">
+        <v>4</v>
+      </c>
+      <c r="D80" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" s="12">
+      <c r="A81" s="10">
         <v>24</v>
       </c>
-      <c r="B81" s="12">
-        <v>1</v>
-      </c>
-      <c r="C81" s="12">
-        <v>5</v>
-      </c>
-      <c r="D81" s="12" t="s">
+      <c r="B81" s="10">
+        <v>1</v>
+      </c>
+      <c r="C81" s="10">
+        <v>5</v>
+      </c>
+      <c r="D81" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" s="14">
+      <c r="A82" s="12">
         <v>24</v>
       </c>
-      <c r="B82" s="14">
-        <v>0</v>
-      </c>
-      <c r="C82" s="14">
-        <v>1</v>
-      </c>
-      <c r="D82" s="14" t="s">
+      <c r="B82" s="12">
+        <v>0</v>
+      </c>
+      <c r="C82" s="12">
+        <v>1</v>
+      </c>
+      <c r="D82" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" s="14">
+      <c r="A83" s="12">
         <v>24</v>
       </c>
-      <c r="B83" s="14">
-        <v>0</v>
-      </c>
-      <c r="C83" s="14">
-        <v>2</v>
-      </c>
-      <c r="D83" s="14" t="s">
+      <c r="B83" s="12">
+        <v>0</v>
+      </c>
+      <c r="C83" s="12">
+        <v>2</v>
+      </c>
+      <c r="D83" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" s="14">
+      <c r="A84" s="12">
         <v>24</v>
       </c>
-      <c r="B84" s="14">
-        <v>0</v>
-      </c>
-      <c r="C84" s="14">
-        <v>3</v>
-      </c>
-      <c r="D84" s="14" t="s">
+      <c r="B84" s="12">
+        <v>0</v>
+      </c>
+      <c r="C84" s="12">
+        <v>3</v>
+      </c>
+      <c r="D84" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" s="14">
+      <c r="A85" s="12">
         <v>24</v>
       </c>
-      <c r="B85" s="14">
-        <v>0</v>
-      </c>
-      <c r="C85" s="14">
-        <v>4</v>
-      </c>
-      <c r="D85" s="14" t="s">
+      <c r="B85" s="12">
+        <v>0</v>
+      </c>
+      <c r="C85" s="12">
+        <v>4</v>
+      </c>
+      <c r="D85" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" s="14">
+      <c r="A86" s="12">
         <v>24</v>
       </c>
-      <c r="B86" s="14">
-        <v>0</v>
-      </c>
-      <c r="C86" s="14">
-        <v>5</v>
-      </c>
-      <c r="D86" s="14" t="s">
+      <c r="B86" s="12">
+        <v>0</v>
+      </c>
+      <c r="C86" s="12">
+        <v>5</v>
+      </c>
+      <c r="D86" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87" s="13">
+      <c r="A87" s="11">
         <v>24</v>
       </c>
-      <c r="B87" s="13">
-        <v>0</v>
-      </c>
-      <c r="C87" s="13">
-        <v>1</v>
-      </c>
-      <c r="D87" s="13" t="s">
+      <c r="B87" s="11">
+        <v>0</v>
+      </c>
+      <c r="C87" s="11">
+        <v>1</v>
+      </c>
+      <c r="D87" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" s="13">
+      <c r="A88" s="11">
         <v>24</v>
       </c>
-      <c r="B88" s="13">
-        <v>0</v>
-      </c>
-      <c r="C88" s="13">
-        <v>2</v>
-      </c>
-      <c r="D88" s="13" t="s">
+      <c r="B88" s="11">
+        <v>0</v>
+      </c>
+      <c r="C88" s="11">
+        <v>2</v>
+      </c>
+      <c r="D88" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" s="13">
+      <c r="A89" s="11">
         <v>24</v>
       </c>
-      <c r="B89" s="13">
-        <v>0</v>
-      </c>
-      <c r="C89" s="13">
-        <v>3</v>
-      </c>
-      <c r="D89" s="13" t="s">
+      <c r="B89" s="11">
+        <v>0</v>
+      </c>
+      <c r="C89" s="11">
+        <v>3</v>
+      </c>
+      <c r="D89" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90" s="13">
+      <c r="A90" s="11">
         <v>24</v>
       </c>
-      <c r="B90" s="13">
-        <v>0</v>
-      </c>
-      <c r="C90" s="13">
-        <v>4</v>
-      </c>
-      <c r="D90" s="13" t="s">
+      <c r="B90" s="11">
+        <v>0</v>
+      </c>
+      <c r="C90" s="11">
+        <v>4</v>
+      </c>
+      <c r="D90" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91" s="13">
+      <c r="A91" s="11">
         <v>24</v>
       </c>
-      <c r="B91" s="13">
-        <v>0</v>
-      </c>
-      <c r="C91" s="13">
-        <v>5</v>
-      </c>
-      <c r="D91" s="13" t="s">
+      <c r="B91" s="11">
+        <v>0</v>
+      </c>
+      <c r="C91" s="11">
+        <v>5</v>
+      </c>
+      <c r="D91" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" s="25">
+      <c r="A92" s="23">
         <v>25</v>
       </c>
-      <c r="B92" s="25">
-        <v>0</v>
-      </c>
-      <c r="C92" s="25">
-        <v>1</v>
-      </c>
-      <c r="D92" s="25" t="s">
+      <c r="B92" s="23">
+        <v>0</v>
+      </c>
+      <c r="C92" s="23">
+        <v>1</v>
+      </c>
+      <c r="D92" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93" s="25">
+      <c r="A93" s="23">
         <v>25</v>
       </c>
-      <c r="B93" s="25">
-        <v>0</v>
-      </c>
-      <c r="C93" s="25">
-        <v>2</v>
-      </c>
-      <c r="D93" s="25" t="s">
+      <c r="B93" s="23">
+        <v>0</v>
+      </c>
+      <c r="C93" s="23">
+        <v>2</v>
+      </c>
+      <c r="D93" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94" s="25">
+      <c r="A94" s="23">
         <v>25</v>
       </c>
-      <c r="B94" s="25">
-        <v>0</v>
-      </c>
-      <c r="C94" s="25">
-        <v>3</v>
-      </c>
-      <c r="D94" s="25" t="s">
+      <c r="B94" s="23">
+        <v>0</v>
+      </c>
+      <c r="C94" s="23">
+        <v>3</v>
+      </c>
+      <c r="D94" s="23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95" s="25">
+      <c r="A95" s="23">
         <v>25</v>
       </c>
-      <c r="B95" s="25">
-        <v>0</v>
-      </c>
-      <c r="C95" s="25">
-        <v>4</v>
-      </c>
-      <c r="D95" s="25" t="s">
+      <c r="B95" s="23">
+        <v>0</v>
+      </c>
+      <c r="C95" s="23">
+        <v>4</v>
+      </c>
+      <c r="D95" s="23" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A96" s="25">
+      <c r="A96" s="23">
         <v>25</v>
       </c>
-      <c r="B96" s="25">
-        <v>0</v>
-      </c>
-      <c r="C96" s="25">
-        <v>5</v>
-      </c>
-      <c r="D96" s="25" t="s">
+      <c r="B96" s="23">
+        <v>0</v>
+      </c>
+      <c r="C96" s="23">
+        <v>5</v>
+      </c>
+      <c r="D96" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A97" s="26">
+      <c r="A97" s="24">
         <v>27</v>
       </c>
-      <c r="B97" s="26">
-        <v>0</v>
-      </c>
-      <c r="C97" s="26">
-        <v>1</v>
-      </c>
-      <c r="D97" s="26" t="s">
+      <c r="B97" s="24">
+        <v>0</v>
+      </c>
+      <c r="C97" s="24">
+        <v>1</v>
+      </c>
+      <c r="D97" s="24" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A98" s="26">
+      <c r="A98" s="24">
         <v>27</v>
       </c>
-      <c r="B98" s="26">
-        <v>0</v>
-      </c>
-      <c r="C98" s="26">
-        <v>2</v>
-      </c>
-      <c r="D98" s="26" t="s">
+      <c r="B98" s="24">
+        <v>0</v>
+      </c>
+      <c r="C98" s="24">
+        <v>2</v>
+      </c>
+      <c r="D98" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A99" s="26">
+      <c r="A99" s="24">
         <v>27</v>
       </c>
-      <c r="B99" s="26">
-        <v>0</v>
-      </c>
-      <c r="C99" s="26">
-        <v>3</v>
-      </c>
-      <c r="D99" s="26" t="s">
+      <c r="B99" s="24">
+        <v>0</v>
+      </c>
+      <c r="C99" s="24">
+        <v>3</v>
+      </c>
+      <c r="D99" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A100" s="26">
+      <c r="A100" s="24">
         <v>27</v>
       </c>
-      <c r="B100" s="26">
-        <v>0</v>
-      </c>
-      <c r="C100" s="26">
-        <v>4</v>
-      </c>
-      <c r="D100" s="26" t="s">
+      <c r="B100" s="24">
+        <v>0</v>
+      </c>
+      <c r="C100" s="24">
+        <v>4</v>
+      </c>
+      <c r="D100" s="24" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A101" s="26">
+      <c r="A101" s="24">
         <v>27</v>
       </c>
-      <c r="B101" s="26">
-        <v>0</v>
-      </c>
-      <c r="C101" s="26">
-        <v>5</v>
-      </c>
-      <c r="D101" s="26" t="s">
+      <c r="B101" s="24">
+        <v>0</v>
+      </c>
+      <c r="C101" s="24">
+        <v>5</v>
+      </c>
+      <c r="D101" s="24" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A102" s="27">
+      <c r="A102" s="25">
         <v>31</v>
       </c>
-      <c r="B102" s="27">
-        <v>1</v>
-      </c>
-      <c r="C102" s="27">
-        <v>1</v>
-      </c>
-      <c r="D102" s="27" t="s">
+      <c r="B102" s="25">
+        <v>1</v>
+      </c>
+      <c r="C102" s="25">
+        <v>1</v>
+      </c>
+      <c r="D102" s="25" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A103" s="27">
+      <c r="A103" s="25">
         <v>31</v>
       </c>
-      <c r="B103" s="27">
-        <v>1</v>
-      </c>
-      <c r="C103" s="27">
-        <v>2</v>
-      </c>
-      <c r="D103" s="27" t="s">
+      <c r="B103" s="25">
+        <v>1</v>
+      </c>
+      <c r="C103" s="25">
+        <v>2</v>
+      </c>
+      <c r="D103" s="25" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A104" s="27">
+      <c r="A104" s="25">
         <v>31</v>
       </c>
-      <c r="B104" s="27">
-        <v>1</v>
-      </c>
-      <c r="C104" s="27">
-        <v>3</v>
-      </c>
-      <c r="D104" s="27" t="s">
+      <c r="B104" s="25">
+        <v>1</v>
+      </c>
+      <c r="C104" s="25">
+        <v>3</v>
+      </c>
+      <c r="D104" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A105" s="27">
+      <c r="A105" s="25">
         <v>31</v>
       </c>
-      <c r="B105" s="27">
-        <v>1</v>
-      </c>
-      <c r="C105" s="27">
-        <v>4</v>
-      </c>
-      <c r="D105" s="27" t="s">
+      <c r="B105" s="25">
+        <v>1</v>
+      </c>
+      <c r="C105" s="25">
+        <v>4</v>
+      </c>
+      <c r="D105" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A106" s="27">
+      <c r="A106" s="25">
         <v>31</v>
       </c>
-      <c r="B106" s="27">
-        <v>1</v>
-      </c>
-      <c r="C106" s="27">
-        <v>5</v>
-      </c>
-      <c r="D106" s="27" t="s">
+      <c r="B106" s="25">
+        <v>1</v>
+      </c>
+      <c r="C106" s="25">
+        <v>5</v>
+      </c>
+      <c r="D106" s="25" t="s">
         <v>9</v>
       </c>
     </row>

--- a/MusicApp/MusicRec.xlsx
+++ b/MusicApp/MusicRec.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -253,25 +253,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00CC00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC96563"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF80C535"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,9 +339,9 @@
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -351,6 +351,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FF80C535"/>
+      <color rgb="FFC96563"/>
       <color rgb="FFFFCCCC"/>
       <color rgb="FF00CC00"/>
       <color rgb="FFFFCC99"/>
@@ -359,8 +361,6 @@
       <color rgb="FFF6994C"/>
       <color rgb="FFF8AE70"/>
       <color rgb="FFFBC293"/>
-      <color rgb="FFFCCFAA"/>
-      <color rgb="FFD27E7C"/>
     </mruColors>
   </colors>
   <extLst>
@@ -663,16 +663,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L146"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D129" sqref="D129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -686,73 +686,73 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="38">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="35">
         <v>19</v>
       </c>
-      <c r="B2" s="38">
-        <v>0</v>
-      </c>
-      <c r="C2" s="38">
-        <v>1</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="38">
+      <c r="B2" s="35">
+        <v>0</v>
+      </c>
+      <c r="C2" s="35">
+        <v>1</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="35">
         <v>19</v>
       </c>
-      <c r="B3" s="38">
-        <v>0</v>
-      </c>
-      <c r="C3" s="38">
-        <v>2</v>
-      </c>
-      <c r="D3" s="38" t="s">
+      <c r="B3" s="35">
+        <v>0</v>
+      </c>
+      <c r="C3" s="35">
+        <v>2</v>
+      </c>
+      <c r="D3" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="38">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="35">
         <v>19</v>
       </c>
-      <c r="B4" s="38">
-        <v>0</v>
-      </c>
-      <c r="C4" s="38">
-        <v>3</v>
-      </c>
-      <c r="D4" s="38" t="s">
+      <c r="B4" s="35">
+        <v>0</v>
+      </c>
+      <c r="C4" s="35">
+        <v>3</v>
+      </c>
+      <c r="D4" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="38">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="35">
         <v>19</v>
       </c>
-      <c r="B5" s="38">
-        <v>0</v>
-      </c>
-      <c r="C5" s="38">
-        <v>4</v>
-      </c>
-      <c r="D5" s="38" t="s">
+      <c r="B5" s="35">
+        <v>0</v>
+      </c>
+      <c r="C5" s="35">
+        <v>4</v>
+      </c>
+      <c r="D5" s="35" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="38">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="35">
         <v>19</v>
       </c>
-      <c r="B6" s="38">
-        <v>0</v>
-      </c>
-      <c r="C6" s="38">
-        <v>5</v>
-      </c>
-      <c r="D6" s="38" t="s">
+      <c r="B6" s="35">
+        <v>0</v>
+      </c>
+      <c r="C6" s="35">
+        <v>5</v>
+      </c>
+      <c r="D6" s="35" t="s">
         <v>10</v>
       </c>
       <c r="I6" s="27">
@@ -768,7 +768,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>21</v>
       </c>
@@ -794,7 +794,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>21</v>
       </c>
@@ -814,7 +814,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>21</v>
       </c>
@@ -834,7 +834,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>21</v>
       </c>
@@ -854,7 +854,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>21</v>
       </c>
@@ -868,7 +868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="16">
         <v>21</v>
       </c>
@@ -882,7 +882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="16">
         <v>21</v>
       </c>
@@ -896,7 +896,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="16">
         <v>21</v>
       </c>
@@ -910,7 +910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="16">
         <v>21</v>
       </c>
@@ -924,7 +924,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="16">
         <v>21</v>
       </c>
@@ -938,7 +938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>21</v>
       </c>
@@ -952,7 +952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>21</v>
       </c>
@@ -966,7 +966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>21</v>
       </c>
@@ -980,7 +980,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>21</v>
       </c>
@@ -994,7 +994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>21</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="17">
         <v>21</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="17">
         <v>21</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="17">
         <v>21</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="17">
         <v>21</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="17">
         <v>21</v>
       </c>
@@ -1078,77 +1078,77 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="34">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="36">
         <v>21</v>
       </c>
-      <c r="B27" s="34">
-        <v>0</v>
-      </c>
-      <c r="C27" s="34">
-        <v>1</v>
-      </c>
-      <c r="D27" s="35" t="s">
+      <c r="B27" s="36">
+        <v>0</v>
+      </c>
+      <c r="C27" s="36">
+        <v>1</v>
+      </c>
+      <c r="D27" s="37" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="34">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="36">
         <v>21</v>
       </c>
-      <c r="B28" s="34">
-        <v>0</v>
-      </c>
-      <c r="C28" s="34">
-        <v>2</v>
-      </c>
-      <c r="D28" s="34" t="s">
+      <c r="B28" s="36">
+        <v>0</v>
+      </c>
+      <c r="C28" s="36">
+        <v>2</v>
+      </c>
+      <c r="D28" s="36" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="34">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="36">
         <v>21</v>
       </c>
-      <c r="B29" s="34">
-        <v>0</v>
-      </c>
-      <c r="C29" s="34">
-        <v>3</v>
-      </c>
-      <c r="D29" s="34" t="s">
+      <c r="B29" s="36">
+        <v>0</v>
+      </c>
+      <c r="C29" s="36">
+        <v>3</v>
+      </c>
+      <c r="D29" s="36" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="34">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="36">
         <v>21</v>
       </c>
-      <c r="B30" s="34">
-        <v>0</v>
-      </c>
-      <c r="C30" s="34">
-        <v>4</v>
-      </c>
-      <c r="D30" s="34" t="s">
+      <c r="B30" s="36">
+        <v>0</v>
+      </c>
+      <c r="C30" s="36">
+        <v>4</v>
+      </c>
+      <c r="D30" s="36" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="34">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="36">
         <v>21</v>
       </c>
-      <c r="B31" s="34">
-        <v>0</v>
-      </c>
-      <c r="C31" s="34">
-        <v>5</v>
-      </c>
-      <c r="D31" s="34" t="s">
+      <c r="B31" s="36">
+        <v>0</v>
+      </c>
+      <c r="C31" s="36">
+        <v>5</v>
+      </c>
+      <c r="D31" s="36" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <v>22</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
         <v>22</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
         <v>22</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
         <v>22</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
         <v>22</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="10">
         <v>22</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="10">
         <v>22</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="10">
         <v>22</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="10">
         <v>22</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="10">
         <v>22</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="11">
         <v>22</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="11">
         <v>22</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="11">
         <v>22</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="11">
         <v>22</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="11">
         <v>22</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="22">
         <v>22</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="22">
         <v>22</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="22">
         <v>22</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="22">
         <v>22</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="22">
         <v>22</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="21">
         <v>22</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="21">
         <v>22</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="21">
         <v>22</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="21">
         <v>22</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="21">
         <v>22</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="9">
         <v>22</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="9">
         <v>22</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="9">
         <v>22</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="9">
         <v>22</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="9">
         <v>22</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="33">
         <v>22</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="33">
         <v>22</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="33">
         <v>22</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="33">
         <v>22</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="33">
         <v>22</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="23">
         <v>23</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="23">
         <v>23</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="23">
         <v>23</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="23">
         <v>23</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="23">
         <v>23</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="7">
         <v>23</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="7">
         <v>23</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="7">
         <v>23</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="7">
         <v>23</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="7">
         <v>23</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="8">
         <v>23</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="8">
         <v>23</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="8">
         <v>23</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="8">
         <v>23</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="8">
         <v>23</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>23</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>23</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>23</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>23</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>23</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="5">
         <v>23</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="5">
         <v>23</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="5">
         <v>23</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="5">
         <v>23</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="5">
         <v>23</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="12">
         <v>24</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="12">
         <v>24</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="12">
         <v>24</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="12">
         <v>24</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="12">
         <v>24</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="14">
         <v>24</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="14">
         <v>24</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="14">
         <v>24</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="14">
         <v>24</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="14">
         <v>24</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="13">
         <v>24</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="13">
         <v>24</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="13">
         <v>24</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="13">
         <v>24</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="13">
         <v>24</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="24">
         <v>25</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="24">
         <v>25</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="24">
         <v>25</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="24">
         <v>25</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="24">
         <v>25</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="30">
         <v>25</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="30">
         <v>25</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="30">
         <v>25</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="30">
         <v>25</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="30">
         <v>25</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="25">
         <v>27</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="25">
         <v>27</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="25">
         <v>27</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="25">
         <v>27</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="25">
         <v>27</v>
       </c>
@@ -2408,77 +2408,77 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" s="36">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122" s="34">
         <v>27</v>
       </c>
-      <c r="B122" s="36">
-        <v>1</v>
-      </c>
-      <c r="C122" s="36">
-        <v>1</v>
-      </c>
-      <c r="D122" s="36" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" s="36">
+      <c r="B122" s="34">
+        <v>1</v>
+      </c>
+      <c r="C122" s="34">
+        <v>1</v>
+      </c>
+      <c r="D122" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" s="34">
         <v>27</v>
       </c>
-      <c r="B123" s="36">
-        <v>1</v>
-      </c>
-      <c r="C123" s="36">
-        <v>2</v>
-      </c>
-      <c r="D123" s="36" t="s">
+      <c r="B123" s="34">
+        <v>1</v>
+      </c>
+      <c r="C123" s="34">
+        <v>2</v>
+      </c>
+      <c r="D123" s="34" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" s="36">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124" s="34">
         <v>27</v>
       </c>
-      <c r="B124" s="36">
-        <v>1</v>
-      </c>
-      <c r="C124" s="36">
-        <v>3</v>
-      </c>
-      <c r="D124" s="36" t="s">
+      <c r="B124" s="34">
+        <v>1</v>
+      </c>
+      <c r="C124" s="34">
+        <v>3</v>
+      </c>
+      <c r="D124" s="34" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125" s="36">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125" s="34">
         <v>27</v>
       </c>
-      <c r="B125" s="36">
-        <v>1</v>
-      </c>
-      <c r="C125" s="36">
-        <v>4</v>
-      </c>
-      <c r="D125" s="36" t="s">
+      <c r="B125" s="34">
+        <v>1</v>
+      </c>
+      <c r="C125" s="34">
+        <v>4</v>
+      </c>
+      <c r="D125" s="34" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" s="36">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126" s="34">
         <v>27</v>
       </c>
-      <c r="B126" s="36">
-        <v>1</v>
-      </c>
-      <c r="C126" s="36">
-        <v>5</v>
-      </c>
-      <c r="D126" s="36" t="s">
+      <c r="B126" s="34">
+        <v>1</v>
+      </c>
+      <c r="C126" s="34">
+        <v>5</v>
+      </c>
+      <c r="D126" s="34" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="32">
         <v>28</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="32">
         <v>28</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="32">
         <v>28</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="32">
         <v>28</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="32">
         <v>28</v>
       </c>
@@ -2548,77 +2548,77 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A132" s="37">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A132" s="38">
         <v>29</v>
       </c>
-      <c r="B132" s="37">
-        <v>0</v>
-      </c>
-      <c r="C132" s="37">
-        <v>1</v>
-      </c>
-      <c r="D132" s="37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A133" s="37">
+      <c r="B132" s="38">
+        <v>0</v>
+      </c>
+      <c r="C132" s="38">
+        <v>1</v>
+      </c>
+      <c r="D132" s="38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133" s="38">
         <v>29</v>
       </c>
-      <c r="B133" s="37">
-        <v>0</v>
-      </c>
-      <c r="C133" s="37">
-        <v>2</v>
-      </c>
-      <c r="D133" s="37" t="s">
+      <c r="B133" s="38">
+        <v>0</v>
+      </c>
+      <c r="C133" s="38">
+        <v>2</v>
+      </c>
+      <c r="D133" s="38" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A134" s="37">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134" s="38">
         <v>29</v>
       </c>
-      <c r="B134" s="37">
-        <v>0</v>
-      </c>
-      <c r="C134" s="37">
-        <v>3</v>
-      </c>
-      <c r="D134" s="37" t="s">
+      <c r="B134" s="38">
+        <v>0</v>
+      </c>
+      <c r="C134" s="38">
+        <v>3</v>
+      </c>
+      <c r="D134" s="38" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A135" s="37">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135" s="38">
         <v>29</v>
       </c>
-      <c r="B135" s="37">
-        <v>0</v>
-      </c>
-      <c r="C135" s="37">
-        <v>4</v>
-      </c>
-      <c r="D135" s="37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A136" s="37">
+      <c r="B135" s="38">
+        <v>0</v>
+      </c>
+      <c r="C135" s="38">
+        <v>4</v>
+      </c>
+      <c r="D135" s="38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A136" s="38">
         <v>29</v>
       </c>
-      <c r="B136" s="37">
-        <v>0</v>
-      </c>
-      <c r="C136" s="37">
-        <v>5</v>
-      </c>
-      <c r="D136" s="37" t="s">
+      <c r="B136" s="38">
+        <v>0</v>
+      </c>
+      <c r="C136" s="38">
+        <v>5</v>
+      </c>
+      <c r="D136" s="38" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="26">
         <v>31</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="26">
         <v>31</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="26">
         <v>31</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="26">
         <v>31</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" s="26">
         <v>31</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="31">
         <v>32</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="31">
         <v>32</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="31">
         <v>32</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="31">
         <v>32</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="31">
         <v>32</v>
       </c>

--- a/MusicApp/MusicRec.xlsx
+++ b/MusicApp/MusicRec.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="19">
   <si>
     <t>Age</t>
   </si>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -94,7 +94,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="47">
+  <fills count="56">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -368,6 +368,60 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF009999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0099CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF33CCFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,7 +453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -599,6 +653,42 @@
     <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -607,16 +697,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FF33CCFF"/>
+      <color rgb="FF0099CC"/>
+      <color rgb="FF009999"/>
+      <color rgb="FF00CC99"/>
+      <color rgb="FFCCFF66"/>
+      <color rgb="FFCCFFCC"/>
+      <color rgb="FFFFFF99"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FF59B5CB"/>
       <color rgb="FFEFECF4"/>
-      <color rgb="FFC35451"/>
-      <color rgb="FFFFEBFF"/>
-      <color rgb="FF83C5D7"/>
-      <color rgb="FF7ABC32"/>
-      <color rgb="FF80C535"/>
-      <color rgb="FF927BB1"/>
-      <color rgb="FF9E89B9"/>
-      <color rgb="FFF6862A"/>
     </mruColors>
   </colors>
   <extLst>
@@ -917,19 +1007,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K266"/>
+  <dimension ref="A1:K306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.7265625" style="85"/>
-    <col min="4" max="4" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" style="85"/>
+    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -950,7 +1040,7 @@
       <c r="J1" s="86"/>
       <c r="K1" s="86"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>18</v>
       </c>
@@ -967,7 +1057,7 @@
       <c r="F2" s="87"/>
       <c r="K2" s="86"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>18</v>
       </c>
@@ -984,7 +1074,7 @@
       <c r="F3" s="87"/>
       <c r="K3" s="86"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>18</v>
       </c>
@@ -1001,7 +1091,7 @@
       <c r="F4" s="87"/>
       <c r="K4" s="86"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>18</v>
       </c>
@@ -1018,7 +1108,7 @@
       <c r="F5" s="87"/>
       <c r="K5" s="86"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>18</v>
       </c>
@@ -1035,7 +1125,7 @@
       <c r="F6" s="86"/>
       <c r="K6" s="86"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="31">
         <v>19</v>
       </c>
@@ -1049,7 +1139,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="31">
         <v>19</v>
       </c>
@@ -1063,7 +1153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="31">
         <v>19</v>
       </c>
@@ -1077,7 +1167,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="31">
         <v>19</v>
       </c>
@@ -1091,7 +1181,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="31">
         <v>19</v>
       </c>
@@ -1105,7 +1195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="27">
         <v>19</v>
       </c>
@@ -1119,7 +1209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="27">
         <v>19</v>
       </c>
@@ -1133,7 +1223,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="27">
         <v>19</v>
       </c>
@@ -1147,7 +1237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="27">
         <v>19</v>
       </c>
@@ -1161,7 +1251,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="27">
         <v>19</v>
       </c>
@@ -1175,7 +1265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="32">
         <v>19</v>
       </c>
@@ -1189,7 +1279,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="32">
         <v>19</v>
       </c>
@@ -1203,7 +1293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="32">
         <v>19</v>
       </c>
@@ -1217,7 +1307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="32">
         <v>19</v>
       </c>
@@ -1231,7 +1321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="32">
         <v>19</v>
       </c>
@@ -1245,7 +1335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="33">
         <v>20</v>
       </c>
@@ -1259,7 +1349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="33">
         <v>20</v>
       </c>
@@ -1273,7 +1363,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="33">
         <v>20</v>
       </c>
@@ -1287,7 +1377,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="33">
         <v>20</v>
       </c>
@@ -1301,7 +1391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="33">
         <v>20</v>
       </c>
@@ -1315,7 +1405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>21</v>
       </c>
@@ -1329,7 +1419,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>21</v>
       </c>
@@ -1343,7 +1433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>21</v>
       </c>
@@ -1357,7 +1447,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>21</v>
       </c>
@@ -1371,7 +1461,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>21</v>
       </c>
@@ -1385,7 +1475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>21</v>
       </c>
@@ -1399,7 +1489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>21</v>
       </c>
@@ -1413,7 +1503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>21</v>
       </c>
@@ -1427,7 +1517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>21</v>
       </c>
@@ -1441,7 +1531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>21</v>
       </c>
@@ -1455,7 +1545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="13">
         <v>21</v>
       </c>
@@ -1469,7 +1559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="13">
         <v>21</v>
       </c>
@@ -1483,7 +1573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="13">
         <v>21</v>
       </c>
@@ -1497,7 +1587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="13">
         <v>21</v>
       </c>
@@ -1511,7 +1601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="13">
         <v>21</v>
       </c>
@@ -1525,7 +1615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>21</v>
       </c>
@@ -1540,7 +1630,7 @@
       </c>
       <c r="I42" s="86"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>21</v>
       </c>
@@ -1555,7 +1645,7 @@
       </c>
       <c r="I43" s="86"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>21</v>
       </c>
@@ -1570,7 +1660,7 @@
       </c>
       <c r="I44" s="86"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>21</v>
       </c>
@@ -1585,7 +1675,7 @@
       </c>
       <c r="I45" s="86"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>21</v>
       </c>
@@ -1600,7 +1690,7 @@
       </c>
       <c r="I46" s="86"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="14">
         <v>21</v>
       </c>
@@ -1614,7 +1704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="14">
         <v>21</v>
       </c>
@@ -1628,7 +1718,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="14">
         <v>21</v>
       </c>
@@ -1642,7 +1732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="14">
         <v>21</v>
       </c>
@@ -1656,7 +1746,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="14">
         <v>21</v>
       </c>
@@ -1670,7 +1760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="28">
         <v>21</v>
       </c>
@@ -1684,7 +1774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="28">
         <v>21</v>
       </c>
@@ -1698,7 +1788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="28">
         <v>21</v>
       </c>
@@ -1712,7 +1802,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="28">
         <v>21</v>
       </c>
@@ -1726,7 +1816,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="28">
         <v>21</v>
       </c>
@@ -1740,7 +1830,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="34">
         <v>21</v>
       </c>
@@ -1754,7 +1844,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="34">
         <v>21</v>
       </c>
@@ -1768,7 +1858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="34">
         <v>21</v>
       </c>
@@ -1782,7 +1872,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="34">
         <v>21</v>
       </c>
@@ -1796,7 +1886,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="34">
         <v>21</v>
       </c>
@@ -1810,7 +1900,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="28">
         <v>21</v>
       </c>
@@ -1824,7 +1914,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="28">
         <v>21</v>
       </c>
@@ -1838,7 +1928,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="28">
         <v>21</v>
       </c>
@@ -1852,7 +1942,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="28">
         <v>21</v>
       </c>
@@ -1866,7 +1956,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="28">
         <v>21</v>
       </c>
@@ -1880,7 +1970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>22</v>
       </c>
@@ -1894,7 +1984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>22</v>
       </c>
@@ -1908,7 +1998,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>22</v>
       </c>
@@ -1922,7 +2012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>22</v>
       </c>
@@ -1936,7 +2026,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>22</v>
       </c>
@@ -1950,7 +2040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="8">
         <v>22</v>
       </c>
@@ -1964,7 +2054,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="8">
         <v>22</v>
       </c>
@@ -1978,7 +2068,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="8">
         <v>22</v>
       </c>
@@ -1992,7 +2082,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
         <v>22</v>
       </c>
@@ -2006,7 +2096,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="8">
         <v>22</v>
       </c>
@@ -2020,7 +2110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="18">
         <v>22</v>
       </c>
@@ -2034,7 +2124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="18">
         <v>22</v>
       </c>
@@ -2048,7 +2138,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="18">
         <v>22</v>
       </c>
@@ -2062,7 +2152,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="18">
         <v>22</v>
       </c>
@@ -2076,7 +2166,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="18">
         <v>22</v>
       </c>
@@ -2090,7 +2180,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="17">
         <v>22</v>
       </c>
@@ -2104,7 +2194,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="17">
         <v>22</v>
       </c>
@@ -2118,7 +2208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="17">
         <v>22</v>
       </c>
@@ -2132,7 +2222,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="17">
         <v>22</v>
       </c>
@@ -2146,7 +2236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="17">
         <v>22</v>
       </c>
@@ -2160,7 +2250,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="7">
         <v>22</v>
       </c>
@@ -2174,7 +2264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="7">
         <v>22</v>
       </c>
@@ -2188,7 +2278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="7">
         <v>22</v>
       </c>
@@ -2202,7 +2292,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="7">
         <v>22</v>
       </c>
@@ -2216,7 +2306,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="7">
         <v>22</v>
       </c>
@@ -2230,7 +2320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="38">
         <v>22</v>
       </c>
@@ -2244,7 +2334,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="38">
         <v>22</v>
       </c>
@@ -2258,7 +2348,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="38">
         <v>22</v>
       </c>
@@ -2272,7 +2362,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="38">
         <v>22</v>
       </c>
@@ -2286,7 +2376,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="38">
         <v>22</v>
       </c>
@@ -2300,7 +2390,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="26">
         <v>22</v>
       </c>
@@ -2314,7 +2404,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="26">
         <v>22</v>
       </c>
@@ -2328,7 +2418,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="26">
         <v>22</v>
       </c>
@@ -2342,7 +2432,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="26">
         <v>22</v>
       </c>
@@ -2356,7 +2446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="26">
         <v>22</v>
       </c>
@@ -2370,7 +2460,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>23</v>
       </c>
@@ -2384,7 +2474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>23</v>
       </c>
@@ -2398,7 +2488,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>23</v>
       </c>
@@ -2412,7 +2502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>23</v>
       </c>
@@ -2426,7 +2516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>23</v>
       </c>
@@ -2440,7 +2530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="19">
         <v>23</v>
       </c>
@@ -2454,7 +2544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="19">
         <v>23</v>
       </c>
@@ -2468,7 +2558,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="19">
         <v>23</v>
       </c>
@@ -2482,7 +2572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="19">
         <v>23</v>
       </c>
@@ -2496,7 +2586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="19">
         <v>23</v>
       </c>
@@ -2510,7 +2600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="5">
         <v>23</v>
       </c>
@@ -2524,7 +2614,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="5">
         <v>23</v>
       </c>
@@ -2538,7 +2628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="5">
         <v>23</v>
       </c>
@@ -2552,7 +2642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="5">
         <v>23</v>
       </c>
@@ -2566,7 +2656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="5">
         <v>23</v>
       </c>
@@ -2580,7 +2670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="6">
         <v>23</v>
       </c>
@@ -2594,7 +2684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="6">
         <v>23</v>
       </c>
@@ -2608,7 +2698,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="6">
         <v>23</v>
       </c>
@@ -2622,7 +2712,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="6">
         <v>23</v>
       </c>
@@ -2636,7 +2726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="6">
         <v>23</v>
       </c>
@@ -2650,7 +2740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="41">
         <v>23</v>
       </c>
@@ -2664,7 +2754,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="41">
         <v>23</v>
       </c>
@@ -2678,7 +2768,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="41">
         <v>23</v>
       </c>
@@ -2692,7 +2782,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="41">
         <v>23</v>
       </c>
@@ -2706,7 +2796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="41">
         <v>23</v>
       </c>
@@ -2720,7 +2810,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="42">
         <v>23</v>
       </c>
@@ -2734,7 +2824,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="42">
         <v>23</v>
       </c>
@@ -2748,7 +2838,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="42">
         <v>23</v>
       </c>
@@ -2762,7 +2852,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="42">
         <v>23</v>
       </c>
@@ -2776,7 +2866,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="42">
         <v>23</v>
       </c>
@@ -2790,7 +2880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="95">
         <v>24</v>
       </c>
@@ -2804,7 +2894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="95">
         <v>24</v>
       </c>
@@ -2818,7 +2908,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="95">
         <v>24</v>
       </c>
@@ -2832,7 +2922,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="95">
         <v>24</v>
       </c>
@@ -2846,7 +2936,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="95">
         <v>24</v>
       </c>
@@ -2860,7 +2950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="9">
         <v>24</v>
       </c>
@@ -2874,7 +2964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="9">
         <v>24</v>
       </c>
@@ -2888,7 +2978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="9">
         <v>24</v>
       </c>
@@ -2902,7 +2992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="9">
         <v>24</v>
       </c>
@@ -2916,7 +3006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="9">
         <v>24</v>
       </c>
@@ -2930,7 +3020,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="11">
         <v>24</v>
       </c>
@@ -2944,7 +3034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="11">
         <v>24</v>
       </c>
@@ -2958,7 +3048,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="11">
         <v>24</v>
       </c>
@@ -2972,7 +3062,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="11">
         <v>24</v>
       </c>
@@ -2986,7 +3076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="11">
         <v>24</v>
       </c>
@@ -3000,7 +3090,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="10">
         <v>24</v>
       </c>
@@ -3014,7 +3104,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="10">
         <v>24</v>
       </c>
@@ -3028,7 +3118,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="10">
         <v>24</v>
       </c>
@@ -3042,7 +3132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="10">
         <v>24</v>
       </c>
@@ -3056,7 +3146,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="10">
         <v>24</v>
       </c>
@@ -3070,7 +3160,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="43">
         <v>24</v>
       </c>
@@ -3084,7 +3174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="43">
         <v>24</v>
       </c>
@@ -3098,7 +3188,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="43">
         <v>24</v>
       </c>
@@ -3112,7 +3202,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="43">
         <v>24</v>
       </c>
@@ -3126,7 +3216,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="43">
         <v>24</v>
       </c>
@@ -3140,7 +3230,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="44">
         <v>24</v>
       </c>
@@ -3154,7 +3244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="44">
         <v>24</v>
       </c>
@@ -3168,7 +3258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="44">
         <v>24</v>
       </c>
@@ -3182,7 +3272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="44">
         <v>24</v>
       </c>
@@ -3196,7 +3286,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="44">
         <v>24</v>
       </c>
@@ -3210,7 +3300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="36">
         <v>25</v>
       </c>
@@ -3224,7 +3314,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="36">
         <v>25</v>
       </c>
@@ -3238,7 +3328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="36">
         <v>25</v>
       </c>
@@ -3252,7 +3342,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="36">
         <v>25</v>
       </c>
@@ -3266,7 +3356,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="36">
         <v>25</v>
       </c>
@@ -3280,7 +3370,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="21">
         <v>25</v>
       </c>
@@ -3294,7 +3384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="21">
         <v>25</v>
       </c>
@@ -3308,7 +3398,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="21">
         <v>25</v>
       </c>
@@ -3322,7 +3412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="21">
         <v>25</v>
       </c>
@@ -3336,7 +3426,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="21">
         <v>25</v>
       </c>
@@ -3350,7 +3440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="23">
         <v>25</v>
       </c>
@@ -3364,7 +3454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="23">
         <v>25</v>
       </c>
@@ -3378,7 +3468,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="23">
         <v>25</v>
       </c>
@@ -3392,7 +3482,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="23">
         <v>25</v>
       </c>
@@ -3406,7 +3496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="23">
         <v>25</v>
       </c>
@@ -3420,7 +3510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="25">
         <v>27</v>
       </c>
@@ -3434,7 +3524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="25">
         <v>27</v>
       </c>
@@ -3448,7 +3538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="25">
         <v>27</v>
       </c>
@@ -3462,7 +3552,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="25">
         <v>27</v>
       </c>
@@ -3476,7 +3566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="25">
         <v>27</v>
       </c>
@@ -3490,7 +3580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="30">
         <v>27</v>
       </c>
@@ -3504,7 +3594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="30">
         <v>27</v>
       </c>
@@ -3518,7 +3608,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="30">
         <v>27</v>
       </c>
@@ -3532,7 +3622,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="30">
         <v>27</v>
       </c>
@@ -3546,7 +3636,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="30">
         <v>27</v>
       </c>
@@ -3560,7 +3650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="20">
         <v>28</v>
       </c>
@@ -3574,7 +3664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="20">
         <v>28</v>
       </c>
@@ -3588,7 +3678,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="20">
         <v>28</v>
       </c>
@@ -3602,7 +3692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="20">
         <v>28</v>
       </c>
@@ -3616,7 +3706,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="20">
         <v>28</v>
       </c>
@@ -3630,7 +3720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="45">
         <v>28</v>
       </c>
@@ -3644,7 +3734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="45">
         <v>28</v>
       </c>
@@ -3658,7 +3748,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="45">
         <v>28</v>
       </c>
@@ -3672,7 +3762,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="45">
         <v>28</v>
       </c>
@@ -3686,7 +3776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="45">
         <v>28</v>
       </c>
@@ -3700,7 +3790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="20">
         <v>29</v>
       </c>
@@ -3714,7 +3804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="20">
         <v>29</v>
       </c>
@@ -3728,7 +3818,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="20">
         <v>29</v>
       </c>
@@ -3742,7 +3832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="20">
         <v>29</v>
       </c>
@@ -3756,7 +3846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="20">
         <v>29</v>
       </c>
@@ -3770,7 +3860,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="45">
         <v>29</v>
       </c>
@@ -3784,7 +3874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="45">
         <v>29</v>
       </c>
@@ -3798,7 +3888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="45">
         <v>29</v>
       </c>
@@ -3812,7 +3902,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="45">
         <v>29</v>
       </c>
@@ -3826,7 +3916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="45">
         <v>29</v>
       </c>
@@ -3840,7 +3930,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="92">
         <v>30</v>
       </c>
@@ -3854,7 +3944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="92">
         <v>30</v>
       </c>
@@ -3868,7 +3958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="92">
         <v>30</v>
       </c>
@@ -3882,7 +3972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="92">
         <v>30</v>
       </c>
@@ -3896,7 +3986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="92">
         <v>30</v>
       </c>
@@ -3910,7 +4000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="22">
         <v>31</v>
       </c>
@@ -3924,7 +4014,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="22">
         <v>31</v>
       </c>
@@ -3938,7 +4028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="22">
         <v>31</v>
       </c>
@@ -3952,7 +4042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="22">
         <v>31</v>
       </c>
@@ -3966,7 +4056,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="22">
         <v>31</v>
       </c>
@@ -3980,7 +4070,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="37">
         <v>32</v>
       </c>
@@ -3994,7 +4084,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="37">
         <v>32</v>
       </c>
@@ -4008,7 +4098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="37">
         <v>32</v>
       </c>
@@ -4022,7 +4112,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="37">
         <v>32</v>
       </c>
@@ -4036,7 +4126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="37">
         <v>32</v>
       </c>
@@ -4050,7 +4140,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="24">
         <v>32</v>
       </c>
@@ -4064,7 +4154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="24">
         <v>32</v>
       </c>
@@ -4078,7 +4168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="24">
         <v>32</v>
       </c>
@@ -4092,7 +4182,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="24">
         <v>32</v>
       </c>
@@ -4106,7 +4196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="24">
         <v>32</v>
       </c>
@@ -4120,7 +4210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="96">
         <v>32</v>
       </c>
@@ -4134,7 +4224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="96">
         <v>32</v>
       </c>
@@ -4148,7 +4238,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="96">
         <v>32</v>
       </c>
@@ -4162,7 +4252,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="96">
         <v>32</v>
       </c>
@@ -4176,7 +4266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="96">
         <v>32</v>
       </c>
@@ -4190,7 +4280,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="98">
         <v>33</v>
       </c>
@@ -4204,7 +4294,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="98">
         <v>33</v>
       </c>
@@ -4218,7 +4308,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="98">
         <v>33</v>
       </c>
@@ -4232,7 +4322,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="98">
         <v>33</v>
       </c>
@@ -4246,7 +4336,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="98">
         <v>33</v>
       </c>
@@ -4260,7 +4350,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="94">
         <v>33</v>
       </c>
@@ -4274,7 +4364,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="94">
         <v>33</v>
       </c>
@@ -4288,7 +4378,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="94">
         <v>33</v>
       </c>
@@ -4302,7 +4392,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="94">
         <v>33</v>
       </c>
@@ -4316,7 +4406,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="94">
         <v>33</v>
       </c>
@@ -4330,7 +4420,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="93">
         <v>33</v>
       </c>
@@ -4344,7 +4434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="93">
         <v>33</v>
       </c>
@@ -4358,7 +4448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="93">
         <v>33</v>
       </c>
@@ -4372,7 +4462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="93">
         <v>33</v>
       </c>
@@ -4386,7 +4476,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="93">
         <v>33</v>
       </c>
@@ -4400,7 +4490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="4">
         <v>34</v>
       </c>
@@ -4414,7 +4504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="4">
         <v>34</v>
       </c>
@@ -4428,7 +4518,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="4">
         <v>34</v>
       </c>
@@ -4442,7 +4532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="4">
         <v>34</v>
       </c>
@@ -4456,7 +4546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="4">
         <v>34</v>
       </c>
@@ -4470,7 +4560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="89">
         <v>34</v>
       </c>
@@ -4484,7 +4574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="89">
         <v>34</v>
       </c>
@@ -4498,7 +4588,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="89">
         <v>34</v>
       </c>
@@ -4512,7 +4602,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="89">
         <v>34</v>
       </c>
@@ -4526,7 +4616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="89">
         <v>34</v>
       </c>
@@ -4540,7 +4630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="9">
         <v>36</v>
       </c>
@@ -4554,7 +4644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="9">
         <v>36</v>
       </c>
@@ -4568,7 +4658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="9">
         <v>36</v>
       </c>
@@ -4582,7 +4672,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="9">
         <v>36</v>
       </c>
@@ -4596,7 +4686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="9">
         <v>36</v>
       </c>
@@ -4610,78 +4700,638 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A262" s="20">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262" s="103">
+        <v>37</v>
+      </c>
+      <c r="B262" s="104" t="s">
+        <v>17</v>
+      </c>
+      <c r="C262" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="D262" s="103" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263" s="103">
+        <v>37</v>
+      </c>
+      <c r="B263" s="104" t="s">
+        <v>17</v>
+      </c>
+      <c r="C263" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="D263" s="103" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264" s="103">
+        <v>37</v>
+      </c>
+      <c r="B264" s="104" t="s">
+        <v>17</v>
+      </c>
+      <c r="C264" s="103" t="s">
+        <v>14</v>
+      </c>
+      <c r="D264" s="103" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265" s="103">
+        <v>37</v>
+      </c>
+      <c r="B265" s="104" t="s">
+        <v>17</v>
+      </c>
+      <c r="C265" s="103" t="s">
+        <v>15</v>
+      </c>
+      <c r="D265" s="103" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266" s="103">
+        <v>37</v>
+      </c>
+      <c r="B266" s="104" t="s">
+        <v>17</v>
+      </c>
+      <c r="C266" s="103" t="s">
+        <v>16</v>
+      </c>
+      <c r="D266" s="103" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267" s="105">
+        <v>37</v>
+      </c>
+      <c r="B267" s="106" t="s">
+        <v>17</v>
+      </c>
+      <c r="C267" s="105" t="s">
+        <v>12</v>
+      </c>
+      <c r="D267" s="105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268" s="105">
+        <v>37</v>
+      </c>
+      <c r="B268" s="106" t="s">
+        <v>17</v>
+      </c>
+      <c r="C268" s="105" t="s">
+        <v>13</v>
+      </c>
+      <c r="D268" s="105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269" s="105">
+        <v>37</v>
+      </c>
+      <c r="B269" s="106" t="s">
+        <v>17</v>
+      </c>
+      <c r="C269" s="105" t="s">
+        <v>14</v>
+      </c>
+      <c r="D269" s="105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270" s="105">
+        <v>37</v>
+      </c>
+      <c r="B270" s="106" t="s">
+        <v>17</v>
+      </c>
+      <c r="C270" s="105" t="s">
+        <v>15</v>
+      </c>
+      <c r="D270" s="105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271" s="105">
+        <v>37</v>
+      </c>
+      <c r="B271" s="106" t="s">
+        <v>17</v>
+      </c>
+      <c r="C271" s="105" t="s">
+        <v>16</v>
+      </c>
+      <c r="D271" s="105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272" s="107">
+        <v>37</v>
+      </c>
+      <c r="B272" s="108" t="s">
+        <v>18</v>
+      </c>
+      <c r="C272" s="107" t="s">
+        <v>12</v>
+      </c>
+      <c r="D272" s="107" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273" s="107">
+        <v>37</v>
+      </c>
+      <c r="B273" s="108" t="s">
+        <v>18</v>
+      </c>
+      <c r="C273" s="107" t="s">
+        <v>13</v>
+      </c>
+      <c r="D273" s="107" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274" s="107">
+        <v>37</v>
+      </c>
+      <c r="B274" s="108" t="s">
+        <v>18</v>
+      </c>
+      <c r="C274" s="107" t="s">
+        <v>14</v>
+      </c>
+      <c r="D274" s="107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275" s="107">
+        <v>37</v>
+      </c>
+      <c r="B275" s="108" t="s">
+        <v>18</v>
+      </c>
+      <c r="C275" s="107" t="s">
+        <v>15</v>
+      </c>
+      <c r="D275" s="107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276" s="107">
+        <v>37</v>
+      </c>
+      <c r="B276" s="108" t="s">
+        <v>18</v>
+      </c>
+      <c r="C276" s="107" t="s">
+        <v>16</v>
+      </c>
+      <c r="D276" s="107" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277" s="109">
         <v>39</v>
       </c>
-      <c r="B262" s="80" t="s">
-        <v>17</v>
-      </c>
-      <c r="C262" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D262" s="20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A263" s="20">
+      <c r="B277" s="110" t="s">
+        <v>17</v>
+      </c>
+      <c r="C277" s="109" t="s">
+        <v>12</v>
+      </c>
+      <c r="D277" s="109" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278" s="109">
         <v>39</v>
       </c>
-      <c r="B263" s="80" t="s">
-        <v>17</v>
-      </c>
-      <c r="C263" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D263" s="20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A264" s="20">
+      <c r="B278" s="110" t="s">
+        <v>17</v>
+      </c>
+      <c r="C278" s="109" t="s">
+        <v>13</v>
+      </c>
+      <c r="D278" s="109" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279" s="109">
         <v>39</v>
       </c>
-      <c r="B264" s="80" t="s">
-        <v>17</v>
-      </c>
-      <c r="C264" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D264" s="20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A265" s="20">
+      <c r="B279" s="110" t="s">
+        <v>17</v>
+      </c>
+      <c r="C279" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="D279" s="109" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280" s="109">
         <v>39</v>
       </c>
-      <c r="B265" s="80" t="s">
-        <v>17</v>
-      </c>
-      <c r="C265" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D265" s="20" t="s">
+      <c r="B280" s="110" t="s">
+        <v>17</v>
+      </c>
+      <c r="C280" s="109" t="s">
+        <v>15</v>
+      </c>
+      <c r="D280" s="109" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A266" s="20">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281" s="109">
         <v>39</v>
       </c>
-      <c r="B266" s="80" t="s">
-        <v>17</v>
-      </c>
-      <c r="C266" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D266" s="20" t="s">
+      <c r="B281" s="110" t="s">
+        <v>17</v>
+      </c>
+      <c r="C281" s="109" t="s">
+        <v>16</v>
+      </c>
+      <c r="D281" s="109" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282" s="111">
+        <v>39</v>
+      </c>
+      <c r="B282" s="112" t="s">
+        <v>17</v>
+      </c>
+      <c r="C282" s="111" t="s">
+        <v>12</v>
+      </c>
+      <c r="D282" s="111" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283" s="111">
+        <v>39</v>
+      </c>
+      <c r="B283" s="112" t="s">
+        <v>17</v>
+      </c>
+      <c r="C283" s="111" t="s">
+        <v>13</v>
+      </c>
+      <c r="D283" s="111" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A284" s="111">
+        <v>39</v>
+      </c>
+      <c r="B284" s="112" t="s">
+        <v>17</v>
+      </c>
+      <c r="C284" s="111" t="s">
+        <v>14</v>
+      </c>
+      <c r="D284" s="111" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A285" s="111">
+        <v>39</v>
+      </c>
+      <c r="B285" s="112" t="s">
+        <v>17</v>
+      </c>
+      <c r="C285" s="111" t="s">
+        <v>15</v>
+      </c>
+      <c r="D285" s="111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A286" s="111">
+        <v>39</v>
+      </c>
+      <c r="B286" s="112" t="s">
+        <v>17</v>
+      </c>
+      <c r="C286" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="D286" s="111" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287" s="113">
+        <v>39</v>
+      </c>
+      <c r="B287" s="114" t="s">
+        <v>17</v>
+      </c>
+      <c r="C287" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="D287" s="113" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A288" s="113">
+        <v>39</v>
+      </c>
+      <c r="B288" s="114" t="s">
+        <v>17</v>
+      </c>
+      <c r="C288" s="113" t="s">
+        <v>13</v>
+      </c>
+      <c r="D288" s="113" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289" s="113">
+        <v>39</v>
+      </c>
+      <c r="B289" s="114" t="s">
+        <v>17</v>
+      </c>
+      <c r="C289" s="113" t="s">
+        <v>14</v>
+      </c>
+      <c r="D289" s="113" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290" s="113">
+        <v>39</v>
+      </c>
+      <c r="B290" s="114" t="s">
+        <v>17</v>
+      </c>
+      <c r="C290" s="113" t="s">
+        <v>15</v>
+      </c>
+      <c r="D290" s="113" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A291" s="113">
+        <v>39</v>
+      </c>
+      <c r="B291" s="114" t="s">
+        <v>17</v>
+      </c>
+      <c r="C291" s="113" t="s">
+        <v>16</v>
+      </c>
+      <c r="D291" s="113" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A292" s="115">
+        <v>42</v>
+      </c>
+      <c r="B292" s="116" t="s">
+        <v>18</v>
+      </c>
+      <c r="C292" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="D292" s="115" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A293" s="115">
+        <v>42</v>
+      </c>
+      <c r="B293" s="116" t="s">
+        <v>18</v>
+      </c>
+      <c r="C293" s="115" t="s">
+        <v>13</v>
+      </c>
+      <c r="D293" s="115" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A294" s="115">
+        <v>42</v>
+      </c>
+      <c r="B294" s="116" t="s">
+        <v>18</v>
+      </c>
+      <c r="C294" s="115" t="s">
+        <v>14</v>
+      </c>
+      <c r="D294" s="115" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A295" s="115">
+        <v>42</v>
+      </c>
+      <c r="B295" s="116" t="s">
+        <v>18</v>
+      </c>
+      <c r="C295" s="115" t="s">
+        <v>15</v>
+      </c>
+      <c r="D295" s="115" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A296" s="115">
+        <v>42</v>
+      </c>
+      <c r="B296" s="116" t="s">
+        <v>18</v>
+      </c>
+      <c r="C296" s="115" t="s">
+        <v>16</v>
+      </c>
+      <c r="D296" s="115" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297" s="117">
+        <v>47</v>
+      </c>
+      <c r="B297" s="118" t="s">
+        <v>17</v>
+      </c>
+      <c r="C297" s="117" t="s">
+        <v>12</v>
+      </c>
+      <c r="D297" s="117" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298" s="117">
+        <v>47</v>
+      </c>
+      <c r="B298" s="118" t="s">
+        <v>17</v>
+      </c>
+      <c r="C298" s="117" t="s">
+        <v>13</v>
+      </c>
+      <c r="D298" s="117" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299" s="117">
+        <v>47</v>
+      </c>
+      <c r="B299" s="118" t="s">
+        <v>17</v>
+      </c>
+      <c r="C299" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="D299" s="117" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A300" s="117">
+        <v>47</v>
+      </c>
+      <c r="B300" s="118" t="s">
+        <v>17</v>
+      </c>
+      <c r="C300" s="117" t="s">
+        <v>15</v>
+      </c>
+      <c r="D300" s="117" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A301" s="117">
+        <v>47</v>
+      </c>
+      <c r="B301" s="118" t="s">
+        <v>17</v>
+      </c>
+      <c r="C301" s="117" t="s">
+        <v>16</v>
+      </c>
+      <c r="D301" s="117" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A302" s="119">
+        <v>55</v>
+      </c>
+      <c r="B302" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="C302" s="119" t="s">
+        <v>12</v>
+      </c>
+      <c r="D302" s="119" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303" s="119">
+        <v>55</v>
+      </c>
+      <c r="B303" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="C303" s="119" t="s">
+        <v>13</v>
+      </c>
+      <c r="D303" s="119" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304" s="119">
+        <v>55</v>
+      </c>
+      <c r="B304" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="C304" s="119" t="s">
+        <v>14</v>
+      </c>
+      <c r="D304" s="119" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305" s="119">
+        <v>55</v>
+      </c>
+      <c r="B305" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="C305" s="119" t="s">
+        <v>15</v>
+      </c>
+      <c r="D305" s="119" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A306" s="119">
+        <v>55</v>
+      </c>
+      <c r="B306" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="C306" s="119" t="s">
+        <v>16</v>
+      </c>
+      <c r="D306" s="119" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A7:D151">
+  <sortState ref="A2:D306">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MusicApp/MusicRec.xlsx
+++ b/MusicApp/MusicRec.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="19">
   <si>
     <t>Age</t>
   </si>
@@ -76,8 +76,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,8 +93,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="56">
+  <fills count="59">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -415,13 +421,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0099CC"/>
+        <fgColor rgb="FF75A4DD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF33CCFF"/>
+        <fgColor rgb="FFFFFFE1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -641,9 +665,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -686,9 +707,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -697,6 +721,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFFE1"/>
+      <color rgb="FFFFFFCC"/>
+      <color rgb="FF75A4DD"/>
       <color rgb="FF33CCFF"/>
       <color rgb="FF0099CC"/>
       <color rgb="FF009999"/>
@@ -704,9 +731,6 @@
       <color rgb="FFCCFF66"/>
       <color rgb="FFCCFFCC"/>
       <color rgb="FFFFFF99"/>
-      <color rgb="FFFFFFCC"/>
-      <color rgb="FF59B5CB"/>
-      <color rgb="FFEFECF4"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1007,19 +1031,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K306"/>
+  <dimension ref="A1:K331"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C311" sqref="C311"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="8.77734375" style="85"/>
-    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" style="85"/>
+    <col min="4" max="4" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1040,7 +1064,7 @@
       <c r="J1" s="86"/>
       <c r="K1" s="86"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>18</v>
       </c>
@@ -1057,7 +1081,7 @@
       <c r="F2" s="87"/>
       <c r="K2" s="86"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>18</v>
       </c>
@@ -1074,7 +1098,7 @@
       <c r="F3" s="87"/>
       <c r="K3" s="86"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>18</v>
       </c>
@@ -1091,7 +1115,7 @@
       <c r="F4" s="87"/>
       <c r="K4" s="86"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>18</v>
       </c>
@@ -1108,7 +1132,7 @@
       <c r="F5" s="87"/>
       <c r="K5" s="86"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>18</v>
       </c>
@@ -1125,7 +1149,7 @@
       <c r="F6" s="86"/>
       <c r="K6" s="86"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="31">
         <v>19</v>
       </c>
@@ -1139,7 +1163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="31">
         <v>19</v>
       </c>
@@ -1153,7 +1177,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="31">
         <v>19</v>
       </c>
@@ -1167,7 +1191,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="31">
         <v>19</v>
       </c>
@@ -1181,7 +1205,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="31">
         <v>19</v>
       </c>
@@ -1195,7 +1219,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="27">
         <v>19</v>
       </c>
@@ -1209,7 +1233,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="27">
         <v>19</v>
       </c>
@@ -1223,7 +1247,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="27">
         <v>19</v>
       </c>
@@ -1237,7 +1261,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="27">
         <v>19</v>
       </c>
@@ -1251,7 +1275,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="27">
         <v>19</v>
       </c>
@@ -1265,7 +1289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="32">
         <v>19</v>
       </c>
@@ -1279,7 +1303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="32">
         <v>19</v>
       </c>
@@ -1293,7 +1317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="32">
         <v>19</v>
       </c>
@@ -1307,7 +1331,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="32">
         <v>19</v>
       </c>
@@ -1321,7 +1345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="32">
         <v>19</v>
       </c>
@@ -1335,7 +1359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="33">
         <v>20</v>
       </c>
@@ -1349,7 +1373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="33">
         <v>20</v>
       </c>
@@ -1363,7 +1387,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="33">
         <v>20</v>
       </c>
@@ -1377,7 +1401,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="33">
         <v>20</v>
       </c>
@@ -1391,7 +1415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="33">
         <v>20</v>
       </c>
@@ -1405,7 +1429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>21</v>
       </c>
@@ -1419,7 +1443,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>21</v>
       </c>
@@ -1433,7 +1457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>21</v>
       </c>
@@ -1447,7 +1471,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>21</v>
       </c>
@@ -1461,7 +1485,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>21</v>
       </c>
@@ -1475,7 +1499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>21</v>
       </c>
@@ -1489,7 +1513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>21</v>
       </c>
@@ -1503,7 +1527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>21</v>
       </c>
@@ -1517,7 +1541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>21</v>
       </c>
@@ -1531,7 +1555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>21</v>
       </c>
@@ -1545,7 +1569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="13">
         <v>21</v>
       </c>
@@ -1559,7 +1583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="13">
         <v>21</v>
       </c>
@@ -1573,7 +1597,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="13">
         <v>21</v>
       </c>
@@ -1587,7 +1611,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="13">
         <v>21</v>
       </c>
@@ -1601,7 +1625,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="13">
         <v>21</v>
       </c>
@@ -1615,7 +1639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>21</v>
       </c>
@@ -1630,7 +1654,7 @@
       </c>
       <c r="I42" s="86"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>21</v>
       </c>
@@ -1645,7 +1669,7 @@
       </c>
       <c r="I43" s="86"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>21</v>
       </c>
@@ -1660,7 +1684,7 @@
       </c>
       <c r="I44" s="86"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>21</v>
       </c>
@@ -1675,7 +1699,7 @@
       </c>
       <c r="I45" s="86"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>21</v>
       </c>
@@ -1690,7 +1714,7 @@
       </c>
       <c r="I46" s="86"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="14">
         <v>21</v>
       </c>
@@ -1704,7 +1728,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="14">
         <v>21</v>
       </c>
@@ -1718,7 +1742,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="14">
         <v>21</v>
       </c>
@@ -1732,7 +1756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="14">
         <v>21</v>
       </c>
@@ -1746,7 +1770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="14">
         <v>21</v>
       </c>
@@ -1760,7 +1784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="28">
         <v>21</v>
       </c>
@@ -1774,7 +1798,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="28">
         <v>21</v>
       </c>
@@ -1788,7 +1812,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="28">
         <v>21</v>
       </c>
@@ -1802,7 +1826,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="28">
         <v>21</v>
       </c>
@@ -1816,7 +1840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="28">
         <v>21</v>
       </c>
@@ -1830,7 +1854,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="34">
         <v>21</v>
       </c>
@@ -1844,7 +1868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="34">
         <v>21</v>
       </c>
@@ -1858,7 +1882,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="34">
         <v>21</v>
       </c>
@@ -1872,7 +1896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="34">
         <v>21</v>
       </c>
@@ -1886,7 +1910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="34">
         <v>21</v>
       </c>
@@ -1900,7 +1924,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="28">
         <v>21</v>
       </c>
@@ -1914,7 +1938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="28">
         <v>21</v>
       </c>
@@ -1928,7 +1952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="28">
         <v>21</v>
       </c>
@@ -1942,7 +1966,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="28">
         <v>21</v>
       </c>
@@ -1956,7 +1980,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="28">
         <v>21</v>
       </c>
@@ -1970,7 +1994,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="4">
         <v>22</v>
       </c>
@@ -1984,7 +2008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="4">
         <v>22</v>
       </c>
@@ -1998,7 +2022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="4">
         <v>22</v>
       </c>
@@ -2012,7 +2036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="4">
         <v>22</v>
       </c>
@@ -2026,7 +2050,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="4">
         <v>22</v>
       </c>
@@ -2040,7 +2064,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="8">
         <v>22</v>
       </c>
@@ -2054,7 +2078,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="8">
         <v>22</v>
       </c>
@@ -2068,7 +2092,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="8">
         <v>22</v>
       </c>
@@ -2082,7 +2106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="8">
         <v>22</v>
       </c>
@@ -2096,7 +2120,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="8">
         <v>22</v>
       </c>
@@ -2110,7 +2134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="18">
         <v>22</v>
       </c>
@@ -2124,7 +2148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="18">
         <v>22</v>
       </c>
@@ -2138,7 +2162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="18">
         <v>22</v>
       </c>
@@ -2152,7 +2176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="18">
         <v>22</v>
       </c>
@@ -2166,7 +2190,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="18">
         <v>22</v>
       </c>
@@ -2180,7 +2204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="17">
         <v>22</v>
       </c>
@@ -2194,7 +2218,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="17">
         <v>22</v>
       </c>
@@ -2208,7 +2232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="17">
         <v>22</v>
       </c>
@@ -2222,7 +2246,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="17">
         <v>22</v>
       </c>
@@ -2236,7 +2260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="17">
         <v>22</v>
       </c>
@@ -2250,7 +2274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="7">
         <v>22</v>
       </c>
@@ -2264,7 +2288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="7">
         <v>22</v>
       </c>
@@ -2278,7 +2302,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="7">
         <v>22</v>
       </c>
@@ -2292,7 +2316,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="7">
         <v>22</v>
       </c>
@@ -2306,7 +2330,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="7">
         <v>22</v>
       </c>
@@ -2320,7 +2344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="38">
         <v>22</v>
       </c>
@@ -2334,7 +2358,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="38">
         <v>22</v>
       </c>
@@ -2348,7 +2372,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="38">
         <v>22</v>
       </c>
@@ -2362,7 +2386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="38">
         <v>22</v>
       </c>
@@ -2376,7 +2400,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="38">
         <v>22</v>
       </c>
@@ -2390,7 +2414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="26">
         <v>22</v>
       </c>
@@ -2404,7 +2428,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="26">
         <v>22</v>
       </c>
@@ -2418,7 +2442,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="26">
         <v>22</v>
       </c>
@@ -2432,7 +2456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="26">
         <v>22</v>
       </c>
@@ -2446,7 +2470,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="26">
         <v>22</v>
       </c>
@@ -2460,7 +2484,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="40">
         <v>23</v>
       </c>
@@ -2474,7 +2498,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="40">
         <v>23</v>
       </c>
@@ -2488,7 +2512,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="40">
         <v>23</v>
       </c>
@@ -2502,7 +2526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="40">
         <v>23</v>
       </c>
@@ -2516,7 +2540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="40">
         <v>23</v>
       </c>
@@ -2530,7 +2554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="19">
         <v>23</v>
       </c>
@@ -2544,7 +2568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="19">
         <v>23</v>
       </c>
@@ -2558,7 +2582,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="19">
         <v>23</v>
       </c>
@@ -2572,7 +2596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="19">
         <v>23</v>
       </c>
@@ -2586,7 +2610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="19">
         <v>23</v>
       </c>
@@ -2600,7 +2624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="5">
         <v>23</v>
       </c>
@@ -2614,7 +2638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="5">
         <v>23</v>
       </c>
@@ -2628,7 +2652,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="5">
         <v>23</v>
       </c>
@@ -2642,7 +2666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="5">
         <v>23</v>
       </c>
@@ -2656,7 +2680,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="5">
         <v>23</v>
       </c>
@@ -2670,7 +2694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="6">
         <v>23</v>
       </c>
@@ -2684,7 +2708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="6">
         <v>23</v>
       </c>
@@ -2698,7 +2722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="6">
         <v>23</v>
       </c>
@@ -2712,7 +2736,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="6">
         <v>23</v>
       </c>
@@ -2726,7 +2750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="6">
         <v>23</v>
       </c>
@@ -2740,7 +2764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="41">
         <v>23</v>
       </c>
@@ -2754,7 +2778,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="41">
         <v>23</v>
       </c>
@@ -2768,7 +2792,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="41">
         <v>23</v>
       </c>
@@ -2782,7 +2806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="41">
         <v>23</v>
       </c>
@@ -2796,7 +2820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="41">
         <v>23</v>
       </c>
@@ -2810,7 +2834,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="42">
         <v>23</v>
       </c>
@@ -2824,7 +2848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="42">
         <v>23</v>
       </c>
@@ -2838,7 +2862,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="42">
         <v>23</v>
       </c>
@@ -2852,7 +2876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="42">
         <v>23</v>
       </c>
@@ -2866,7 +2890,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="42">
         <v>23</v>
       </c>
@@ -2880,11 +2904,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="95">
         <v>24</v>
       </c>
-      <c r="B132" s="100" t="s">
+      <c r="B132" s="99" t="s">
         <v>17</v>
       </c>
       <c r="C132" s="95" t="s">
@@ -2894,11 +2918,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="95">
         <v>24</v>
       </c>
-      <c r="B133" s="100" t="s">
+      <c r="B133" s="99" t="s">
         <v>17</v>
       </c>
       <c r="C133" s="95" t="s">
@@ -2908,11 +2932,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="95">
         <v>24</v>
       </c>
-      <c r="B134" s="100" t="s">
+      <c r="B134" s="99" t="s">
         <v>17</v>
       </c>
       <c r="C134" s="95" t="s">
@@ -2922,11 +2946,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="95">
         <v>24</v>
       </c>
-      <c r="B135" s="100" t="s">
+      <c r="B135" s="99" t="s">
         <v>17</v>
       </c>
       <c r="C135" s="95" t="s">
@@ -2936,11 +2960,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="95">
         <v>24</v>
       </c>
-      <c r="B136" s="100" t="s">
+      <c r="B136" s="99" t="s">
         <v>17</v>
       </c>
       <c r="C136" s="95" t="s">
@@ -2950,7 +2974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="9">
         <v>24</v>
       </c>
@@ -2964,7 +2988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="9">
         <v>24</v>
       </c>
@@ -2978,7 +3002,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="9">
         <v>24</v>
       </c>
@@ -2992,7 +3016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="9">
         <v>24</v>
       </c>
@@ -3006,7 +3030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" s="9">
         <v>24</v>
       </c>
@@ -3020,7 +3044,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="11">
         <v>24</v>
       </c>
@@ -3034,7 +3058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="11">
         <v>24</v>
       </c>
@@ -3048,7 +3072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="11">
         <v>24</v>
       </c>
@@ -3062,7 +3086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="11">
         <v>24</v>
       </c>
@@ -3076,7 +3100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="11">
         <v>24</v>
       </c>
@@ -3090,7 +3114,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="10">
         <v>24</v>
       </c>
@@ -3104,7 +3128,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" s="10">
         <v>24</v>
       </c>
@@ -3118,7 +3142,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="10">
         <v>24</v>
       </c>
@@ -3132,7 +3156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" s="10">
         <v>24</v>
       </c>
@@ -3146,7 +3170,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" s="10">
         <v>24</v>
       </c>
@@ -3160,7 +3184,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" s="43">
         <v>24</v>
       </c>
@@ -3174,7 +3198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" s="43">
         <v>24</v>
       </c>
@@ -3188,7 +3212,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" s="43">
         <v>24</v>
       </c>
@@ -3202,7 +3226,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="43">
         <v>24</v>
       </c>
@@ -3216,7 +3240,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" s="43">
         <v>24</v>
       </c>
@@ -3230,7 +3254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" s="44">
         <v>24</v>
       </c>
@@ -3244,7 +3268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="44">
         <v>24</v>
       </c>
@@ -3258,7 +3282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" s="44">
         <v>24</v>
       </c>
@@ -3272,7 +3296,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" s="44">
         <v>24</v>
       </c>
@@ -3286,7 +3310,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="44">
         <v>24</v>
       </c>
@@ -3300,7 +3324,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" s="36">
         <v>25</v>
       </c>
@@ -3314,7 +3338,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" s="36">
         <v>25</v>
       </c>
@@ -3328,7 +3352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="36">
         <v>25</v>
       </c>
@@ -3342,7 +3366,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" s="36">
         <v>25</v>
       </c>
@@ -3356,7 +3380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" s="36">
         <v>25</v>
       </c>
@@ -3370,7 +3394,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" s="21">
         <v>25</v>
       </c>
@@ -3384,7 +3408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" s="21">
         <v>25</v>
       </c>
@@ -3398,7 +3422,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" s="21">
         <v>25</v>
       </c>
@@ -3412,7 +3436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" s="21">
         <v>25</v>
       </c>
@@ -3426,7 +3450,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" s="21">
         <v>25</v>
       </c>
@@ -3440,7 +3464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" s="23">
         <v>25</v>
       </c>
@@ -3454,7 +3478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="23">
         <v>25</v>
       </c>
@@ -3468,7 +3492,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" s="23">
         <v>25</v>
       </c>
@@ -3482,7 +3506,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" s="23">
         <v>25</v>
       </c>
@@ -3496,7 +3520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="23">
         <v>25</v>
       </c>
@@ -3510,7 +3534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" s="25">
         <v>27</v>
       </c>
@@ -3524,7 +3548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" s="25">
         <v>27</v>
       </c>
@@ -3538,7 +3562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="25">
         <v>27</v>
       </c>
@@ -3552,7 +3576,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" s="25">
         <v>27</v>
       </c>
@@ -3566,7 +3590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" s="25">
         <v>27</v>
       </c>
@@ -3580,7 +3604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" s="30">
         <v>27</v>
       </c>
@@ -3594,7 +3618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" s="30">
         <v>27</v>
       </c>
@@ -3608,7 +3632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" s="30">
         <v>27</v>
       </c>
@@ -3622,7 +3646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" s="30">
         <v>27</v>
       </c>
@@ -3636,7 +3660,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" s="30">
         <v>27</v>
       </c>
@@ -3650,7 +3674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" s="20">
         <v>28</v>
       </c>
@@ -3664,7 +3688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" s="20">
         <v>28</v>
       </c>
@@ -3678,7 +3702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" s="20">
         <v>28</v>
       </c>
@@ -3692,7 +3716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" s="20">
         <v>28</v>
       </c>
@@ -3706,7 +3730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="20">
         <v>28</v>
       </c>
@@ -3720,7 +3744,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" s="45">
         <v>28</v>
       </c>
@@ -3734,7 +3758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" s="45">
         <v>28</v>
       </c>
@@ -3748,7 +3772,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="45">
         <v>28</v>
       </c>
@@ -3762,7 +3786,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" s="45">
         <v>28</v>
       </c>
@@ -3776,7 +3800,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" s="45">
         <v>28</v>
       </c>
@@ -3790,7 +3814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="20">
         <v>29</v>
       </c>
@@ -3804,7 +3828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" s="20">
         <v>29</v>
       </c>
@@ -3818,7 +3842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" s="20">
         <v>29</v>
       </c>
@@ -3832,7 +3856,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="20">
         <v>29</v>
       </c>
@@ -3846,7 +3870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" s="20">
         <v>29</v>
       </c>
@@ -3860,7 +3884,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" s="45">
         <v>29</v>
       </c>
@@ -3874,7 +3898,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" s="45">
         <v>29</v>
       </c>
@@ -3888,7 +3912,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" s="45">
         <v>29</v>
       </c>
@@ -3902,7 +3926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" s="45">
         <v>29</v>
       </c>
@@ -3916,7 +3940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" s="45">
         <v>29</v>
       </c>
@@ -3930,11 +3954,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" s="92">
         <v>30</v>
       </c>
-      <c r="B207" s="101" t="s">
+      <c r="B207" s="100" t="s">
         <v>18</v>
       </c>
       <c r="C207" s="92" t="s">
@@ -3944,11 +3968,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" s="92">
         <v>30</v>
       </c>
-      <c r="B208" s="101" t="s">
+      <c r="B208" s="100" t="s">
         <v>18</v>
       </c>
       <c r="C208" s="92" t="s">
@@ -3958,11 +3982,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" s="92">
         <v>30</v>
       </c>
-      <c r="B209" s="101" t="s">
+      <c r="B209" s="100" t="s">
         <v>18</v>
       </c>
       <c r="C209" s="92" t="s">
@@ -3972,11 +3996,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" s="92">
         <v>30</v>
       </c>
-      <c r="B210" s="101" t="s">
+      <c r="B210" s="100" t="s">
         <v>18</v>
       </c>
       <c r="C210" s="92" t="s">
@@ -3986,11 +4010,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" s="92">
         <v>30</v>
       </c>
-      <c r="B211" s="101" t="s">
+      <c r="B211" s="100" t="s">
         <v>18</v>
       </c>
       <c r="C211" s="92" t="s">
@@ -4000,7 +4024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" s="22">
         <v>31</v>
       </c>
@@ -4014,7 +4038,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" s="22">
         <v>31</v>
       </c>
@@ -4028,7 +4052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" s="22">
         <v>31</v>
       </c>
@@ -4042,7 +4066,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="22">
         <v>31</v>
       </c>
@@ -4056,7 +4080,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" s="22">
         <v>31</v>
       </c>
@@ -4070,7 +4094,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" s="37">
         <v>32</v>
       </c>
@@ -4084,7 +4108,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" s="37">
         <v>32</v>
       </c>
@@ -4098,7 +4122,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" s="37">
         <v>32</v>
       </c>
@@ -4112,7 +4136,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" s="37">
         <v>32</v>
       </c>
@@ -4126,7 +4150,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" s="37">
         <v>32</v>
       </c>
@@ -4140,7 +4164,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" s="24">
         <v>32</v>
       </c>
@@ -4154,7 +4178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" s="24">
         <v>32</v>
       </c>
@@ -4168,7 +4192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" s="24">
         <v>32</v>
       </c>
@@ -4182,7 +4206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" s="24">
         <v>32</v>
       </c>
@@ -4196,7 +4220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" s="24">
         <v>32</v>
       </c>
@@ -4210,7 +4234,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" s="96">
         <v>32</v>
       </c>
@@ -4224,7 +4248,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" s="96">
         <v>32</v>
       </c>
@@ -4238,7 +4262,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" s="96">
         <v>32</v>
       </c>
@@ -4252,7 +4276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" s="96">
         <v>32</v>
       </c>
@@ -4266,7 +4290,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231" s="96">
         <v>32</v>
       </c>
@@ -4280,11 +4304,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232" s="98">
         <v>33</v>
       </c>
-      <c r="B232" s="102" t="s">
+      <c r="B232" s="101" t="s">
         <v>17</v>
       </c>
       <c r="C232" s="98" t="s">
@@ -4294,11 +4318,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" s="98">
         <v>33</v>
       </c>
-      <c r="B233" s="102" t="s">
+      <c r="B233" s="101" t="s">
         <v>17</v>
       </c>
       <c r="C233" s="98" t="s">
@@ -4308,11 +4332,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234" s="98">
         <v>33</v>
       </c>
-      <c r="B234" s="102" t="s">
+      <c r="B234" s="101" t="s">
         <v>17</v>
       </c>
       <c r="C234" s="98" t="s">
@@ -4322,11 +4346,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235" s="98">
         <v>33</v>
       </c>
-      <c r="B235" s="102" t="s">
+      <c r="B235" s="101" t="s">
         <v>17</v>
       </c>
       <c r="C235" s="98" t="s">
@@ -4336,11 +4360,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" s="98">
         <v>33</v>
       </c>
-      <c r="B236" s="102" t="s">
+      <c r="B236" s="101" t="s">
         <v>17</v>
       </c>
       <c r="C236" s="98" t="s">
@@ -4350,7 +4374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237" s="94">
         <v>33</v>
       </c>
@@ -4364,7 +4388,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238" s="94">
         <v>33</v>
       </c>
@@ -4378,7 +4402,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" s="94">
         <v>33</v>
       </c>
@@ -4392,7 +4416,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240" s="94">
         <v>33</v>
       </c>
@@ -4406,7 +4430,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A241" s="94">
         <v>33</v>
       </c>
@@ -4420,913 +4444,1263 @@
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A242" s="93">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A242" s="116">
         <v>33</v>
       </c>
-      <c r="B242" s="99" t="s">
-        <v>17</v>
-      </c>
-      <c r="C242" s="93" t="s">
-        <v>12</v>
-      </c>
-      <c r="D242" s="93" t="s">
+      <c r="B242" s="117" t="s">
+        <v>17</v>
+      </c>
+      <c r="C242" s="116" t="s">
+        <v>12</v>
+      </c>
+      <c r="D242" s="116" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A243" s="93">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A243" s="116">
         <v>33</v>
       </c>
-      <c r="B243" s="99" t="s">
-        <v>17</v>
-      </c>
-      <c r="C243" s="93" t="s">
-        <v>13</v>
-      </c>
-      <c r="D243" s="93" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A244" s="93">
+      <c r="B243" s="117" t="s">
+        <v>17</v>
+      </c>
+      <c r="C243" s="116" t="s">
+        <v>13</v>
+      </c>
+      <c r="D243" s="116" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A244" s="116">
         <v>33</v>
       </c>
-      <c r="B244" s="99" t="s">
-        <v>17</v>
-      </c>
-      <c r="C244" s="93" t="s">
-        <v>14</v>
-      </c>
-      <c r="D244" s="93" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A245" s="93">
+      <c r="B244" s="117" t="s">
+        <v>17</v>
+      </c>
+      <c r="C244" s="116" t="s">
+        <v>14</v>
+      </c>
+      <c r="D244" s="116" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A245" s="116">
         <v>33</v>
       </c>
-      <c r="B245" s="99" t="s">
-        <v>17</v>
-      </c>
-      <c r="C245" s="93" t="s">
-        <v>15</v>
-      </c>
-      <c r="D245" s="93" t="s">
+      <c r="B245" s="117" t="s">
+        <v>17</v>
+      </c>
+      <c r="C245" s="116" t="s">
+        <v>15</v>
+      </c>
+      <c r="D245" s="116" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A246" s="93">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A246" s="116">
         <v>33</v>
       </c>
-      <c r="B246" s="99" t="s">
-        <v>17</v>
-      </c>
-      <c r="C246" s="93" t="s">
-        <v>16</v>
-      </c>
-      <c r="D246" s="93" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A247" s="4">
+      <c r="B246" s="117" t="s">
+        <v>17</v>
+      </c>
+      <c r="C246" s="116" t="s">
+        <v>16</v>
+      </c>
+      <c r="D246" s="116" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A247" s="93">
+        <v>33</v>
+      </c>
+      <c r="B247" s="93" t="s">
+        <v>17</v>
+      </c>
+      <c r="C247" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="D247" s="93" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A248" s="93">
+        <v>33</v>
+      </c>
+      <c r="B248" s="93" t="s">
+        <v>17</v>
+      </c>
+      <c r="C248" s="93" t="s">
+        <v>13</v>
+      </c>
+      <c r="D248" s="93" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A249" s="93">
+        <v>33</v>
+      </c>
+      <c r="B249" s="93" t="s">
+        <v>17</v>
+      </c>
+      <c r="C249" s="93" t="s">
+        <v>14</v>
+      </c>
+      <c r="D249" s="93" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A250" s="93">
+        <v>33</v>
+      </c>
+      <c r="B250" s="93" t="s">
+        <v>17</v>
+      </c>
+      <c r="C250" s="93" t="s">
+        <v>15</v>
+      </c>
+      <c r="D250" s="93" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A251" s="93">
+        <v>33</v>
+      </c>
+      <c r="B251" s="93" t="s">
+        <v>17</v>
+      </c>
+      <c r="C251" s="93" t="s">
+        <v>16</v>
+      </c>
+      <c r="D251" s="93" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A252" s="4">
         <v>34</v>
       </c>
-      <c r="B247" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="C247" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D247" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A248" s="4">
+      <c r="B252" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D252" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A253" s="4">
         <v>34</v>
       </c>
-      <c r="B248" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="C248" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D248" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A249" s="4">
+      <c r="B253" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D253" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A254" s="4">
         <v>34</v>
       </c>
-      <c r="B249" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="C249" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D249" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A250" s="4">
+      <c r="B254" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D254" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A255" s="4">
         <v>34</v>
       </c>
-      <c r="B250" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="C250" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D250" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A251" s="4">
+      <c r="B255" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D255" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A256" s="4">
         <v>34</v>
       </c>
-      <c r="B251" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="C251" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D251" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A252" s="89">
+      <c r="B256" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D256" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A257" s="89">
         <v>34</v>
       </c>
-      <c r="B252" s="90" t="s">
-        <v>18</v>
-      </c>
-      <c r="C252" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="D252" s="89" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A253" s="89">
+      <c r="B257" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="C257" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="D257" s="89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A258" s="89">
         <v>34</v>
       </c>
-      <c r="B253" s="90" t="s">
-        <v>18</v>
-      </c>
-      <c r="C253" s="89" t="s">
-        <v>13</v>
-      </c>
-      <c r="D253" s="89" t="s">
+      <c r="B258" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="C258" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="D258" s="89" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A254" s="89">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A259" s="89">
         <v>34</v>
       </c>
-      <c r="B254" s="90" t="s">
-        <v>18</v>
-      </c>
-      <c r="C254" s="89" t="s">
-        <v>14</v>
-      </c>
-      <c r="D254" s="89" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A255" s="89">
+      <c r="B259" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="C259" s="89" t="s">
+        <v>14</v>
+      </c>
+      <c r="D259" s="89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A260" s="89">
         <v>34</v>
       </c>
-      <c r="B255" s="90" t="s">
-        <v>18</v>
-      </c>
-      <c r="C255" s="89" t="s">
-        <v>15</v>
-      </c>
-      <c r="D255" s="89" t="s">
+      <c r="B260" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="C260" s="89" t="s">
+        <v>15</v>
+      </c>
+      <c r="D260" s="89" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A256" s="89">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A261" s="89">
         <v>34</v>
       </c>
-      <c r="B256" s="90" t="s">
-        <v>18</v>
-      </c>
-      <c r="C256" s="89" t="s">
-        <v>16</v>
-      </c>
-      <c r="D256" s="89" t="s">
+      <c r="B261" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="C261" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D261" s="89" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A257" s="9">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A262" s="9">
         <v>36</v>
       </c>
-      <c r="B257" s="70" t="s">
-        <v>18</v>
-      </c>
-      <c r="C257" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D257" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A258" s="9">
+      <c r="B262" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C262" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D262" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A263" s="9">
         <v>36</v>
       </c>
-      <c r="B258" s="70" t="s">
-        <v>18</v>
-      </c>
-      <c r="C258" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D258" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A259" s="9">
+      <c r="B263" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C263" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D263" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A264" s="9">
         <v>36</v>
       </c>
-      <c r="B259" s="70" t="s">
-        <v>18</v>
-      </c>
-      <c r="C259" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D259" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A260" s="9">
+      <c r="B264" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C264" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D264" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A265" s="9">
         <v>36</v>
       </c>
-      <c r="B260" s="70" t="s">
-        <v>18</v>
-      </c>
-      <c r="C260" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D260" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A261" s="9">
+      <c r="B265" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C265" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D265" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A266" s="9">
         <v>36</v>
       </c>
-      <c r="B261" s="70" t="s">
-        <v>18</v>
-      </c>
-      <c r="C261" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D261" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A262" s="103">
+      <c r="B266" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C266" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D266" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A267" s="118">
         <v>37</v>
       </c>
-      <c r="B262" s="104" t="s">
-        <v>17</v>
-      </c>
-      <c r="C262" s="103" t="s">
-        <v>12</v>
-      </c>
-      <c r="D262" s="103" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A263" s="103">
+      <c r="B267" s="118" t="s">
+        <v>17</v>
+      </c>
+      <c r="C267" s="118" t="s">
+        <v>12</v>
+      </c>
+      <c r="D267" s="118" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A268" s="118">
         <v>37</v>
       </c>
-      <c r="B263" s="104" t="s">
-        <v>17</v>
-      </c>
-      <c r="C263" s="103" t="s">
-        <v>13</v>
-      </c>
-      <c r="D263" s="103" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A264" s="103">
+      <c r="B268" s="118" t="s">
+        <v>17</v>
+      </c>
+      <c r="C268" s="118" t="s">
+        <v>13</v>
+      </c>
+      <c r="D268" s="118" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A269" s="118">
         <v>37</v>
       </c>
-      <c r="B264" s="104" t="s">
-        <v>17</v>
-      </c>
-      <c r="C264" s="103" t="s">
-        <v>14</v>
-      </c>
-      <c r="D264" s="103" t="s">
+      <c r="B269" s="118" t="s">
+        <v>17</v>
+      </c>
+      <c r="C269" s="118" t="s">
+        <v>14</v>
+      </c>
+      <c r="D269" s="118" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A270" s="118">
+        <v>37</v>
+      </c>
+      <c r="B270" s="118" t="s">
+        <v>17</v>
+      </c>
+      <c r="C270" s="118" t="s">
+        <v>15</v>
+      </c>
+      <c r="D270" s="118" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A271" s="118">
+        <v>37</v>
+      </c>
+      <c r="B271" s="118" t="s">
+        <v>17</v>
+      </c>
+      <c r="C271" s="118" t="s">
+        <v>16</v>
+      </c>
+      <c r="D271" s="118" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A272" s="102">
+        <v>37</v>
+      </c>
+      <c r="B272" s="103" t="s">
+        <v>17</v>
+      </c>
+      <c r="C272" s="102" t="s">
+        <v>12</v>
+      </c>
+      <c r="D272" s="102" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A273" s="102">
+        <v>37</v>
+      </c>
+      <c r="B273" s="103" t="s">
+        <v>17</v>
+      </c>
+      <c r="C273" s="102" t="s">
+        <v>13</v>
+      </c>
+      <c r="D273" s="102" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A274" s="102">
+        <v>37</v>
+      </c>
+      <c r="B274" s="103" t="s">
+        <v>17</v>
+      </c>
+      <c r="C274" s="102" t="s">
+        <v>14</v>
+      </c>
+      <c r="D274" s="102" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A265" s="103">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A275" s="102">
         <v>37</v>
       </c>
-      <c r="B265" s="104" t="s">
-        <v>17</v>
-      </c>
-      <c r="C265" s="103" t="s">
-        <v>15</v>
-      </c>
-      <c r="D265" s="103" t="s">
+      <c r="B275" s="103" t="s">
+        <v>17</v>
+      </c>
+      <c r="C275" s="102" t="s">
+        <v>15</v>
+      </c>
+      <c r="D275" s="102" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A266" s="103">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A276" s="102">
         <v>37</v>
       </c>
-      <c r="B266" s="104" t="s">
-        <v>17</v>
-      </c>
-      <c r="C266" s="103" t="s">
-        <v>16</v>
-      </c>
-      <c r="D266" s="103" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A267" s="105">
+      <c r="B276" s="103" t="s">
+        <v>17</v>
+      </c>
+      <c r="C276" s="102" t="s">
+        <v>16</v>
+      </c>
+      <c r="D276" s="102" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A277" s="104">
         <v>37</v>
       </c>
-      <c r="B267" s="106" t="s">
-        <v>17</v>
-      </c>
-      <c r="C267" s="105" t="s">
-        <v>12</v>
-      </c>
-      <c r="D267" s="105" t="s">
+      <c r="B277" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="C277" s="104" t="s">
+        <v>12</v>
+      </c>
+      <c r="D277" s="104" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A268" s="105">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A278" s="104">
         <v>37</v>
       </c>
-      <c r="B268" s="106" t="s">
-        <v>17</v>
-      </c>
-      <c r="C268" s="105" t="s">
-        <v>13</v>
-      </c>
-      <c r="D268" s="105" t="s">
+      <c r="B278" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="C278" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="D278" s="104" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A269" s="105">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A279" s="104">
         <v>37</v>
       </c>
-      <c r="B269" s="106" t="s">
-        <v>17</v>
-      </c>
-      <c r="C269" s="105" t="s">
-        <v>14</v>
-      </c>
-      <c r="D269" s="105" t="s">
+      <c r="B279" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="C279" s="104" t="s">
+        <v>14</v>
+      </c>
+      <c r="D279" s="104" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A270" s="105">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A280" s="104">
         <v>37</v>
       </c>
-      <c r="B270" s="106" t="s">
-        <v>17</v>
-      </c>
-      <c r="C270" s="105" t="s">
-        <v>15</v>
-      </c>
-      <c r="D270" s="105" t="s">
+      <c r="B280" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="C280" s="104" t="s">
+        <v>15</v>
+      </c>
+      <c r="D280" s="104" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A271" s="105">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A281" s="104">
         <v>37</v>
       </c>
-      <c r="B271" s="106" t="s">
-        <v>17</v>
-      </c>
-      <c r="C271" s="105" t="s">
-        <v>16</v>
-      </c>
-      <c r="D271" s="105" t="s">
+      <c r="B281" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="C281" s="104" t="s">
+        <v>16</v>
+      </c>
+      <c r="D281" s="104" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A272" s="107">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A282" s="106">
         <v>37</v>
       </c>
-      <c r="B272" s="108" t="s">
-        <v>18</v>
-      </c>
-      <c r="C272" s="107" t="s">
-        <v>12</v>
-      </c>
-      <c r="D272" s="107" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A273" s="107">
+      <c r="B282" s="107" t="s">
+        <v>18</v>
+      </c>
+      <c r="C282" s="106" t="s">
+        <v>12</v>
+      </c>
+      <c r="D282" s="106" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A283" s="106">
         <v>37</v>
       </c>
-      <c r="B273" s="108" t="s">
-        <v>18</v>
-      </c>
-      <c r="C273" s="107" t="s">
-        <v>13</v>
-      </c>
-      <c r="D273" s="107" t="s">
+      <c r="B283" s="107" t="s">
+        <v>18</v>
+      </c>
+      <c r="C283" s="106" t="s">
+        <v>13</v>
+      </c>
+      <c r="D283" s="106" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A274" s="107">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A284" s="106">
         <v>37</v>
       </c>
-      <c r="B274" s="108" t="s">
-        <v>18</v>
-      </c>
-      <c r="C274" s="107" t="s">
-        <v>14</v>
-      </c>
-      <c r="D274" s="107" t="s">
+      <c r="B284" s="107" t="s">
+        <v>18</v>
+      </c>
+      <c r="C284" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="D284" s="106" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A275" s="107">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A285" s="106">
         <v>37</v>
       </c>
-      <c r="B275" s="108" t="s">
-        <v>18</v>
-      </c>
-      <c r="C275" s="107" t="s">
-        <v>15</v>
-      </c>
-      <c r="D275" s="107" t="s">
+      <c r="B285" s="107" t="s">
+        <v>18</v>
+      </c>
+      <c r="C285" s="106" t="s">
+        <v>15</v>
+      </c>
+      <c r="D285" s="106" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A276" s="107">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A286" s="106">
         <v>37</v>
       </c>
-      <c r="B276" s="108" t="s">
-        <v>18</v>
-      </c>
-      <c r="C276" s="107" t="s">
-        <v>16</v>
-      </c>
-      <c r="D276" s="107" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A277" s="109">
+      <c r="B286" s="107" t="s">
+        <v>18</v>
+      </c>
+      <c r="C286" s="106" t="s">
+        <v>16</v>
+      </c>
+      <c r="D286" s="106" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A287" s="108">
         <v>39</v>
       </c>
-      <c r="B277" s="110" t="s">
-        <v>17</v>
-      </c>
-      <c r="C277" s="109" t="s">
-        <v>12</v>
-      </c>
-      <c r="D277" s="109" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A278" s="109">
+      <c r="B287" s="109" t="s">
+        <v>17</v>
+      </c>
+      <c r="C287" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="D287" s="108" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A288" s="108">
         <v>39</v>
       </c>
-      <c r="B278" s="110" t="s">
-        <v>17</v>
-      </c>
-      <c r="C278" s="109" t="s">
-        <v>13</v>
-      </c>
-      <c r="D278" s="109" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A279" s="109">
+      <c r="B288" s="109" t="s">
+        <v>17</v>
+      </c>
+      <c r="C288" s="108" t="s">
+        <v>13</v>
+      </c>
+      <c r="D288" s="108" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A289" s="108">
         <v>39</v>
       </c>
-      <c r="B279" s="110" t="s">
-        <v>17</v>
-      </c>
-      <c r="C279" s="109" t="s">
-        <v>14</v>
-      </c>
-      <c r="D279" s="109" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A280" s="109">
+      <c r="B289" s="109" t="s">
+        <v>17</v>
+      </c>
+      <c r="C289" s="108" t="s">
+        <v>14</v>
+      </c>
+      <c r="D289" s="108" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A290" s="108">
         <v>39</v>
       </c>
-      <c r="B280" s="110" t="s">
-        <v>17</v>
-      </c>
-      <c r="C280" s="109" t="s">
-        <v>15</v>
-      </c>
-      <c r="D280" s="109" t="s">
+      <c r="B290" s="109" t="s">
+        <v>17</v>
+      </c>
+      <c r="C290" s="108" t="s">
+        <v>15</v>
+      </c>
+      <c r="D290" s="108" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A281" s="109">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A291" s="108">
         <v>39</v>
       </c>
-      <c r="B281" s="110" t="s">
-        <v>17</v>
-      </c>
-      <c r="C281" s="109" t="s">
-        <v>16</v>
-      </c>
-      <c r="D281" s="109" t="s">
+      <c r="B291" s="109" t="s">
+        <v>17</v>
+      </c>
+      <c r="C291" s="108" t="s">
+        <v>16</v>
+      </c>
+      <c r="D291" s="108" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A282" s="111">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A292" s="110">
         <v>39</v>
       </c>
-      <c r="B282" s="112" t="s">
-        <v>17</v>
-      </c>
-      <c r="C282" s="111" t="s">
-        <v>12</v>
-      </c>
-      <c r="D282" s="111" t="s">
+      <c r="B292" s="111" t="s">
+        <v>17</v>
+      </c>
+      <c r="C292" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="D292" s="110" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A283" s="111">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A293" s="110">
         <v>39</v>
       </c>
-      <c r="B283" s="112" t="s">
-        <v>17</v>
-      </c>
-      <c r="C283" s="111" t="s">
-        <v>13</v>
-      </c>
-      <c r="D283" s="111" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A284" s="111">
+      <c r="B293" s="111" t="s">
+        <v>17</v>
+      </c>
+      <c r="C293" s="110" t="s">
+        <v>13</v>
+      </c>
+      <c r="D293" s="110" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A294" s="110">
         <v>39</v>
       </c>
-      <c r="B284" s="112" t="s">
-        <v>17</v>
-      </c>
-      <c r="C284" s="111" t="s">
-        <v>14</v>
-      </c>
-      <c r="D284" s="111" t="s">
+      <c r="B294" s="111" t="s">
+        <v>17</v>
+      </c>
+      <c r="C294" s="110" t="s">
+        <v>14</v>
+      </c>
+      <c r="D294" s="110" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A285" s="111">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A295" s="110">
         <v>39</v>
       </c>
-      <c r="B285" s="112" t="s">
-        <v>17</v>
-      </c>
-      <c r="C285" s="111" t="s">
-        <v>15</v>
-      </c>
-      <c r="D285" s="111" t="s">
+      <c r="B295" s="111" t="s">
+        <v>17</v>
+      </c>
+      <c r="C295" s="110" t="s">
+        <v>15</v>
+      </c>
+      <c r="D295" s="110" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A286" s="111">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A296" s="110">
         <v>39</v>
       </c>
-      <c r="B286" s="112" t="s">
-        <v>17</v>
-      </c>
-      <c r="C286" s="111" t="s">
-        <v>16</v>
-      </c>
-      <c r="D286" s="111" t="s">
+      <c r="B296" s="111" t="s">
+        <v>17</v>
+      </c>
+      <c r="C296" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="D296" s="110" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A287" s="113">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A297" s="112">
         <v>39</v>
       </c>
-      <c r="B287" s="114" t="s">
-        <v>17</v>
-      </c>
-      <c r="C287" s="113" t="s">
-        <v>12</v>
-      </c>
-      <c r="D287" s="113" t="s">
+      <c r="B297" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="C297" s="112" t="s">
+        <v>12</v>
+      </c>
+      <c r="D297" s="112" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A288" s="113">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A298" s="112">
         <v>39</v>
       </c>
-      <c r="B288" s="114" t="s">
-        <v>17</v>
-      </c>
-      <c r="C288" s="113" t="s">
-        <v>13</v>
-      </c>
-      <c r="D288" s="113" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A289" s="113">
+      <c r="B298" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="C298" s="112" t="s">
+        <v>13</v>
+      </c>
+      <c r="D298" s="112" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A299" s="112">
         <v>39</v>
       </c>
-      <c r="B289" s="114" t="s">
-        <v>17</v>
-      </c>
-      <c r="C289" s="113" t="s">
-        <v>14</v>
-      </c>
-      <c r="D289" s="113" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A290" s="113">
+      <c r="B299" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="C299" s="112" t="s">
+        <v>14</v>
+      </c>
+      <c r="D299" s="112" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A300" s="112">
         <v>39</v>
       </c>
-      <c r="B290" s="114" t="s">
-        <v>17</v>
-      </c>
-      <c r="C290" s="113" t="s">
-        <v>15</v>
-      </c>
-      <c r="D290" s="113" t="s">
+      <c r="B300" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="C300" s="112" t="s">
+        <v>15</v>
+      </c>
+      <c r="D300" s="112" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A291" s="113">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A301" s="112">
         <v>39</v>
       </c>
-      <c r="B291" s="114" t="s">
-        <v>17</v>
-      </c>
-      <c r="C291" s="113" t="s">
-        <v>16</v>
-      </c>
-      <c r="D291" s="113" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A292" s="115">
+      <c r="B301" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="C301" s="112" t="s">
+        <v>16</v>
+      </c>
+      <c r="D301" s="112" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A302" s="114">
         <v>42</v>
       </c>
-      <c r="B292" s="116" t="s">
-        <v>18</v>
-      </c>
-      <c r="C292" s="115" t="s">
-        <v>12</v>
-      </c>
-      <c r="D292" s="115" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A293" s="115">
+      <c r="B302" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="C302" s="114" t="s">
+        <v>12</v>
+      </c>
+      <c r="D302" s="114" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A303" s="114">
         <v>42</v>
       </c>
-      <c r="B293" s="116" t="s">
-        <v>18</v>
-      </c>
-      <c r="C293" s="115" t="s">
-        <v>13</v>
-      </c>
-      <c r="D293" s="115" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A294" s="115">
+      <c r="B303" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="C303" s="114" t="s">
+        <v>13</v>
+      </c>
+      <c r="D303" s="114" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A304" s="114">
         <v>42</v>
       </c>
-      <c r="B294" s="116" t="s">
-        <v>18</v>
-      </c>
-      <c r="C294" s="115" t="s">
-        <v>14</v>
-      </c>
-      <c r="D294" s="115" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A295" s="115">
+      <c r="B304" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="C304" s="114" t="s">
+        <v>14</v>
+      </c>
+      <c r="D304" s="114" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A305" s="114">
         <v>42</v>
       </c>
-      <c r="B295" s="116" t="s">
-        <v>18</v>
-      </c>
-      <c r="C295" s="115" t="s">
-        <v>15</v>
-      </c>
-      <c r="D295" s="115" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A296" s="115">
+      <c r="B305" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="C305" s="114" t="s">
+        <v>15</v>
+      </c>
+      <c r="D305" s="114" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A306" s="114">
         <v>42</v>
       </c>
-      <c r="B296" s="116" t="s">
-        <v>18</v>
-      </c>
-      <c r="C296" s="115" t="s">
-        <v>16</v>
-      </c>
-      <c r="D296" s="115" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A297" s="117">
+      <c r="B306" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="C306" s="114" t="s">
+        <v>16</v>
+      </c>
+      <c r="D306" s="114" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A307" s="22">
+        <v>45</v>
+      </c>
+      <c r="B307" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C307" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D307" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A308" s="22">
+        <v>45</v>
+      </c>
+      <c r="B308" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C308" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D308" s="22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A309" s="22">
+        <v>45</v>
+      </c>
+      <c r="B309" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C309" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D309" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A310" s="22">
+        <v>45</v>
+      </c>
+      <c r="B310" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C310" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D310" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A311" s="22">
+        <v>45</v>
+      </c>
+      <c r="B311" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C311" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D311" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A312" s="119">
         <v>47</v>
       </c>
-      <c r="B297" s="118" t="s">
-        <v>17</v>
-      </c>
-      <c r="C297" s="117" t="s">
-        <v>12</v>
-      </c>
-      <c r="D297" s="117" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A298" s="117">
+      <c r="B312" s="119" t="s">
+        <v>17</v>
+      </c>
+      <c r="C312" s="119" t="s">
+        <v>12</v>
+      </c>
+      <c r="D312" s="119" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A313" s="119">
         <v>47</v>
       </c>
-      <c r="B298" s="118" t="s">
-        <v>17</v>
-      </c>
-      <c r="C298" s="117" t="s">
-        <v>13</v>
-      </c>
-      <c r="D298" s="117" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A299" s="117">
+      <c r="B313" s="119" t="s">
+        <v>17</v>
+      </c>
+      <c r="C313" s="119" t="s">
+        <v>13</v>
+      </c>
+      <c r="D313" s="119" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A314" s="119">
         <v>47</v>
       </c>
-      <c r="B299" s="118" t="s">
-        <v>17</v>
-      </c>
-      <c r="C299" s="117" t="s">
-        <v>14</v>
-      </c>
-      <c r="D299" s="117" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A300" s="117">
+      <c r="B314" s="119" t="s">
+        <v>17</v>
+      </c>
+      <c r="C314" s="119" t="s">
+        <v>14</v>
+      </c>
+      <c r="D314" s="119" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A315" s="119">
         <v>47</v>
       </c>
-      <c r="B300" s="118" t="s">
-        <v>17</v>
-      </c>
-      <c r="C300" s="117" t="s">
-        <v>15</v>
-      </c>
-      <c r="D300" s="117" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A301" s="117">
+      <c r="B315" s="119" t="s">
+        <v>17</v>
+      </c>
+      <c r="C315" s="119" t="s">
+        <v>15</v>
+      </c>
+      <c r="D315" s="119" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A316" s="119">
         <v>47</v>
       </c>
-      <c r="B301" s="118" t="s">
-        <v>17</v>
-      </c>
-      <c r="C301" s="117" t="s">
-        <v>16</v>
-      </c>
-      <c r="D301" s="117" t="s">
+      <c r="B316" s="119" t="s">
+        <v>17</v>
+      </c>
+      <c r="C316" s="119" t="s">
+        <v>16</v>
+      </c>
+      <c r="D316" s="119" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A317" s="120">
+        <v>47</v>
+      </c>
+      <c r="B317" s="121" t="s">
+        <v>17</v>
+      </c>
+      <c r="C317" s="120" t="s">
+        <v>12</v>
+      </c>
+      <c r="D317" s="120" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A318" s="120">
+        <v>47</v>
+      </c>
+      <c r="B318" s="121" t="s">
+        <v>17</v>
+      </c>
+      <c r="C318" s="120" t="s">
+        <v>13</v>
+      </c>
+      <c r="D318" s="120" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A319" s="120">
+        <v>47</v>
+      </c>
+      <c r="B319" s="121" t="s">
+        <v>17</v>
+      </c>
+      <c r="C319" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="D319" s="120" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A320" s="120">
+        <v>47</v>
+      </c>
+      <c r="B320" s="121" t="s">
+        <v>17</v>
+      </c>
+      <c r="C320" s="120" t="s">
+        <v>15</v>
+      </c>
+      <c r="D320" s="120" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A321" s="120">
+        <v>47</v>
+      </c>
+      <c r="B321" s="121" t="s">
+        <v>17</v>
+      </c>
+      <c r="C321" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="D321" s="120" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A302" s="119">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A322" s="122">
+        <v>49</v>
+      </c>
+      <c r="B322" s="122" t="s">
+        <v>18</v>
+      </c>
+      <c r="C322" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="D322" s="122" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A323" s="122">
+        <v>49</v>
+      </c>
+      <c r="B323" s="122" t="s">
+        <v>18</v>
+      </c>
+      <c r="C323" s="122" t="s">
+        <v>13</v>
+      </c>
+      <c r="D323" s="122" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A324" s="122">
+        <v>49</v>
+      </c>
+      <c r="B324" s="122" t="s">
+        <v>18</v>
+      </c>
+      <c r="C324" s="122" t="s">
+        <v>14</v>
+      </c>
+      <c r="D324" s="122" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A325" s="122">
+        <v>49</v>
+      </c>
+      <c r="B325" s="122" t="s">
+        <v>18</v>
+      </c>
+      <c r="C325" s="122" t="s">
+        <v>15</v>
+      </c>
+      <c r="D325" s="122" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A326" s="122">
+        <v>49</v>
+      </c>
+      <c r="B326" s="122" t="s">
+        <v>18</v>
+      </c>
+      <c r="C326" s="122" t="s">
+        <v>16</v>
+      </c>
+      <c r="D326" s="122" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A327" s="94">
         <v>55</v>
       </c>
-      <c r="B302" s="120" t="s">
-        <v>17</v>
-      </c>
-      <c r="C302" s="119" t="s">
-        <v>12</v>
-      </c>
-      <c r="D302" s="119" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A303" s="119">
+      <c r="B327" s="88" t="s">
+        <v>17</v>
+      </c>
+      <c r="C327" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="D327" s="94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A328" s="94">
         <v>55</v>
       </c>
-      <c r="B303" s="120" t="s">
-        <v>17</v>
-      </c>
-      <c r="C303" s="119" t="s">
-        <v>13</v>
-      </c>
-      <c r="D303" s="119" t="s">
+      <c r="B328" s="88" t="s">
+        <v>17</v>
+      </c>
+      <c r="C328" s="94" t="s">
+        <v>13</v>
+      </c>
+      <c r="D328" s="94" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A304" s="119">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A329" s="94">
         <v>55</v>
       </c>
-      <c r="B304" s="120" t="s">
-        <v>17</v>
-      </c>
-      <c r="C304" s="119" t="s">
-        <v>14</v>
-      </c>
-      <c r="D304" s="119" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A305" s="119">
+      <c r="B329" s="88" t="s">
+        <v>17</v>
+      </c>
+      <c r="C329" s="94" t="s">
+        <v>14</v>
+      </c>
+      <c r="D329" s="94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A330" s="94">
         <v>55</v>
       </c>
-      <c r="B305" s="120" t="s">
-        <v>17</v>
-      </c>
-      <c r="C305" s="119" t="s">
-        <v>15</v>
-      </c>
-      <c r="D305" s="119" t="s">
+      <c r="B330" s="88" t="s">
+        <v>17</v>
+      </c>
+      <c r="C330" s="94" t="s">
+        <v>15</v>
+      </c>
+      <c r="D330" s="94" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A306" s="119">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A331" s="94">
         <v>55</v>
       </c>
-      <c r="B306" s="120" t="s">
-        <v>17</v>
-      </c>
-      <c r="C306" s="119" t="s">
-        <v>16</v>
-      </c>
-      <c r="D306" s="119" t="s">
+      <c r="B331" s="88" t="s">
+        <v>17</v>
+      </c>
+      <c r="C331" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="D331" s="94" t="s">
         <v>11</v>
       </c>
     </row>

--- a/MusicApp/MusicRec.xlsx
+++ b/MusicApp/MusicRec.xlsx
@@ -100,7 +100,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="59">
+  <fills count="54">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,12 +229,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF4750C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -248,12 +242,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC96563"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF80C535"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,30 +379,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFF66"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00CC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF009999"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -449,6 +413,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -477,7 +447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -506,37 +476,35 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -554,10 +522,10 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -572,13 +540,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -590,10 +558,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -605,13 +573,13 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -620,22 +588,16 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -646,31 +608,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -683,15 +653,23 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="1"/>
@@ -702,17 +680,6 @@
     <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -721,6 +688,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFF47"/>
+      <color rgb="FFFFFF99"/>
       <color rgb="FFFFFFE1"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FF75A4DD"/>
@@ -729,8 +698,6 @@
       <color rgb="FF009999"/>
       <color rgb="FF00CC99"/>
       <color rgb="FFCCFF66"/>
-      <color rgb="FFCCFFCC"/>
-      <color rgb="FFFFFF99"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1033,13 +1000,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K331"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C311" sqref="C311"/>
+    <sheetView tabSelected="1" topLeftCell="A314" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D337" sqref="D337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="8.81640625" style="85"/>
+    <col min="2" max="2" width="8.81640625" style="81"/>
     <col min="4" max="4" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1047,7 +1014,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1056,19 +1023,19 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>18</v>
       </c>
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="87" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1077,15 +1044,15 @@
       <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="86"/>
-      <c r="F2" s="87"/>
-      <c r="K2" s="86"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="83"/>
+      <c r="K2" s="82"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>18</v>
       </c>
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="87" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -1094,15 +1061,15 @@
       <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="86"/>
-      <c r="F3" s="87"/>
-      <c r="K3" s="86"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="83"/>
+      <c r="K3" s="82"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>18</v>
       </c>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="87" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1111,15 +1078,15 @@
       <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="86"/>
-      <c r="F4" s="87"/>
-      <c r="K4" s="86"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="83"/>
+      <c r="K4" s="82"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>18</v>
       </c>
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="87" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1128,15 +1095,15 @@
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="86"/>
-      <c r="F5" s="87"/>
-      <c r="K5" s="86"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="83"/>
+      <c r="K5" s="82"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>18</v>
       </c>
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="87" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -1145,287 +1112,287 @@
       <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="K6" s="86"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="K6" s="82"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="31">
+      <c r="A7" s="29">
         <v>19</v>
       </c>
-      <c r="B7" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="31" t="s">
+      <c r="B7" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="29" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="31">
+      <c r="A8" s="29">
         <v>19</v>
       </c>
-      <c r="B8" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="31" t="s">
+      <c r="B8" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="29" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="31">
+      <c r="A9" s="29">
         <v>19</v>
       </c>
-      <c r="B9" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="31" t="s">
+      <c r="B9" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="29" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="31">
+      <c r="A10" s="29">
         <v>19</v>
       </c>
-      <c r="B10" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="31" t="s">
+      <c r="B10" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="31">
+      <c r="A11" s="29">
         <v>19</v>
       </c>
-      <c r="B11" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="31" t="s">
+      <c r="B11" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="29" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="27">
+      <c r="A12" s="26">
         <v>19</v>
       </c>
-      <c r="B12" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="27" t="s">
+      <c r="B12" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="26" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="27">
+      <c r="A13" s="26">
         <v>19</v>
       </c>
-      <c r="B13" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="86" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="27" t="s">
+      <c r="B13" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="82" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="27">
+      <c r="A14" s="26">
         <v>19</v>
       </c>
-      <c r="B14" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="86" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="27" t="s">
+      <c r="B14" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="82" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="27">
+      <c r="A15" s="26">
         <v>19</v>
       </c>
-      <c r="B15" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="86" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>9</v>
+      <c r="B15" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="27">
+      <c r="A16" s="26">
         <v>19</v>
       </c>
-      <c r="B16" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="27" t="s">
+      <c r="B16" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="26" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="32">
+      <c r="A17" s="30">
         <v>19</v>
       </c>
-      <c r="B17" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="32" t="s">
+      <c r="B17" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="30" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="32">
+      <c r="A18" s="30">
         <v>19</v>
       </c>
-      <c r="B18" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="86" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="32" t="s">
+      <c r="B18" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="82" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="30" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="32">
+      <c r="A19" s="30">
         <v>19</v>
       </c>
-      <c r="B19" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="86" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>5</v>
+      <c r="B19" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="82" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="32">
+      <c r="A20" s="30">
         <v>19</v>
       </c>
-      <c r="B20" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="86" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="32" t="s">
+      <c r="B20" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="30" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="32">
+      <c r="A21" s="30">
         <v>19</v>
       </c>
-      <c r="B21" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="32" t="s">
+      <c r="B21" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="30" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="33">
+      <c r="A22" s="31">
         <v>20</v>
       </c>
-      <c r="B22" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="33" t="s">
+      <c r="B22" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="31" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="33">
+      <c r="A23" s="31">
         <v>20</v>
       </c>
-      <c r="B23" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="33" t="s">
+      <c r="B23" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="31" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="33">
+      <c r="A24" s="31">
         <v>20</v>
       </c>
-      <c r="B24" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="33" t="s">
+      <c r="B24" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="31" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="33">
+      <c r="A25" s="31">
         <v>20</v>
       </c>
-      <c r="B25" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="33" t="s">
+      <c r="B25" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="31" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="33">
+      <c r="A26" s="31">
         <v>20</v>
       </c>
-      <c r="B26" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="33" t="s">
+      <c r="B26" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="31" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1433,7 +1400,7 @@
       <c r="A27" s="4">
         <v>21</v>
       </c>
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -1447,7 +1414,7 @@
       <c r="A28" s="4">
         <v>21</v>
       </c>
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -1461,7 +1428,7 @@
       <c r="A29" s="4">
         <v>21</v>
       </c>
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -1475,7 +1442,7 @@
       <c r="A30" s="4">
         <v>21</v>
       </c>
-      <c r="B30" s="51" t="s">
+      <c r="B30" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -1489,7 +1456,7 @@
       <c r="A31" s="4">
         <v>21</v>
       </c>
-      <c r="B31" s="51" t="s">
+      <c r="B31" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -1503,10 +1470,10 @@
       <c r="A32" s="2">
         <v>21</v>
       </c>
-      <c r="B32" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="86" t="s">
+      <c r="B32" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="82" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -1517,10 +1484,10 @@
       <c r="A33" s="2">
         <v>21</v>
       </c>
-      <c r="B33" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="86" t="s">
+      <c r="B33" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="82" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -1531,10 +1498,10 @@
       <c r="A34" s="2">
         <v>21</v>
       </c>
-      <c r="B34" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="86" t="s">
+      <c r="B34" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="82" t="s">
         <v>14</v>
       </c>
       <c r="D34" s="16" t="s">
@@ -1545,10 +1512,10 @@
       <c r="A35" s="2">
         <v>21</v>
       </c>
-      <c r="B35" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="86" t="s">
+      <c r="B35" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="82" t="s">
         <v>15</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -1559,10 +1526,10 @@
       <c r="A36" s="2">
         <v>21</v>
       </c>
-      <c r="B36" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="86" t="s">
+      <c r="B36" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="82" t="s">
         <v>16</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -1573,10 +1540,10 @@
       <c r="A37" s="13">
         <v>21</v>
       </c>
-      <c r="B37" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="86" t="s">
+      <c r="B37" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="82" t="s">
         <v>12</v>
       </c>
       <c r="D37" s="13" t="s">
@@ -1587,10 +1554,10 @@
       <c r="A38" s="13">
         <v>21</v>
       </c>
-      <c r="B38" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="86" t="s">
+      <c r="B38" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="82" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="13" t="s">
@@ -1601,10 +1568,10 @@
       <c r="A39" s="13">
         <v>21</v>
       </c>
-      <c r="B39" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="86" t="s">
+      <c r="B39" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="82" t="s">
         <v>14</v>
       </c>
       <c r="D39" s="13" t="s">
@@ -1615,10 +1582,10 @@
       <c r="A40" s="13">
         <v>21</v>
       </c>
-      <c r="B40" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="86" t="s">
+      <c r="B40" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="82" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="13" t="s">
@@ -1629,10 +1596,10 @@
       <c r="A41" s="13">
         <v>21</v>
       </c>
-      <c r="B41" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="86" t="s">
+      <c r="B41" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="82" t="s">
         <v>16</v>
       </c>
       <c r="D41" s="13" t="s">
@@ -1643,85 +1610,85 @@
       <c r="A42" s="3">
         <v>21</v>
       </c>
-      <c r="B42" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" s="86" t="s">
+      <c r="B42" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="82" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I42" s="86"/>
+      <c r="I42" s="82"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>21</v>
       </c>
-      <c r="B43" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" s="86" t="s">
+      <c r="B43" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="82" t="s">
         <v>13</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I43" s="86"/>
+      <c r="I43" s="82"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>21</v>
       </c>
-      <c r="B44" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" s="86" t="s">
+      <c r="B44" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="82" t="s">
         <v>14</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I44" s="86"/>
+      <c r="I44" s="82"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>21</v>
       </c>
-      <c r="B45" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45" s="86" t="s">
+      <c r="B45" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="82" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I45" s="86"/>
+      <c r="I45" s="82"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>21</v>
       </c>
-      <c r="B46" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="C46" s="86" t="s">
+      <c r="B46" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="82" t="s">
         <v>16</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I46" s="86"/>
+      <c r="I46" s="82"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="14">
         <v>21</v>
       </c>
-      <c r="B47" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="C47" s="86" t="s">
+      <c r="B47" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="82" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="15" t="s">
@@ -1732,10 +1699,10 @@
       <c r="A48" s="14">
         <v>21</v>
       </c>
-      <c r="B48" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="C48" s="86" t="s">
+      <c r="B48" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="82" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="15" t="s">
@@ -1746,10 +1713,10 @@
       <c r="A49" s="14">
         <v>21</v>
       </c>
-      <c r="B49" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="C49" s="86" t="s">
+      <c r="B49" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="82" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="14" t="s">
@@ -1760,10 +1727,10 @@
       <c r="A50" s="14">
         <v>21</v>
       </c>
-      <c r="B50" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="C50" s="86" t="s">
+      <c r="B50" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" s="82" t="s">
         <v>15</v>
       </c>
       <c r="D50" s="14" t="s">
@@ -1774,10 +1741,10 @@
       <c r="A51" s="14">
         <v>21</v>
       </c>
-      <c r="B51" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="C51" s="86" t="s">
+      <c r="B51" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" s="82" t="s">
         <v>16</v>
       </c>
       <c r="D51" s="14" t="s">
@@ -1785,212 +1752,212 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="28">
+      <c r="A52" s="27">
         <v>21</v>
       </c>
-      <c r="B52" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="C52" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="29" t="s">
+      <c r="B52" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="28" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="28">
+      <c r="A53" s="27">
         <v>21</v>
       </c>
-      <c r="B53" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="C53" s="86" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" s="28" t="s">
+      <c r="B53" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" s="82" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="28">
+      <c r="A54" s="27">
         <v>21</v>
       </c>
-      <c r="B54" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="C54" s="86" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" s="28" t="s">
+      <c r="B54" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="82" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="28">
+      <c r="A55" s="27">
         <v>21</v>
       </c>
-      <c r="B55" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="C55" s="86" t="s">
-        <v>15</v>
-      </c>
-      <c r="D55" s="28" t="s">
+      <c r="B55" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="27" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="28">
+      <c r="A56" s="27">
         <v>21</v>
       </c>
-      <c r="B56" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="C56" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="D56" s="28" t="s">
+      <c r="B56" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="27" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="34">
+      <c r="A57" s="32">
         <v>21</v>
       </c>
-      <c r="B57" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="C57" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="35" t="s">
+      <c r="B57" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="33" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="34">
+      <c r="A58" s="32">
         <v>21</v>
       </c>
-      <c r="B58" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="C58" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="D58" s="35" t="s">
+      <c r="B58" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="33" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="34">
+      <c r="A59" s="32">
         <v>21</v>
       </c>
-      <c r="B59" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="C59" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" s="35" t="s">
+      <c r="B59" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="33" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="34">
+      <c r="A60" s="32">
         <v>21</v>
       </c>
-      <c r="B60" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="C60" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="D60" s="35" t="s">
+      <c r="B60" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="33" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="34">
+      <c r="A61" s="32">
         <v>21</v>
       </c>
-      <c r="B61" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="C61" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="D61" s="35" t="s">
+      <c r="B61" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="28">
+      <c r="A62" s="27">
         <v>21</v>
       </c>
-      <c r="B62" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="C62" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="35" t="s">
+      <c r="B62" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="33" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="28">
+      <c r="A63" s="27">
         <v>21</v>
       </c>
-      <c r="B63" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="C63" s="86" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="35" t="s">
+      <c r="B63" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="82" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="33" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="28">
+      <c r="A64" s="27">
         <v>21</v>
       </c>
-      <c r="B64" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="C64" s="86" t="s">
-        <v>14</v>
-      </c>
-      <c r="D64" s="35" t="s">
+      <c r="B64" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="82" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" s="33" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="28">
+      <c r="A65" s="27">
         <v>21</v>
       </c>
-      <c r="B65" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="C65" s="86" t="s">
-        <v>15</v>
-      </c>
-      <c r="D65" s="35" t="s">
+      <c r="B65" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" s="33" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="28">
+      <c r="A66" s="27">
         <v>21</v>
       </c>
-      <c r="B66" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="C66" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="D66" s="35" t="s">
+      <c r="B66" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="33" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1998,10 +1965,10 @@
       <c r="A67" s="4">
         <v>22</v>
       </c>
-      <c r="B67" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="C67" s="86" t="s">
+      <c r="B67" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" s="82" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="4" t="s">
@@ -2012,10 +1979,10 @@
       <c r="A68" s="4">
         <v>22</v>
       </c>
-      <c r="B68" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="C68" s="86" t="s">
+      <c r="B68" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" s="82" t="s">
         <v>13</v>
       </c>
       <c r="D68" s="4" t="s">
@@ -2026,10 +1993,10 @@
       <c r="A69" s="4">
         <v>22</v>
       </c>
-      <c r="B69" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="C69" s="86" t="s">
+      <c r="B69" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" s="82" t="s">
         <v>14</v>
       </c>
       <c r="D69" s="4" t="s">
@@ -2040,10 +2007,10 @@
       <c r="A70" s="4">
         <v>22</v>
       </c>
-      <c r="B70" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="C70" s="86" t="s">
+      <c r="B70" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" s="82" t="s">
         <v>15</v>
       </c>
       <c r="D70" s="4" t="s">
@@ -2054,10 +2021,10 @@
       <c r="A71" s="4">
         <v>22</v>
       </c>
-      <c r="B71" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="C71" s="86" t="s">
+      <c r="B71" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" s="82" t="s">
         <v>16</v>
       </c>
       <c r="D71" s="4" t="s">
@@ -2068,10 +2035,10 @@
       <c r="A72" s="8">
         <v>22</v>
       </c>
-      <c r="B72" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="C72" s="86" t="s">
+      <c r="B72" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="82" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="8" t="s">
@@ -2082,10 +2049,10 @@
       <c r="A73" s="8">
         <v>22</v>
       </c>
-      <c r="B73" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="C73" s="86" t="s">
+      <c r="B73" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="82" t="s">
         <v>13</v>
       </c>
       <c r="D73" s="8" t="s">
@@ -2096,10 +2063,10 @@
       <c r="A74" s="8">
         <v>22</v>
       </c>
-      <c r="B74" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="C74" s="86" t="s">
+      <c r="B74" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" s="82" t="s">
         <v>14</v>
       </c>
       <c r="D74" s="8" t="s">
@@ -2110,10 +2077,10 @@
       <c r="A75" s="8">
         <v>22</v>
       </c>
-      <c r="B75" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="C75" s="86" t="s">
+      <c r="B75" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" s="82" t="s">
         <v>15</v>
       </c>
       <c r="D75" s="8" t="s">
@@ -2124,10 +2091,10 @@
       <c r="A76" s="8">
         <v>22</v>
       </c>
-      <c r="B76" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="C76" s="86" t="s">
+      <c r="B76" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" s="82" t="s">
         <v>16</v>
       </c>
       <c r="D76" s="8" t="s">
@@ -2138,10 +2105,10 @@
       <c r="A77" s="18">
         <v>22</v>
       </c>
-      <c r="B77" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="C77" s="86" t="s">
+      <c r="B77" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" s="82" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="18" t="s">
@@ -2152,10 +2119,10 @@
       <c r="A78" s="18">
         <v>22</v>
       </c>
-      <c r="B78" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="C78" s="86" t="s">
+      <c r="B78" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" s="82" t="s">
         <v>13</v>
       </c>
       <c r="D78" s="18" t="s">
@@ -2166,10 +2133,10 @@
       <c r="A79" s="18">
         <v>22</v>
       </c>
-      <c r="B79" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="C79" s="86" t="s">
+      <c r="B79" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" s="82" t="s">
         <v>14</v>
       </c>
       <c r="D79" s="18" t="s">
@@ -2180,10 +2147,10 @@
       <c r="A80" s="18">
         <v>22</v>
       </c>
-      <c r="B80" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="C80" s="86" t="s">
+      <c r="B80" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" s="82" t="s">
         <v>15</v>
       </c>
       <c r="D80" s="18" t="s">
@@ -2194,10 +2161,10 @@
       <c r="A81" s="18">
         <v>22</v>
       </c>
-      <c r="B81" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="C81" s="86" t="s">
+      <c r="B81" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="82" t="s">
         <v>16</v>
       </c>
       <c r="D81" s="18" t="s">
@@ -2208,10 +2175,10 @@
       <c r="A82" s="17">
         <v>22</v>
       </c>
-      <c r="B82" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="C82" s="86" t="s">
+      <c r="B82" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" s="82" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="17" t="s">
@@ -2222,10 +2189,10 @@
       <c r="A83" s="17">
         <v>22</v>
       </c>
-      <c r="B83" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="C83" s="86" t="s">
+      <c r="B83" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" s="82" t="s">
         <v>13</v>
       </c>
       <c r="D83" s="17" t="s">
@@ -2236,10 +2203,10 @@
       <c r="A84" s="17">
         <v>22</v>
       </c>
-      <c r="B84" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="C84" s="86" t="s">
+      <c r="B84" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C84" s="82" t="s">
         <v>14</v>
       </c>
       <c r="D84" s="17" t="s">
@@ -2250,10 +2217,10 @@
       <c r="A85" s="17">
         <v>22</v>
       </c>
-      <c r="B85" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="C85" s="86" t="s">
+      <c r="B85" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C85" s="82" t="s">
         <v>15</v>
       </c>
       <c r="D85" s="17" t="s">
@@ -2264,10 +2231,10 @@
       <c r="A86" s="17">
         <v>22</v>
       </c>
-      <c r="B86" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="C86" s="86" t="s">
+      <c r="B86" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86" s="82" t="s">
         <v>16</v>
       </c>
       <c r="D86" s="17" t="s">
@@ -2278,10 +2245,10 @@
       <c r="A87" s="7">
         <v>22</v>
       </c>
-      <c r="B87" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="C87" s="86" t="s">
+      <c r="B87" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C87" s="82" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="7" t="s">
@@ -2292,10 +2259,10 @@
       <c r="A88" s="7">
         <v>22</v>
       </c>
-      <c r="B88" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="C88" s="86" t="s">
+      <c r="B88" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C88" s="82" t="s">
         <v>13</v>
       </c>
       <c r="D88" s="7" t="s">
@@ -2306,10 +2273,10 @@
       <c r="A89" s="7">
         <v>22</v>
       </c>
-      <c r="B89" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="C89" s="86" t="s">
+      <c r="B89" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C89" s="82" t="s">
         <v>14</v>
       </c>
       <c r="D89" s="7" t="s">
@@ -2320,10 +2287,10 @@
       <c r="A90" s="7">
         <v>22</v>
       </c>
-      <c r="B90" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="C90" s="86" t="s">
+      <c r="B90" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90" s="82" t="s">
         <v>15</v>
       </c>
       <c r="D90" s="7" t="s">
@@ -2334,10 +2301,10 @@
       <c r="A91" s="7">
         <v>22</v>
       </c>
-      <c r="B91" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="C91" s="86" t="s">
+      <c r="B91" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91" s="82" t="s">
         <v>16</v>
       </c>
       <c r="D91" s="7" t="s">
@@ -2345,212 +2312,212 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" s="38">
+      <c r="A92" s="36">
         <v>22</v>
       </c>
-      <c r="B92" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="C92" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="D92" s="39" t="s">
+      <c r="B92" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C92" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" s="37" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93" s="38">
+      <c r="A93" s="36">
         <v>22</v>
       </c>
-      <c r="B93" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="C93" s="86" t="s">
-        <v>13</v>
-      </c>
-      <c r="D93" s="38" t="s">
+      <c r="B93" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93" s="82" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93" s="36" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94" s="38">
+      <c r="A94" s="36">
         <v>22</v>
       </c>
-      <c r="B94" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="C94" s="86" t="s">
-        <v>14</v>
-      </c>
-      <c r="D94" s="38" t="s">
+      <c r="B94" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94" s="82" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" s="36" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95" s="38">
+      <c r="A95" s="36">
         <v>22</v>
       </c>
-      <c r="B95" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="C95" s="86" t="s">
-        <v>15</v>
-      </c>
-      <c r="D95" s="38" t="s">
+      <c r="B95" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C95" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A96" s="38">
+      <c r="A96" s="36">
         <v>22</v>
       </c>
-      <c r="B96" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="C96" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="D96" s="38" t="s">
+      <c r="B96" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C96" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="D96" s="36" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A97" s="26">
+      <c r="A97" s="25">
         <v>22</v>
       </c>
-      <c r="B97" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="C97" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97" s="26" t="s">
+      <c r="B97" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C97" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A98" s="26">
+      <c r="A98" s="25">
         <v>22</v>
       </c>
-      <c r="B98" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="C98" s="86" t="s">
-        <v>13</v>
-      </c>
-      <c r="D98" s="26" t="s">
+      <c r="B98" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C98" s="82" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A99" s="26">
+      <c r="A99" s="25">
         <v>22</v>
       </c>
-      <c r="B99" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="C99" s="86" t="s">
-        <v>14</v>
-      </c>
-      <c r="D99" s="26" t="s">
+      <c r="B99" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99" s="82" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" s="25" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A100" s="26">
+      <c r="A100" s="25">
         <v>22</v>
       </c>
-      <c r="B100" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="C100" s="86" t="s">
-        <v>15</v>
-      </c>
-      <c r="D100" s="26" t="s">
+      <c r="B100" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C100" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100" s="25" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A101" s="26">
+      <c r="A101" s="25">
         <v>22</v>
       </c>
-      <c r="B101" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="C101" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="D101" s="26" t="s">
+      <c r="B101" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C101" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="D101" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A102" s="40">
+      <c r="A102" s="38">
         <v>23</v>
       </c>
-      <c r="B102" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="C102" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102" s="40" t="s">
-        <v>7</v>
+      <c r="B102" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C102" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="38" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A103" s="40">
+      <c r="A103" s="38">
         <v>23</v>
       </c>
-      <c r="B103" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="C103" s="86" t="s">
-        <v>13</v>
-      </c>
-      <c r="D103" s="40" t="s">
+      <c r="B103" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C103" s="82" t="s">
+        <v>13</v>
+      </c>
+      <c r="D103" s="38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A104" s="40">
+      <c r="A104" s="38">
         <v>23</v>
       </c>
-      <c r="B104" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="C104" s="86" t="s">
-        <v>14</v>
-      </c>
-      <c r="D104" s="40" t="s">
+      <c r="B104" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104" s="82" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104" s="38" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A105" s="40">
+      <c r="A105" s="38">
         <v>23</v>
       </c>
-      <c r="B105" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="C105" s="86" t="s">
-        <v>15</v>
-      </c>
-      <c r="D105" s="40" t="s">
+      <c r="B105" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" s="38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A106" s="40">
+      <c r="A106" s="38">
         <v>23</v>
       </c>
-      <c r="B106" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="C106" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="D106" s="40" t="s">
+      <c r="B106" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="D106" s="38" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2558,7 +2525,7 @@
       <c r="A107" s="19">
         <v>23</v>
       </c>
-      <c r="B107" s="65" t="s">
+      <c r="B107" s="63" t="s">
         <v>17</v>
       </c>
       <c r="C107" s="19" t="s">
@@ -2572,7 +2539,7 @@
       <c r="A108" s="19">
         <v>23</v>
       </c>
-      <c r="B108" s="65" t="s">
+      <c r="B108" s="63" t="s">
         <v>17</v>
       </c>
       <c r="C108" s="19" t="s">
@@ -2586,7 +2553,7 @@
       <c r="A109" s="19">
         <v>23</v>
       </c>
-      <c r="B109" s="65" t="s">
+      <c r="B109" s="63" t="s">
         <v>17</v>
       </c>
       <c r="C109" s="19" t="s">
@@ -2600,21 +2567,21 @@
       <c r="A110" s="19">
         <v>23</v>
       </c>
-      <c r="B110" s="65" t="s">
+      <c r="B110" s="63" t="s">
         <v>17</v>
       </c>
       <c r="C110" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D110" s="19" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="19">
         <v>23</v>
       </c>
-      <c r="B111" s="65" t="s">
+      <c r="B111" s="63" t="s">
         <v>17</v>
       </c>
       <c r="C111" s="19" t="s">
@@ -2628,7 +2595,7 @@
       <c r="A112" s="5">
         <v>23</v>
       </c>
-      <c r="B112" s="66" t="s">
+      <c r="B112" s="64" t="s">
         <v>17</v>
       </c>
       <c r="C112" s="5" t="s">
@@ -2642,7 +2609,7 @@
       <c r="A113" s="5">
         <v>23</v>
       </c>
-      <c r="B113" s="66" t="s">
+      <c r="B113" s="64" t="s">
         <v>17</v>
       </c>
       <c r="C113" s="5" t="s">
@@ -2656,7 +2623,7 @@
       <c r="A114" s="5">
         <v>23</v>
       </c>
-      <c r="B114" s="66" t="s">
+      <c r="B114" s="64" t="s">
         <v>17</v>
       </c>
       <c r="C114" s="5" t="s">
@@ -2670,7 +2637,7 @@
       <c r="A115" s="5">
         <v>23</v>
       </c>
-      <c r="B115" s="66" t="s">
+      <c r="B115" s="64" t="s">
         <v>17</v>
       </c>
       <c r="C115" s="5" t="s">
@@ -2684,7 +2651,7 @@
       <c r="A116" s="5">
         <v>23</v>
       </c>
-      <c r="B116" s="66" t="s">
+      <c r="B116" s="64" t="s">
         <v>17</v>
       </c>
       <c r="C116" s="5" t="s">
@@ -2698,7 +2665,7 @@
       <c r="A117" s="6">
         <v>23</v>
       </c>
-      <c r="B117" s="67" t="s">
+      <c r="B117" s="65" t="s">
         <v>18</v>
       </c>
       <c r="C117" s="6" t="s">
@@ -2712,7 +2679,7 @@
       <c r="A118" s="6">
         <v>23</v>
       </c>
-      <c r="B118" s="67" t="s">
+      <c r="B118" s="65" t="s">
         <v>18</v>
       </c>
       <c r="C118" s="6" t="s">
@@ -2726,7 +2693,7 @@
       <c r="A119" s="6">
         <v>23</v>
       </c>
-      <c r="B119" s="67" t="s">
+      <c r="B119" s="65" t="s">
         <v>18</v>
       </c>
       <c r="C119" s="6" t="s">
@@ -2740,7 +2707,7 @@
       <c r="A120" s="6">
         <v>23</v>
       </c>
-      <c r="B120" s="67" t="s">
+      <c r="B120" s="65" t="s">
         <v>18</v>
       </c>
       <c r="C120" s="6" t="s">
@@ -2754,7 +2721,7 @@
       <c r="A121" s="6">
         <v>23</v>
       </c>
-      <c r="B121" s="67" t="s">
+      <c r="B121" s="65" t="s">
         <v>18</v>
       </c>
       <c r="C121" s="6" t="s">
@@ -2765,212 +2732,212 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A122" s="41">
+      <c r="A122" s="39">
         <v>23</v>
       </c>
-      <c r="B122" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="C122" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="D122" s="41" t="s">
+      <c r="B122" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C122" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" s="39" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A123" s="41">
+      <c r="A123" s="39">
         <v>23</v>
       </c>
-      <c r="B123" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="C123" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="D123" s="41" t="s">
+      <c r="B123" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C123" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D123" s="39" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A124" s="41">
+      <c r="A124" s="39">
         <v>23</v>
       </c>
-      <c r="B124" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="C124" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="D124" s="41" t="s">
+      <c r="B124" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C124" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D124" s="39" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A125" s="41">
+      <c r="A125" s="39">
         <v>23</v>
       </c>
-      <c r="B125" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="C125" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="D125" s="41" t="s">
+      <c r="B125" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C125" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" s="39" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A126" s="41">
+      <c r="A126" s="39">
         <v>23</v>
       </c>
-      <c r="B126" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="C126" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D126" s="41" t="s">
+      <c r="B126" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C126" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D126" s="39" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A127" s="42">
+      <c r="A127" s="40">
         <v>23</v>
       </c>
-      <c r="B127" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="C127" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="D127" s="42" t="s">
+      <c r="B127" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="C127" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" s="40" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A128" s="42">
+      <c r="A128" s="40">
         <v>23</v>
       </c>
-      <c r="B128" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="C128" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D128" s="42" t="s">
+      <c r="B128" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="C128" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D128" s="40" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A129" s="42">
+      <c r="A129" s="40">
         <v>23</v>
       </c>
-      <c r="B129" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="C129" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D129" s="42" t="s">
+      <c r="B129" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="C129" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D129" s="40" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A130" s="42">
+      <c r="A130" s="40">
         <v>23</v>
       </c>
-      <c r="B130" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="C130" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="D130" s="42" t="s">
+      <c r="B130" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="C130" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D130" s="40" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A131" s="42">
+      <c r="A131" s="40">
         <v>23</v>
       </c>
-      <c r="B131" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="C131" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D131" s="42" t="s">
-        <v>9</v>
+      <c r="B131" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="C131" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D131" s="40" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A132" s="95">
+      <c r="A132" s="91">
         <v>24</v>
       </c>
-      <c r="B132" s="99" t="s">
-        <v>17</v>
-      </c>
-      <c r="C132" s="95" t="s">
-        <v>12</v>
-      </c>
-      <c r="D132" s="95" t="s">
+      <c r="B132" s="95" t="s">
+        <v>17</v>
+      </c>
+      <c r="C132" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" s="91" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A133" s="95">
+      <c r="A133" s="91">
         <v>24</v>
       </c>
-      <c r="B133" s="99" t="s">
-        <v>17</v>
-      </c>
-      <c r="C133" s="95" t="s">
-        <v>13</v>
-      </c>
-      <c r="D133" s="95" t="s">
+      <c r="B133" s="95" t="s">
+        <v>17</v>
+      </c>
+      <c r="C133" s="91" t="s">
+        <v>13</v>
+      </c>
+      <c r="D133" s="91" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A134" s="95">
+      <c r="A134" s="91">
         <v>24</v>
       </c>
-      <c r="B134" s="99" t="s">
-        <v>17</v>
-      </c>
-      <c r="C134" s="95" t="s">
-        <v>14</v>
-      </c>
-      <c r="D134" s="95" t="s">
+      <c r="B134" s="95" t="s">
+        <v>17</v>
+      </c>
+      <c r="C134" s="91" t="s">
+        <v>14</v>
+      </c>
+      <c r="D134" s="91" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A135" s="95">
+      <c r="A135" s="91">
         <v>24</v>
       </c>
-      <c r="B135" s="99" t="s">
-        <v>17</v>
-      </c>
-      <c r="C135" s="95" t="s">
-        <v>15</v>
-      </c>
-      <c r="D135" s="95" t="s">
+      <c r="B135" s="95" t="s">
+        <v>17</v>
+      </c>
+      <c r="C135" s="91" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135" s="91" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A136" s="95">
+      <c r="A136" s="91">
         <v>24</v>
       </c>
-      <c r="B136" s="99" t="s">
-        <v>17</v>
-      </c>
-      <c r="C136" s="95" t="s">
-        <v>16</v>
-      </c>
-      <c r="D136" s="95" t="s">
+      <c r="B136" s="95" t="s">
+        <v>17</v>
+      </c>
+      <c r="C136" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="D136" s="91" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2978,7 +2945,7 @@
       <c r="A137" s="9">
         <v>24</v>
       </c>
-      <c r="B137" s="70" t="s">
+      <c r="B137" s="68" t="s">
         <v>17</v>
       </c>
       <c r="C137" s="9" t="s">
@@ -2992,7 +2959,7 @@
       <c r="A138" s="9">
         <v>24</v>
       </c>
-      <c r="B138" s="70" t="s">
+      <c r="B138" s="68" t="s">
         <v>17</v>
       </c>
       <c r="C138" s="9" t="s">
@@ -3006,7 +2973,7 @@
       <c r="A139" s="9">
         <v>24</v>
       </c>
-      <c r="B139" s="70" t="s">
+      <c r="B139" s="68" t="s">
         <v>17</v>
       </c>
       <c r="C139" s="9" t="s">
@@ -3020,7 +2987,7 @@
       <c r="A140" s="9">
         <v>24</v>
       </c>
-      <c r="B140" s="70" t="s">
+      <c r="B140" s="68" t="s">
         <v>17</v>
       </c>
       <c r="C140" s="9" t="s">
@@ -3034,7 +3001,7 @@
       <c r="A141" s="9">
         <v>24</v>
       </c>
-      <c r="B141" s="70" t="s">
+      <c r="B141" s="68" t="s">
         <v>17</v>
       </c>
       <c r="C141" s="9" t="s">
@@ -3048,7 +3015,7 @@
       <c r="A142" s="11">
         <v>24</v>
       </c>
-      <c r="B142" s="71" t="s">
+      <c r="B142" s="69" t="s">
         <v>18</v>
       </c>
       <c r="C142" s="11" t="s">
@@ -3062,7 +3029,7 @@
       <c r="A143" s="11">
         <v>24</v>
       </c>
-      <c r="B143" s="71" t="s">
+      <c r="B143" s="69" t="s">
         <v>18</v>
       </c>
       <c r="C143" s="11" t="s">
@@ -3076,7 +3043,7 @@
       <c r="A144" s="11">
         <v>24</v>
       </c>
-      <c r="B144" s="71" t="s">
+      <c r="B144" s="69" t="s">
         <v>18</v>
       </c>
       <c r="C144" s="11" t="s">
@@ -3090,35 +3057,35 @@
       <c r="A145" s="11">
         <v>24</v>
       </c>
-      <c r="B145" s="71" t="s">
+      <c r="B145" s="69" t="s">
         <v>18</v>
       </c>
       <c r="C145" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D145" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="11">
         <v>24</v>
       </c>
-      <c r="B146" s="71" t="s">
+      <c r="B146" s="69" t="s">
         <v>18</v>
       </c>
       <c r="C146" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="10">
         <v>24</v>
       </c>
-      <c r="B147" s="72" t="s">
+      <c r="B147" s="70" t="s">
         <v>18</v>
       </c>
       <c r="C147" s="10" t="s">
@@ -3132,7 +3099,7 @@
       <c r="A148" s="10">
         <v>24</v>
       </c>
-      <c r="B148" s="72" t="s">
+      <c r="B148" s="70" t="s">
         <v>18</v>
       </c>
       <c r="C148" s="10" t="s">
@@ -3146,7 +3113,7 @@
       <c r="A149" s="10">
         <v>24</v>
       </c>
-      <c r="B149" s="72" t="s">
+      <c r="B149" s="70" t="s">
         <v>18</v>
       </c>
       <c r="C149" s="10" t="s">
@@ -3160,7 +3127,7 @@
       <c r="A150" s="10">
         <v>24</v>
       </c>
-      <c r="B150" s="72" t="s">
+      <c r="B150" s="70" t="s">
         <v>18</v>
       </c>
       <c r="C150" s="10" t="s">
@@ -3174,7 +3141,7 @@
       <c r="A151" s="10">
         <v>24</v>
       </c>
-      <c r="B151" s="72" t="s">
+      <c r="B151" s="70" t="s">
         <v>18</v>
       </c>
       <c r="C151" s="10" t="s">
@@ -3185,212 +3152,212 @@
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A152" s="43">
+      <c r="A152" s="41">
         <v>24</v>
       </c>
-      <c r="B152" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="C152" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="D152" s="43" t="s">
+      <c r="B152" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="C152" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="D152" s="41" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A153" s="43">
+      <c r="A153" s="41">
         <v>24</v>
       </c>
-      <c r="B153" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="C153" s="86" t="s">
-        <v>13</v>
-      </c>
-      <c r="D153" s="43" t="s">
+      <c r="B153" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="C153" s="82" t="s">
+        <v>13</v>
+      </c>
+      <c r="D153" s="41" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A154" s="43">
+      <c r="A154" s="41">
         <v>24</v>
       </c>
-      <c r="B154" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="C154" s="86" t="s">
-        <v>14</v>
-      </c>
-      <c r="D154" s="43" t="s">
+      <c r="B154" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="C154" s="82" t="s">
+        <v>14</v>
+      </c>
+      <c r="D154" s="41" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A155" s="43">
+      <c r="A155" s="41">
         <v>24</v>
       </c>
-      <c r="B155" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="C155" s="86" t="s">
-        <v>15</v>
-      </c>
-      <c r="D155" s="43" t="s">
+      <c r="B155" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="C155" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D155" s="41" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A156" s="43">
+      <c r="A156" s="41">
         <v>24</v>
       </c>
-      <c r="B156" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="C156" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="D156" s="43" t="s">
+      <c r="B156" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="C156" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="D156" s="41" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A157" s="44">
+      <c r="A157" s="42">
         <v>24</v>
       </c>
-      <c r="B157" s="74" t="s">
-        <v>18</v>
-      </c>
-      <c r="C157" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="D157" s="44" t="s">
+      <c r="B157" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="C157" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="D157" s="42" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A158" s="44">
+      <c r="A158" s="42">
         <v>24</v>
       </c>
-      <c r="B158" s="74" t="s">
-        <v>18</v>
-      </c>
-      <c r="C158" s="86" t="s">
-        <v>13</v>
-      </c>
-      <c r="D158" s="44" t="s">
+      <c r="B158" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="C158" s="82" t="s">
+        <v>13</v>
+      </c>
+      <c r="D158" s="42" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A159" s="44">
+      <c r="A159" s="42">
         <v>24</v>
       </c>
-      <c r="B159" s="74" t="s">
-        <v>18</v>
-      </c>
-      <c r="C159" s="86" t="s">
-        <v>14</v>
-      </c>
-      <c r="D159" s="44" t="s">
-        <v>8</v>
+      <c r="B159" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="C159" s="82" t="s">
+        <v>14</v>
+      </c>
+      <c r="D159" s="42" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A160" s="44">
+      <c r="A160" s="42">
         <v>24</v>
       </c>
-      <c r="B160" s="74" t="s">
-        <v>18</v>
-      </c>
-      <c r="C160" s="86" t="s">
-        <v>15</v>
-      </c>
-      <c r="D160" s="44" t="s">
-        <v>8</v>
+      <c r="B160" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="C160" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D160" s="42" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A161" s="44">
+      <c r="A161" s="42">
         <v>24</v>
       </c>
-      <c r="B161" s="74" t="s">
-        <v>18</v>
-      </c>
-      <c r="C161" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="D161" s="44" t="s">
+      <c r="B161" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="C161" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="D161" s="42" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A162" s="36">
+      <c r="A162" s="34">
         <v>25</v>
       </c>
-      <c r="B162" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="C162" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="D162" s="36" t="s">
+      <c r="B162" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="C162" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="D162" s="34" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A163" s="36">
+      <c r="A163" s="34">
         <v>25</v>
       </c>
-      <c r="B163" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="C163" s="86" t="s">
-        <v>13</v>
-      </c>
-      <c r="D163" s="36" t="s">
+      <c r="B163" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="C163" s="82" t="s">
+        <v>13</v>
+      </c>
+      <c r="D163" s="34" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A164" s="36">
+      <c r="A164" s="34">
         <v>25</v>
       </c>
-      <c r="B164" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="C164" s="86" t="s">
-        <v>14</v>
-      </c>
-      <c r="D164" s="36" t="s">
+      <c r="B164" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="C164" s="82" t="s">
+        <v>14</v>
+      </c>
+      <c r="D164" s="34" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A165" s="36">
+      <c r="A165" s="34">
         <v>25</v>
       </c>
-      <c r="B165" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="C165" s="86" t="s">
-        <v>15</v>
-      </c>
-      <c r="D165" s="36" t="s">
+      <c r="B165" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="C165" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D165" s="34" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A166" s="36">
+      <c r="A166" s="34">
         <v>25</v>
       </c>
-      <c r="B166" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="C166" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="D166" s="36" t="s">
+      <c r="B166" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="C166" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="D166" s="34" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3398,10 +3365,10 @@
       <c r="A167" s="21">
         <v>25</v>
       </c>
-      <c r="B167" s="76" t="s">
-        <v>17</v>
-      </c>
-      <c r="C167" s="86" t="s">
+      <c r="B167" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="C167" s="82" t="s">
         <v>12</v>
       </c>
       <c r="D167" s="21" t="s">
@@ -3412,10 +3379,10 @@
       <c r="A168" s="21">
         <v>25</v>
       </c>
-      <c r="B168" s="76" t="s">
-        <v>17</v>
-      </c>
-      <c r="C168" s="86" t="s">
+      <c r="B168" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="C168" s="82" t="s">
         <v>13</v>
       </c>
       <c r="D168" s="21" t="s">
@@ -3426,10 +3393,10 @@
       <c r="A169" s="21">
         <v>25</v>
       </c>
-      <c r="B169" s="76" t="s">
-        <v>17</v>
-      </c>
-      <c r="C169" s="86" t="s">
+      <c r="B169" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="C169" s="82" t="s">
         <v>14</v>
       </c>
       <c r="D169" s="21" t="s">
@@ -3440,10 +3407,10 @@
       <c r="A170" s="21">
         <v>25</v>
       </c>
-      <c r="B170" s="76" t="s">
-        <v>17</v>
-      </c>
-      <c r="C170" s="86" t="s">
+      <c r="B170" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="C170" s="82" t="s">
         <v>15</v>
       </c>
       <c r="D170" s="21" t="s">
@@ -3454,10 +3421,10 @@
       <c r="A171" s="21">
         <v>25</v>
       </c>
-      <c r="B171" s="76" t="s">
-        <v>17</v>
-      </c>
-      <c r="C171" s="86" t="s">
+      <c r="B171" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="C171" s="82" t="s">
         <v>16</v>
       </c>
       <c r="D171" s="21" t="s">
@@ -3468,10 +3435,10 @@
       <c r="A172" s="23">
         <v>25</v>
       </c>
-      <c r="B172" s="77" t="s">
-        <v>18</v>
-      </c>
-      <c r="C172" s="86" t="s">
+      <c r="B172" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="C172" s="82" t="s">
         <v>12</v>
       </c>
       <c r="D172" s="23" t="s">
@@ -3482,38 +3449,38 @@
       <c r="A173" s="23">
         <v>25</v>
       </c>
-      <c r="B173" s="77" t="s">
-        <v>18</v>
-      </c>
-      <c r="C173" s="86" t="s">
+      <c r="B173" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="C173" s="82" t="s">
         <v>13</v>
       </c>
       <c r="D173" s="23" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" s="23">
         <v>25</v>
       </c>
-      <c r="B174" s="77" t="s">
-        <v>18</v>
-      </c>
-      <c r="C174" s="86" t="s">
+      <c r="B174" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="C174" s="82" t="s">
         <v>14</v>
       </c>
       <c r="D174" s="23" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" s="23">
         <v>25</v>
       </c>
-      <c r="B175" s="77" t="s">
-        <v>18</v>
-      </c>
-      <c r="C175" s="86" t="s">
+      <c r="B175" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="C175" s="82" t="s">
         <v>15</v>
       </c>
       <c r="D175" s="23" t="s">
@@ -3524,153 +3491,153 @@
       <c r="A176" s="23">
         <v>25</v>
       </c>
-      <c r="B176" s="77" t="s">
-        <v>18</v>
-      </c>
-      <c r="C176" s="86" t="s">
+      <c r="B176" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="C176" s="82" t="s">
         <v>16</v>
       </c>
       <c r="D176" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A177" s="2">
+        <v>27</v>
+      </c>
+      <c r="B177" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A178" s="2">
+        <v>27</v>
+      </c>
+      <c r="B178" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A179" s="2">
+        <v>27</v>
+      </c>
+      <c r="B179" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A180" s="2">
+        <v>27</v>
+      </c>
+      <c r="B180" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A181" s="2">
+        <v>27</v>
+      </c>
+      <c r="B181" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D181" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A177" s="25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A182" s="111">
         <v>27</v>
       </c>
-      <c r="B177" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="C177" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="D177" s="25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A178" s="25">
+      <c r="B182" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C182" s="111" t="s">
+        <v>12</v>
+      </c>
+      <c r="D182" s="111" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A183" s="111">
         <v>27</v>
       </c>
-      <c r="B178" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="C178" s="86" t="s">
-        <v>13</v>
-      </c>
-      <c r="D178" s="25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A179" s="25">
+      <c r="B183" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C183" s="111" t="s">
+        <v>13</v>
+      </c>
+      <c r="D183" s="111" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A184" s="111">
         <v>27</v>
       </c>
-      <c r="B179" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="C179" s="86" t="s">
-        <v>14</v>
-      </c>
-      <c r="D179" s="25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A180" s="25">
+      <c r="B184" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C184" s="111" t="s">
+        <v>14</v>
+      </c>
+      <c r="D184" s="111" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A185" s="111">
         <v>27</v>
       </c>
-      <c r="B180" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="C180" s="86" t="s">
-        <v>15</v>
-      </c>
-      <c r="D180" s="25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A181" s="25">
+      <c r="B185" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C185" s="111" t="s">
+        <v>15</v>
+      </c>
+      <c r="D185" s="111" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A186" s="111">
         <v>27</v>
       </c>
-      <c r="B181" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="C181" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="D181" s="25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A182" s="30">
-        <v>27</v>
-      </c>
-      <c r="B182" s="79" t="s">
-        <v>18</v>
-      </c>
-      <c r="C182" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="D182" s="30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A183" s="30">
-        <v>27</v>
-      </c>
-      <c r="B183" s="79" t="s">
-        <v>18</v>
-      </c>
-      <c r="C183" s="86" t="s">
-        <v>13</v>
-      </c>
-      <c r="D183" s="30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A184" s="30">
-        <v>27</v>
-      </c>
-      <c r="B184" s="79" t="s">
-        <v>18</v>
-      </c>
-      <c r="C184" s="86" t="s">
-        <v>14</v>
-      </c>
-      <c r="D184" s="30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A185" s="30">
-        <v>27</v>
-      </c>
-      <c r="B185" s="79" t="s">
-        <v>18</v>
-      </c>
-      <c r="C185" s="86" t="s">
-        <v>15</v>
-      </c>
-      <c r="D185" s="30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A186" s="30">
-        <v>27</v>
-      </c>
-      <c r="B186" s="79" t="s">
-        <v>18</v>
-      </c>
-      <c r="C186" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="D186" s="30" t="s">
+      <c r="B186" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C186" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="D186" s="111" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3678,7 +3645,7 @@
       <c r="A187" s="20">
         <v>28</v>
       </c>
-      <c r="B187" s="80" t="s">
+      <c r="B187" s="76" t="s">
         <v>17</v>
       </c>
       <c r="C187" s="20" t="s">
@@ -3692,7 +3659,7 @@
       <c r="A188" s="20">
         <v>28</v>
       </c>
-      <c r="B188" s="80" t="s">
+      <c r="B188" s="76" t="s">
         <v>17</v>
       </c>
       <c r="C188" s="20" t="s">
@@ -3706,7 +3673,7 @@
       <c r="A189" s="20">
         <v>28</v>
       </c>
-      <c r="B189" s="80" t="s">
+      <c r="B189" s="76" t="s">
         <v>17</v>
       </c>
       <c r="C189" s="20" t="s">
@@ -3720,7 +3687,7 @@
       <c r="A190" s="20">
         <v>28</v>
       </c>
-      <c r="B190" s="80" t="s">
+      <c r="B190" s="76" t="s">
         <v>17</v>
       </c>
       <c r="C190" s="20" t="s">
@@ -3734,7 +3701,7 @@
       <c r="A191" s="20">
         <v>28</v>
       </c>
-      <c r="B191" s="80" t="s">
+      <c r="B191" s="76" t="s">
         <v>17</v>
       </c>
       <c r="C191" s="20" t="s">
@@ -3745,72 +3712,72 @@
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A192" s="45">
+      <c r="A192" s="43">
         <v>28</v>
       </c>
-      <c r="B192" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="C192" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="D192" s="45" t="s">
+      <c r="B192" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="C192" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D192" s="43" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A193" s="45">
+      <c r="A193" s="43">
         <v>28</v>
       </c>
-      <c r="B193" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="C193" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="D193" s="45" t="s">
+      <c r="B193" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="C193" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D193" s="43" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A194" s="45">
+      <c r="A194" s="43">
         <v>28</v>
       </c>
-      <c r="B194" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="C194" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="D194" s="45" t="s">
+      <c r="B194" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="C194" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D194" s="43" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A195" s="45">
+      <c r="A195" s="43">
         <v>28</v>
       </c>
-      <c r="B195" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="C195" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="D195" s="45" t="s">
+      <c r="B195" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="C195" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D195" s="43" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A196" s="45">
+      <c r="A196" s="43">
         <v>28</v>
       </c>
-      <c r="B196" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="C196" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="D196" s="45" t="s">
+      <c r="B196" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="C196" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D196" s="43" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3818,10 +3785,10 @@
       <c r="A197" s="20">
         <v>29</v>
       </c>
-      <c r="B197" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="C197" s="86" t="s">
+      <c r="B197" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="C197" s="82" t="s">
         <v>12</v>
       </c>
       <c r="D197" s="20" t="s">
@@ -3832,10 +3799,10 @@
       <c r="A198" s="20">
         <v>29</v>
       </c>
-      <c r="B198" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="C198" s="86" t="s">
+      <c r="B198" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="C198" s="82" t="s">
         <v>13</v>
       </c>
       <c r="D198" s="20" t="s">
@@ -3846,10 +3813,10 @@
       <c r="A199" s="20">
         <v>29</v>
       </c>
-      <c r="B199" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="C199" s="86" t="s">
+      <c r="B199" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="C199" s="82" t="s">
         <v>14</v>
       </c>
       <c r="D199" s="20" t="s">
@@ -3860,10 +3827,10 @@
       <c r="A200" s="20">
         <v>29</v>
       </c>
-      <c r="B200" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="C200" s="86" t="s">
+      <c r="B200" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="C200" s="82" t="s">
         <v>15</v>
       </c>
       <c r="D200" s="20" t="s">
@@ -3874,10 +3841,10 @@
       <c r="A201" s="20">
         <v>29</v>
       </c>
-      <c r="B201" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="C201" s="86" t="s">
+      <c r="B201" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="C201" s="82" t="s">
         <v>16</v>
       </c>
       <c r="D201" s="20" t="s">
@@ -3885,142 +3852,142 @@
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A202" s="45">
+      <c r="A202" s="43">
         <v>29</v>
       </c>
-      <c r="B202" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="C202" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="D202" s="45" t="s">
+      <c r="B202" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="C202" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="D202" s="43" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A203" s="45">
+      <c r="A203" s="43">
         <v>29</v>
       </c>
-      <c r="B203" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="C203" s="86" t="s">
-        <v>13</v>
-      </c>
-      <c r="D203" s="45" t="s">
-        <v>9</v>
+      <c r="B203" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="C203" s="82" t="s">
+        <v>13</v>
+      </c>
+      <c r="D203" s="43" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A204" s="45">
+      <c r="A204" s="43">
         <v>29</v>
       </c>
-      <c r="B204" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="C204" s="86" t="s">
-        <v>14</v>
-      </c>
-      <c r="D204" s="45" t="s">
+      <c r="B204" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="C204" s="82" t="s">
+        <v>14</v>
+      </c>
+      <c r="D204" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A205" s="45">
+      <c r="A205" s="43">
         <v>29</v>
       </c>
-      <c r="B205" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="C205" s="86" t="s">
-        <v>15</v>
-      </c>
-      <c r="D205" s="45" t="s">
-        <v>9</v>
+      <c r="B205" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="C205" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D205" s="43" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A206" s="45">
+      <c r="A206" s="43">
         <v>29</v>
       </c>
-      <c r="B206" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="C206" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="D206" s="45" t="s">
+      <c r="B206" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="C206" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="D206" s="43" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A207" s="92">
+      <c r="A207" s="88">
         <v>30</v>
       </c>
-      <c r="B207" s="100" t="s">
-        <v>18</v>
-      </c>
-      <c r="C207" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="D207" s="92" t="s">
+      <c r="B207" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="C207" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="D207" s="88" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A208" s="92">
+      <c r="A208" s="88">
         <v>30</v>
       </c>
-      <c r="B208" s="100" t="s">
-        <v>18</v>
-      </c>
-      <c r="C208" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="D208" s="92" t="s">
+      <c r="B208" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="C208" s="88" t="s">
+        <v>13</v>
+      </c>
+      <c r="D208" s="88" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A209" s="92">
+      <c r="A209" s="88">
         <v>30</v>
       </c>
-      <c r="B209" s="100" t="s">
-        <v>18</v>
-      </c>
-      <c r="C209" s="92" t="s">
-        <v>14</v>
-      </c>
-      <c r="D209" s="92" t="s">
+      <c r="B209" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="C209" s="88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D209" s="88" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A210" s="92">
+      <c r="A210" s="88">
         <v>30</v>
       </c>
-      <c r="B210" s="100" t="s">
-        <v>18</v>
-      </c>
-      <c r="C210" s="92" t="s">
-        <v>15</v>
-      </c>
-      <c r="D210" s="92" t="s">
+      <c r="B210" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="C210" s="88" t="s">
+        <v>15</v>
+      </c>
+      <c r="D210" s="88" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A211" s="92">
+      <c r="A211" s="88">
         <v>30</v>
       </c>
-      <c r="B211" s="100" t="s">
-        <v>18</v>
-      </c>
-      <c r="C211" s="92" t="s">
-        <v>16</v>
-      </c>
-      <c r="D211" s="92" t="s">
+      <c r="B211" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="C211" s="88" t="s">
+        <v>16</v>
+      </c>
+      <c r="D211" s="88" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4028,7 +3995,7 @@
       <c r="A212" s="22">
         <v>31</v>
       </c>
-      <c r="B212" s="82" t="s">
+      <c r="B212" s="78" t="s">
         <v>17</v>
       </c>
       <c r="C212" s="22" t="s">
@@ -4042,7 +4009,7 @@
       <c r="A213" s="22">
         <v>31</v>
       </c>
-      <c r="B213" s="82" t="s">
+      <c r="B213" s="78" t="s">
         <v>17</v>
       </c>
       <c r="C213" s="22" t="s">
@@ -4056,7 +4023,7 @@
       <c r="A214" s="22">
         <v>31</v>
       </c>
-      <c r="B214" s="82" t="s">
+      <c r="B214" s="78" t="s">
         <v>17</v>
       </c>
       <c r="C214" s="22" t="s">
@@ -4070,7 +4037,7 @@
       <c r="A215" s="22">
         <v>31</v>
       </c>
-      <c r="B215" s="82" t="s">
+      <c r="B215" s="78" t="s">
         <v>17</v>
       </c>
       <c r="C215" s="22" t="s">
@@ -4084,7 +4051,7 @@
       <c r="A216" s="22">
         <v>31</v>
       </c>
-      <c r="B216" s="82" t="s">
+      <c r="B216" s="78" t="s">
         <v>17</v>
       </c>
       <c r="C216" s="22" t="s">
@@ -4095,80 +4062,80 @@
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A217" s="37">
+      <c r="A217" s="35">
         <v>32</v>
       </c>
-      <c r="B217" s="83" t="s">
-        <v>17</v>
-      </c>
-      <c r="C217" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="D217" s="37" t="s">
+      <c r="B217" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="C217" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D217" s="35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A218" s="35">
+        <v>32</v>
+      </c>
+      <c r="B218" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="C218" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D218" s="35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A219" s="35">
+        <v>32</v>
+      </c>
+      <c r="B219" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="C219" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D219" s="35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A220" s="35">
+        <v>32</v>
+      </c>
+      <c r="B220" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="C220" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D220" s="35" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A218" s="37">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A221" s="35">
         <v>32</v>
       </c>
-      <c r="B218" s="83" t="s">
-        <v>17</v>
-      </c>
-      <c r="C218" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="D218" s="37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A219" s="37">
-        <v>32</v>
-      </c>
-      <c r="B219" s="83" t="s">
-        <v>17</v>
-      </c>
-      <c r="C219" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D219" s="37" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A220" s="37">
-        <v>32</v>
-      </c>
-      <c r="B220" s="83" t="s">
-        <v>17</v>
-      </c>
-      <c r="C220" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="D220" s="37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A221" s="37">
-        <v>32</v>
-      </c>
-      <c r="B221" s="83" t="s">
-        <v>17</v>
-      </c>
-      <c r="C221" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="D221" s="37" t="s">
-        <v>11</v>
+      <c r="B221" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="C221" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D221" s="35" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" s="24">
         <v>32</v>
       </c>
-      <c r="B222" s="84" t="s">
+      <c r="B222" s="80" t="s">
         <v>17</v>
       </c>
       <c r="C222" s="24" t="s">
@@ -4182,7 +4149,7 @@
       <c r="A223" s="24">
         <v>32</v>
       </c>
-      <c r="B223" s="84" t="s">
+      <c r="B223" s="80" t="s">
         <v>17</v>
       </c>
       <c r="C223" s="24" t="s">
@@ -4196,35 +4163,35 @@
       <c r="A224" s="24">
         <v>32</v>
       </c>
-      <c r="B224" s="84" t="s">
+      <c r="B224" s="80" t="s">
         <v>17</v>
       </c>
       <c r="C224" s="24" t="s">
         <v>14</v>
       </c>
       <c r="D224" s="24" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" s="24">
         <v>32</v>
       </c>
-      <c r="B225" s="84" t="s">
+      <c r="B225" s="80" t="s">
         <v>17</v>
       </c>
       <c r="C225" s="24" t="s">
         <v>15</v>
       </c>
       <c r="D225" s="24" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" s="24">
         <v>32</v>
       </c>
-      <c r="B226" s="84" t="s">
+      <c r="B226" s="80" t="s">
         <v>17</v>
       </c>
       <c r="C226" s="24" t="s">
@@ -4235,360 +4202,360 @@
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A227" s="96">
+      <c r="A227" s="92">
         <v>32</v>
       </c>
-      <c r="B227" s="97" t="s">
-        <v>18</v>
-      </c>
-      <c r="C227" s="96" t="s">
-        <v>12</v>
-      </c>
-      <c r="D227" s="96" t="s">
+      <c r="B227" s="93" t="s">
+        <v>18</v>
+      </c>
+      <c r="C227" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="D227" s="92" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A228" s="96">
+      <c r="A228" s="92">
         <v>32</v>
       </c>
-      <c r="B228" s="97" t="s">
-        <v>18</v>
-      </c>
-      <c r="C228" s="96" t="s">
-        <v>13</v>
-      </c>
-      <c r="D228" s="96" t="s">
+      <c r="B228" s="93" t="s">
+        <v>18</v>
+      </c>
+      <c r="C228" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="D228" s="92" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A229" s="96">
+      <c r="A229" s="92">
         <v>32</v>
       </c>
-      <c r="B229" s="97" t="s">
-        <v>18</v>
-      </c>
-      <c r="C229" s="96" t="s">
-        <v>14</v>
-      </c>
-      <c r="D229" s="96" t="s">
+      <c r="B229" s="93" t="s">
+        <v>18</v>
+      </c>
+      <c r="C229" s="92" t="s">
+        <v>14</v>
+      </c>
+      <c r="D229" s="92" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A230" s="96">
+      <c r="A230" s="92">
         <v>32</v>
       </c>
-      <c r="B230" s="97" t="s">
-        <v>18</v>
-      </c>
-      <c r="C230" s="96" t="s">
-        <v>15</v>
-      </c>
-      <c r="D230" s="96" t="s">
+      <c r="B230" s="93" t="s">
+        <v>18</v>
+      </c>
+      <c r="C230" s="92" t="s">
+        <v>15</v>
+      </c>
+      <c r="D230" s="92" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A231" s="96">
+      <c r="A231" s="92">
         <v>32</v>
       </c>
-      <c r="B231" s="97" t="s">
-        <v>18</v>
-      </c>
-      <c r="C231" s="96" t="s">
-        <v>16</v>
-      </c>
-      <c r="D231" s="96" t="s">
+      <c r="B231" s="93" t="s">
+        <v>18</v>
+      </c>
+      <c r="C231" s="92" t="s">
+        <v>16</v>
+      </c>
+      <c r="D231" s="92" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A232" s="98">
+      <c r="A232" s="94">
         <v>33</v>
       </c>
-      <c r="B232" s="101" t="s">
-        <v>17</v>
-      </c>
-      <c r="C232" s="98" t="s">
-        <v>12</v>
-      </c>
-      <c r="D232" s="98" t="s">
+      <c r="B232" s="97" t="s">
+        <v>17</v>
+      </c>
+      <c r="C232" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="D232" s="94" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A233" s="98">
+      <c r="A233" s="94">
         <v>33</v>
       </c>
-      <c r="B233" s="101" t="s">
-        <v>17</v>
-      </c>
-      <c r="C233" s="98" t="s">
-        <v>13</v>
-      </c>
-      <c r="D233" s="98" t="s">
+      <c r="B233" s="97" t="s">
+        <v>17</v>
+      </c>
+      <c r="C233" s="94" t="s">
+        <v>13</v>
+      </c>
+      <c r="D233" s="94" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A234" s="98">
+      <c r="A234" s="94">
         <v>33</v>
       </c>
-      <c r="B234" s="101" t="s">
-        <v>17</v>
-      </c>
-      <c r="C234" s="98" t="s">
-        <v>14</v>
-      </c>
-      <c r="D234" s="98" t="s">
+      <c r="B234" s="97" t="s">
+        <v>17</v>
+      </c>
+      <c r="C234" s="94" t="s">
+        <v>14</v>
+      </c>
+      <c r="D234" s="94" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A235" s="98">
+      <c r="A235" s="94">
         <v>33</v>
       </c>
-      <c r="B235" s="101" t="s">
-        <v>17</v>
-      </c>
-      <c r="C235" s="98" t="s">
-        <v>15</v>
-      </c>
-      <c r="D235" s="98" t="s">
+      <c r="B235" s="97" t="s">
+        <v>17</v>
+      </c>
+      <c r="C235" s="94" t="s">
+        <v>15</v>
+      </c>
+      <c r="D235" s="94" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A236" s="98">
+      <c r="A236" s="94">
         <v>33</v>
       </c>
-      <c r="B236" s="101" t="s">
-        <v>17</v>
-      </c>
-      <c r="C236" s="98" t="s">
-        <v>16</v>
-      </c>
-      <c r="D236" s="98" t="s">
+      <c r="B236" s="97" t="s">
+        <v>17</v>
+      </c>
+      <c r="C236" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="D236" s="94" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A237" s="94">
+      <c r="A237" s="90">
         <v>33</v>
       </c>
-      <c r="B237" s="88" t="s">
-        <v>17</v>
-      </c>
-      <c r="C237" s="94" t="s">
-        <v>12</v>
-      </c>
-      <c r="D237" s="94" t="s">
+      <c r="B237" s="84" t="s">
+        <v>17</v>
+      </c>
+      <c r="C237" s="90" t="s">
+        <v>12</v>
+      </c>
+      <c r="D237" s="90" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A238" s="94">
+      <c r="A238" s="90">
         <v>33</v>
       </c>
-      <c r="B238" s="88" t="s">
-        <v>17</v>
-      </c>
-      <c r="C238" s="94" t="s">
-        <v>13</v>
-      </c>
-      <c r="D238" s="94" t="s">
+      <c r="B238" s="84" t="s">
+        <v>17</v>
+      </c>
+      <c r="C238" s="90" t="s">
+        <v>13</v>
+      </c>
+      <c r="D238" s="90" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A239" s="94">
+      <c r="A239" s="90">
         <v>33</v>
       </c>
-      <c r="B239" s="88" t="s">
-        <v>17</v>
-      </c>
-      <c r="C239" s="94" t="s">
-        <v>14</v>
-      </c>
-      <c r="D239" s="94" t="s">
+      <c r="B239" s="84" t="s">
+        <v>17</v>
+      </c>
+      <c r="C239" s="90" t="s">
+        <v>14</v>
+      </c>
+      <c r="D239" s="90" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A240" s="94">
+      <c r="A240" s="90">
         <v>33</v>
       </c>
-      <c r="B240" s="88" t="s">
-        <v>17</v>
-      </c>
-      <c r="C240" s="94" t="s">
-        <v>15</v>
-      </c>
-      <c r="D240" s="94" t="s">
+      <c r="B240" s="84" t="s">
+        <v>17</v>
+      </c>
+      <c r="C240" s="90" t="s">
+        <v>15</v>
+      </c>
+      <c r="D240" s="90" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A241" s="94">
+      <c r="A241" s="90">
         <v>33</v>
       </c>
-      <c r="B241" s="88" t="s">
-        <v>17</v>
-      </c>
-      <c r="C241" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="D241" s="94" t="s">
+      <c r="B241" s="84" t="s">
+        <v>17</v>
+      </c>
+      <c r="C241" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="D241" s="90" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A242" s="116">
+      <c r="A242" s="104">
         <v>33</v>
       </c>
-      <c r="B242" s="117" t="s">
-        <v>17</v>
-      </c>
-      <c r="C242" s="116" t="s">
-        <v>12</v>
-      </c>
-      <c r="D242" s="116" t="s">
-        <v>5</v>
+      <c r="B242" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="C242" s="104" t="s">
+        <v>12</v>
+      </c>
+      <c r="D242" s="104" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A243" s="116">
+      <c r="A243" s="104">
         <v>33</v>
       </c>
-      <c r="B243" s="117" t="s">
-        <v>17</v>
-      </c>
-      <c r="C243" s="116" t="s">
-        <v>13</v>
-      </c>
-      <c r="D243" s="116" t="s">
+      <c r="B243" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="C243" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="D243" s="104" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A244" s="116">
+      <c r="A244" s="104">
         <v>33</v>
       </c>
-      <c r="B244" s="117" t="s">
-        <v>17</v>
-      </c>
-      <c r="C244" s="116" t="s">
-        <v>14</v>
-      </c>
-      <c r="D244" s="116" t="s">
+      <c r="B244" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="C244" s="104" t="s">
+        <v>14</v>
+      </c>
+      <c r="D244" s="104" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A245" s="116">
+      <c r="A245" s="104">
         <v>33</v>
       </c>
-      <c r="B245" s="117" t="s">
-        <v>17</v>
-      </c>
-      <c r="C245" s="116" t="s">
-        <v>15</v>
-      </c>
-      <c r="D245" s="116" t="s">
+      <c r="B245" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="C245" s="104" t="s">
+        <v>15</v>
+      </c>
+      <c r="D245" s="104" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A246" s="116">
+      <c r="A246" s="104">
         <v>33</v>
       </c>
-      <c r="B246" s="117" t="s">
-        <v>17</v>
-      </c>
-      <c r="C246" s="116" t="s">
-        <v>16</v>
-      </c>
-      <c r="D246" s="116" t="s">
+      <c r="B246" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="C246" s="104" t="s">
+        <v>16</v>
+      </c>
+      <c r="D246" s="104" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A247" s="93">
+      <c r="A247" s="89">
         <v>33</v>
       </c>
-      <c r="B247" s="93" t="s">
-        <v>17</v>
-      </c>
-      <c r="C247" s="93" t="s">
-        <v>12</v>
-      </c>
-      <c r="D247" s="93" t="s">
+      <c r="B247" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="C247" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="D247" s="89" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A248" s="93">
+      <c r="A248" s="89">
         <v>33</v>
       </c>
-      <c r="B248" s="93" t="s">
-        <v>17</v>
-      </c>
-      <c r="C248" s="93" t="s">
-        <v>13</v>
-      </c>
-      <c r="D248" s="93" t="s">
-        <v>7</v>
+      <c r="B248" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="C248" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="D248" s="89" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A249" s="93">
+      <c r="A249" s="89">
         <v>33</v>
       </c>
-      <c r="B249" s="93" t="s">
-        <v>17</v>
-      </c>
-      <c r="C249" s="93" t="s">
-        <v>14</v>
-      </c>
-      <c r="D249" s="93" t="s">
-        <v>10</v>
+      <c r="B249" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="C249" s="89" t="s">
+        <v>14</v>
+      </c>
+      <c r="D249" s="89" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A250" s="93">
+      <c r="A250" s="89">
         <v>33</v>
       </c>
-      <c r="B250" s="93" t="s">
-        <v>17</v>
-      </c>
-      <c r="C250" s="93" t="s">
-        <v>15</v>
-      </c>
-      <c r="D250" s="93" t="s">
+      <c r="B250" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="C250" s="89" t="s">
+        <v>15</v>
+      </c>
+      <c r="D250" s="89" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A251" s="93">
+      <c r="A251" s="89">
         <v>33</v>
       </c>
-      <c r="B251" s="93" t="s">
-        <v>17</v>
-      </c>
-      <c r="C251" s="93" t="s">
-        <v>16</v>
-      </c>
-      <c r="D251" s="93" t="s">
-        <v>11</v>
+      <c r="B251" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="C251" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D251" s="89" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A252" s="4">
         <v>34</v>
       </c>
-      <c r="B252" s="51" t="s">
+      <c r="B252" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C252" s="4" t="s">
@@ -4602,7 +4569,7 @@
       <c r="A253" s="4">
         <v>34</v>
       </c>
-      <c r="B253" s="51" t="s">
+      <c r="B253" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C253" s="4" t="s">
@@ -4616,7 +4583,7 @@
       <c r="A254" s="4">
         <v>34</v>
       </c>
-      <c r="B254" s="51" t="s">
+      <c r="B254" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C254" s="4" t="s">
@@ -4630,97 +4597,97 @@
       <c r="A255" s="4">
         <v>34</v>
       </c>
-      <c r="B255" s="51" t="s">
+      <c r="B255" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C255" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A256" s="4">
         <v>34</v>
       </c>
-      <c r="B256" s="51" t="s">
+      <c r="B256" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C256" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A257" s="89">
+      <c r="A257" s="85">
         <v>34</v>
       </c>
-      <c r="B257" s="90" t="s">
-        <v>18</v>
-      </c>
-      <c r="C257" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="D257" s="89" t="s">
+      <c r="B257" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="C257" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="D257" s="85" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A258" s="89">
+      <c r="A258" s="85">
         <v>34</v>
       </c>
-      <c r="B258" s="90" t="s">
-        <v>18</v>
-      </c>
-      <c r="C258" s="89" t="s">
-        <v>13</v>
-      </c>
-      <c r="D258" s="89" t="s">
-        <v>6</v>
+      <c r="B258" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="C258" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D258" s="85" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A259" s="89">
+      <c r="A259" s="85">
         <v>34</v>
       </c>
-      <c r="B259" s="90" t="s">
-        <v>18</v>
-      </c>
-      <c r="C259" s="89" t="s">
-        <v>14</v>
-      </c>
-      <c r="D259" s="89" t="s">
+      <c r="B259" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="C259" s="85" t="s">
+        <v>14</v>
+      </c>
+      <c r="D259" s="85" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A260" s="89">
+      <c r="A260" s="85">
         <v>34</v>
       </c>
-      <c r="B260" s="90" t="s">
-        <v>18</v>
-      </c>
-      <c r="C260" s="89" t="s">
-        <v>15</v>
-      </c>
-      <c r="D260" s="89" t="s">
+      <c r="B260" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="C260" s="85" t="s">
+        <v>15</v>
+      </c>
+      <c r="D260" s="85" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A261" s="89">
+      <c r="A261" s="85">
         <v>34</v>
       </c>
-      <c r="B261" s="90" t="s">
-        <v>18</v>
-      </c>
-      <c r="C261" s="89" t="s">
-        <v>16</v>
-      </c>
-      <c r="D261" s="89" t="s">
+      <c r="B261" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="C261" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="D261" s="85" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4728,7 +4695,7 @@
       <c r="A262" s="9">
         <v>36</v>
       </c>
-      <c r="B262" s="70" t="s">
+      <c r="B262" s="68" t="s">
         <v>18</v>
       </c>
       <c r="C262" s="9" t="s">
@@ -4742,7 +4709,7 @@
       <c r="A263" s="9">
         <v>36</v>
       </c>
-      <c r="B263" s="70" t="s">
+      <c r="B263" s="68" t="s">
         <v>18</v>
       </c>
       <c r="C263" s="9" t="s">
@@ -4756,7 +4723,7 @@
       <c r="A264" s="9">
         <v>36</v>
       </c>
-      <c r="B264" s="70" t="s">
+      <c r="B264" s="68" t="s">
         <v>18</v>
       </c>
       <c r="C264" s="9" t="s">
@@ -4770,7 +4737,7 @@
       <c r="A265" s="9">
         <v>36</v>
       </c>
-      <c r="B265" s="70" t="s">
+      <c r="B265" s="68" t="s">
         <v>18</v>
       </c>
       <c r="C265" s="9" t="s">
@@ -4784,7 +4751,7 @@
       <c r="A266" s="9">
         <v>36</v>
       </c>
-      <c r="B266" s="70" t="s">
+      <c r="B266" s="68" t="s">
         <v>18</v>
       </c>
       <c r="C266" s="9" t="s">
@@ -4795,562 +4762,562 @@
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A267" s="118">
+      <c r="A267" s="106">
         <v>37</v>
       </c>
-      <c r="B267" s="118" t="s">
-        <v>17</v>
-      </c>
-      <c r="C267" s="118" t="s">
-        <v>12</v>
-      </c>
-      <c r="D267" s="118" t="s">
-        <v>10</v>
+      <c r="B267" s="114" t="s">
+        <v>17</v>
+      </c>
+      <c r="C267" s="106" t="s">
+        <v>12</v>
+      </c>
+      <c r="D267" s="106" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A268" s="118">
+      <c r="A268" s="106">
         <v>37</v>
       </c>
-      <c r="B268" s="118" t="s">
-        <v>17</v>
-      </c>
-      <c r="C268" s="118" t="s">
-        <v>13</v>
-      </c>
-      <c r="D268" s="118" t="s">
+      <c r="B268" s="114" t="s">
+        <v>17</v>
+      </c>
+      <c r="C268" s="106" t="s">
+        <v>13</v>
+      </c>
+      <c r="D268" s="106" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A269" s="118">
+      <c r="A269" s="106">
         <v>37</v>
       </c>
-      <c r="B269" s="118" t="s">
-        <v>17</v>
-      </c>
-      <c r="C269" s="118" t="s">
-        <v>14</v>
-      </c>
-      <c r="D269" s="118" t="s">
+      <c r="B269" s="114" t="s">
+        <v>17</v>
+      </c>
+      <c r="C269" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="D269" s="106" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A270" s="118">
+      <c r="A270" s="106">
         <v>37</v>
       </c>
-      <c r="B270" s="118" t="s">
-        <v>17</v>
-      </c>
-      <c r="C270" s="118" t="s">
-        <v>15</v>
-      </c>
-      <c r="D270" s="118" t="s">
+      <c r="B270" s="114" t="s">
+        <v>17</v>
+      </c>
+      <c r="C270" s="106" t="s">
+        <v>15</v>
+      </c>
+      <c r="D270" s="106" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A271" s="118">
+      <c r="A271" s="106">
         <v>37</v>
       </c>
-      <c r="B271" s="118" t="s">
-        <v>17</v>
-      </c>
-      <c r="C271" s="118" t="s">
-        <v>16</v>
-      </c>
-      <c r="D271" s="118" t="s">
+      <c r="B271" s="114" t="s">
+        <v>17</v>
+      </c>
+      <c r="C271" s="106" t="s">
+        <v>16</v>
+      </c>
+      <c r="D271" s="106" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A272" s="102">
+      <c r="A272" s="98">
         <v>37</v>
       </c>
-      <c r="B272" s="103" t="s">
-        <v>17</v>
-      </c>
-      <c r="C272" s="102" t="s">
-        <v>12</v>
-      </c>
-      <c r="D272" s="102" t="s">
+      <c r="B272" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="C272" s="98" t="s">
+        <v>12</v>
+      </c>
+      <c r="D272" s="98" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A273" s="102">
+      <c r="A273" s="98">
         <v>37</v>
       </c>
-      <c r="B273" s="103" t="s">
-        <v>17</v>
-      </c>
-      <c r="C273" s="102" t="s">
-        <v>13</v>
-      </c>
-      <c r="D273" s="102" t="s">
+      <c r="B273" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="C273" s="98" t="s">
+        <v>13</v>
+      </c>
+      <c r="D273" s="98" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A274" s="102">
+      <c r="A274" s="98">
         <v>37</v>
       </c>
-      <c r="B274" s="103" t="s">
-        <v>17</v>
-      </c>
-      <c r="C274" s="102" t="s">
-        <v>14</v>
-      </c>
-      <c r="D274" s="102" t="s">
+      <c r="B274" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="C274" s="98" t="s">
+        <v>14</v>
+      </c>
+      <c r="D274" s="98" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A275" s="102">
+      <c r="A275" s="98">
         <v>37</v>
       </c>
-      <c r="B275" s="103" t="s">
-        <v>17</v>
-      </c>
-      <c r="C275" s="102" t="s">
-        <v>15</v>
-      </c>
-      <c r="D275" s="102" t="s">
+      <c r="B275" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="C275" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="D275" s="98" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A276" s="102">
+      <c r="A276" s="98">
         <v>37</v>
       </c>
-      <c r="B276" s="103" t="s">
-        <v>17</v>
-      </c>
-      <c r="C276" s="102" t="s">
-        <v>16</v>
-      </c>
-      <c r="D276" s="102" t="s">
+      <c r="B276" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="C276" s="98" t="s">
+        <v>16</v>
+      </c>
+      <c r="D276" s="98" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A277" s="104">
+      <c r="A277" s="100">
         <v>37</v>
       </c>
-      <c r="B277" s="105" t="s">
-        <v>17</v>
-      </c>
-      <c r="C277" s="104" t="s">
-        <v>12</v>
-      </c>
-      <c r="D277" s="104" t="s">
+      <c r="B277" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="C277" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="D277" s="100" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A278" s="104">
+      <c r="A278" s="100">
         <v>37</v>
       </c>
-      <c r="B278" s="105" t="s">
-        <v>17</v>
-      </c>
-      <c r="C278" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="D278" s="104" t="s">
+      <c r="B278" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="C278" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="D278" s="100" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A279" s="100">
+        <v>37</v>
+      </c>
+      <c r="B279" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="C279" s="100" t="s">
+        <v>14</v>
+      </c>
+      <c r="D279" s="100" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A280" s="100">
+        <v>37</v>
+      </c>
+      <c r="B280" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="C280" s="100" t="s">
+        <v>15</v>
+      </c>
+      <c r="D280" s="100" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A281" s="100">
+        <v>37</v>
+      </c>
+      <c r="B281" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="C281" s="100" t="s">
+        <v>16</v>
+      </c>
+      <c r="D281" s="100" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A282" s="118">
+        <v>37</v>
+      </c>
+      <c r="B282" s="119" t="s">
+        <v>18</v>
+      </c>
+      <c r="C282" s="118" t="s">
+        <v>12</v>
+      </c>
+      <c r="D282" s="118" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A283" s="118">
+        <v>37</v>
+      </c>
+      <c r="B283" s="119" t="s">
+        <v>18</v>
+      </c>
+      <c r="C283" s="118" t="s">
+        <v>13</v>
+      </c>
+      <c r="D283" s="118" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A284" s="118">
+        <v>37</v>
+      </c>
+      <c r="B284" s="119" t="s">
+        <v>18</v>
+      </c>
+      <c r="C284" s="118" t="s">
+        <v>14</v>
+      </c>
+      <c r="D284" s="118" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A285" s="118">
+        <v>37</v>
+      </c>
+      <c r="B285" s="119" t="s">
+        <v>18</v>
+      </c>
+      <c r="C285" s="118" t="s">
+        <v>15</v>
+      </c>
+      <c r="D285" s="118" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A286" s="118">
+        <v>37</v>
+      </c>
+      <c r="B286" s="119" t="s">
+        <v>18</v>
+      </c>
+      <c r="C286" s="118" t="s">
+        <v>16</v>
+      </c>
+      <c r="D286" s="118" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A287" s="20">
+        <v>39</v>
+      </c>
+      <c r="B287" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="C287" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D287" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A288" s="20">
+        <v>39</v>
+      </c>
+      <c r="B288" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="C288" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D288" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A289" s="20">
+        <v>39</v>
+      </c>
+      <c r="B289" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="C289" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D289" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A290" s="20">
+        <v>39</v>
+      </c>
+      <c r="B290" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="C290" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D290" s="20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A291" s="20">
+        <v>39</v>
+      </c>
+      <c r="B291" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="C291" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D291" s="20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A279" s="104">
-        <v>37</v>
-      </c>
-      <c r="B279" s="105" t="s">
-        <v>17</v>
-      </c>
-      <c r="C279" s="104" t="s">
-        <v>14</v>
-      </c>
-      <c r="D279" s="104" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A280" s="104">
-        <v>37</v>
-      </c>
-      <c r="B280" s="105" t="s">
-        <v>17</v>
-      </c>
-      <c r="C280" s="104" t="s">
-        <v>15</v>
-      </c>
-      <c r="D280" s="104" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A281" s="104">
-        <v>37</v>
-      </c>
-      <c r="B281" s="105" t="s">
-        <v>17</v>
-      </c>
-      <c r="C281" s="104" t="s">
-        <v>16</v>
-      </c>
-      <c r="D281" s="104" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A282" s="106">
-        <v>37</v>
-      </c>
-      <c r="B282" s="107" t="s">
-        <v>18</v>
-      </c>
-      <c r="C282" s="106" t="s">
-        <v>12</v>
-      </c>
-      <c r="D282" s="106" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A283" s="106">
-        <v>37</v>
-      </c>
-      <c r="B283" s="107" t="s">
-        <v>18</v>
-      </c>
-      <c r="C283" s="106" t="s">
-        <v>13</v>
-      </c>
-      <c r="D283" s="106" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A284" s="106">
-        <v>37</v>
-      </c>
-      <c r="B284" s="107" t="s">
-        <v>18</v>
-      </c>
-      <c r="C284" s="106" t="s">
-        <v>14</v>
-      </c>
-      <c r="D284" s="106" t="s">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A292" s="43">
+        <v>39</v>
+      </c>
+      <c r="B292" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="C292" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D292" s="43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A293" s="43">
+        <v>39</v>
+      </c>
+      <c r="B293" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="C293" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D293" s="43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A294" s="43">
+        <v>39</v>
+      </c>
+      <c r="B294" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="C294" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D294" s="43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A295" s="43">
+        <v>39</v>
+      </c>
+      <c r="B295" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="C295" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D295" s="43" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A285" s="106">
-        <v>37</v>
-      </c>
-      <c r="B285" s="107" t="s">
-        <v>18</v>
-      </c>
-      <c r="C285" s="106" t="s">
-        <v>15</v>
-      </c>
-      <c r="D285" s="106" t="s">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A296" s="43">
+        <v>39</v>
+      </c>
+      <c r="B296" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="C296" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D296" s="43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A297" s="116">
+        <v>39</v>
+      </c>
+      <c r="B297" s="117" t="s">
+        <v>17</v>
+      </c>
+      <c r="C297" s="116" t="s">
+        <v>12</v>
+      </c>
+      <c r="D297" s="116" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A298" s="116">
+        <v>39</v>
+      </c>
+      <c r="B298" s="117" t="s">
+        <v>17</v>
+      </c>
+      <c r="C298" s="116" t="s">
+        <v>13</v>
+      </c>
+      <c r="D298" s="116" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A299" s="116">
+        <v>39</v>
+      </c>
+      <c r="B299" s="117" t="s">
+        <v>17</v>
+      </c>
+      <c r="C299" s="116" t="s">
+        <v>14</v>
+      </c>
+      <c r="D299" s="116" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A300" s="116">
+        <v>39</v>
+      </c>
+      <c r="B300" s="117" t="s">
+        <v>17</v>
+      </c>
+      <c r="C300" s="116" t="s">
+        <v>15</v>
+      </c>
+      <c r="D300" s="116" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A286" s="106">
-        <v>37</v>
-      </c>
-      <c r="B286" s="107" t="s">
-        <v>18</v>
-      </c>
-      <c r="C286" s="106" t="s">
-        <v>16</v>
-      </c>
-      <c r="D286" s="106" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A287" s="108">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A301" s="116">
         <v>39</v>
       </c>
-      <c r="B287" s="109" t="s">
-        <v>17</v>
-      </c>
-      <c r="C287" s="108" t="s">
-        <v>12</v>
-      </c>
-      <c r="D287" s="108" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A288" s="108">
-        <v>39</v>
-      </c>
-      <c r="B288" s="109" t="s">
-        <v>17</v>
-      </c>
-      <c r="C288" s="108" t="s">
-        <v>13</v>
-      </c>
-      <c r="D288" s="108" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A289" s="108">
-        <v>39</v>
-      </c>
-      <c r="B289" s="109" t="s">
-        <v>17</v>
-      </c>
-      <c r="C289" s="108" t="s">
-        <v>14</v>
-      </c>
-      <c r="D289" s="108" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A290" s="108">
-        <v>39</v>
-      </c>
-      <c r="B290" s="109" t="s">
-        <v>17</v>
-      </c>
-      <c r="C290" s="108" t="s">
-        <v>15</v>
-      </c>
-      <c r="D290" s="108" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A291" s="108">
-        <v>39</v>
-      </c>
-      <c r="B291" s="109" t="s">
-        <v>17</v>
-      </c>
-      <c r="C291" s="108" t="s">
-        <v>16</v>
-      </c>
-      <c r="D291" s="108" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A292" s="110">
-        <v>39</v>
-      </c>
-      <c r="B292" s="111" t="s">
-        <v>17</v>
-      </c>
-      <c r="C292" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="D292" s="110" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A293" s="110">
-        <v>39</v>
-      </c>
-      <c r="B293" s="111" t="s">
-        <v>17</v>
-      </c>
-      <c r="C293" s="110" t="s">
-        <v>13</v>
-      </c>
-      <c r="D293" s="110" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A294" s="110">
-        <v>39</v>
-      </c>
-      <c r="B294" s="111" t="s">
-        <v>17</v>
-      </c>
-      <c r="C294" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="D294" s="110" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A295" s="110">
-        <v>39</v>
-      </c>
-      <c r="B295" s="111" t="s">
-        <v>17</v>
-      </c>
-      <c r="C295" s="110" t="s">
-        <v>15</v>
-      </c>
-      <c r="D295" s="110" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A296" s="110">
-        <v>39</v>
-      </c>
-      <c r="B296" s="111" t="s">
-        <v>17</v>
-      </c>
-      <c r="C296" s="110" t="s">
-        <v>16</v>
-      </c>
-      <c r="D296" s="110" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A297" s="112">
-        <v>39</v>
-      </c>
-      <c r="B297" s="113" t="s">
-        <v>17</v>
-      </c>
-      <c r="C297" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="D297" s="112" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A298" s="112">
-        <v>39</v>
-      </c>
-      <c r="B298" s="113" t="s">
-        <v>17</v>
-      </c>
-      <c r="C298" s="112" t="s">
-        <v>13</v>
-      </c>
-      <c r="D298" s="112" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A299" s="112">
-        <v>39</v>
-      </c>
-      <c r="B299" s="113" t="s">
-        <v>17</v>
-      </c>
-      <c r="C299" s="112" t="s">
-        <v>14</v>
-      </c>
-      <c r="D299" s="112" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A300" s="112">
-        <v>39</v>
-      </c>
-      <c r="B300" s="113" t="s">
-        <v>17</v>
-      </c>
-      <c r="C300" s="112" t="s">
-        <v>15</v>
-      </c>
-      <c r="D300" s="112" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A301" s="112">
-        <v>39</v>
-      </c>
-      <c r="B301" s="113" t="s">
-        <v>17</v>
-      </c>
-      <c r="C301" s="112" t="s">
-        <v>16</v>
-      </c>
-      <c r="D301" s="112" t="s">
+      <c r="B301" s="117" t="s">
+        <v>17</v>
+      </c>
+      <c r="C301" s="116" t="s">
+        <v>16</v>
+      </c>
+      <c r="D301" s="116" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A302" s="114">
+      <c r="A302" s="102">
         <v>42</v>
       </c>
-      <c r="B302" s="115" t="s">
-        <v>18</v>
-      </c>
-      <c r="C302" s="114" t="s">
-        <v>12</v>
-      </c>
-      <c r="D302" s="114" t="s">
+      <c r="B302" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="C302" s="102" t="s">
+        <v>12</v>
+      </c>
+      <c r="D302" s="102" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A303" s="114">
+      <c r="A303" s="102">
         <v>42</v>
       </c>
-      <c r="B303" s="115" t="s">
-        <v>18</v>
-      </c>
-      <c r="C303" s="114" t="s">
-        <v>13</v>
-      </c>
-      <c r="D303" s="114" t="s">
+      <c r="B303" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="C303" s="102" t="s">
+        <v>13</v>
+      </c>
+      <c r="D303" s="102" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A304" s="114">
+      <c r="A304" s="102">
         <v>42</v>
       </c>
-      <c r="B304" s="115" t="s">
-        <v>18</v>
-      </c>
-      <c r="C304" s="114" t="s">
-        <v>14</v>
-      </c>
-      <c r="D304" s="114" t="s">
+      <c r="B304" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="C304" s="102" t="s">
+        <v>14</v>
+      </c>
+      <c r="D304" s="102" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A305" s="114">
+      <c r="A305" s="102">
         <v>42</v>
       </c>
-      <c r="B305" s="115" t="s">
-        <v>18</v>
-      </c>
-      <c r="C305" s="114" t="s">
-        <v>15</v>
-      </c>
-      <c r="D305" s="114" t="s">
+      <c r="B305" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="C305" s="102" t="s">
+        <v>15</v>
+      </c>
+      <c r="D305" s="102" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A306" s="114">
+      <c r="A306" s="102">
         <v>42</v>
       </c>
-      <c r="B306" s="115" t="s">
-        <v>18</v>
-      </c>
-      <c r="C306" s="114" t="s">
-        <v>16</v>
-      </c>
-      <c r="D306" s="114" t="s">
+      <c r="B306" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="C306" s="102" t="s">
+        <v>16</v>
+      </c>
+      <c r="D306" s="102" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5358,7 +5325,7 @@
       <c r="A307" s="22">
         <v>45</v>
       </c>
-      <c r="B307" s="22" t="s">
+      <c r="B307" s="78" t="s">
         <v>17</v>
       </c>
       <c r="C307" s="22" t="s">
@@ -5372,7 +5339,7 @@
       <c r="A308" s="22">
         <v>45</v>
       </c>
-      <c r="B308" s="22" t="s">
+      <c r="B308" s="78" t="s">
         <v>17</v>
       </c>
       <c r="C308" s="22" t="s">
@@ -5386,7 +5353,7 @@
       <c r="A309" s="22">
         <v>45</v>
       </c>
-      <c r="B309" s="22" t="s">
+      <c r="B309" s="78" t="s">
         <v>17</v>
       </c>
       <c r="C309" s="22" t="s">
@@ -5400,7 +5367,7 @@
       <c r="A310" s="22">
         <v>45</v>
       </c>
-      <c r="B310" s="22" t="s">
+      <c r="B310" s="78" t="s">
         <v>17</v>
       </c>
       <c r="C310" s="22" t="s">
@@ -5414,7 +5381,7 @@
       <c r="A311" s="22">
         <v>45</v>
       </c>
-      <c r="B311" s="22" t="s">
+      <c r="B311" s="78" t="s">
         <v>17</v>
       </c>
       <c r="C311" s="22" t="s">
@@ -5425,282 +5392,282 @@
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A312" s="119">
+      <c r="A312" s="107">
         <v>47</v>
       </c>
-      <c r="B312" s="119" t="s">
-        <v>17</v>
-      </c>
-      <c r="C312" s="119" t="s">
-        <v>12</v>
-      </c>
-      <c r="D312" s="119" t="s">
+      <c r="B312" s="112" t="s">
+        <v>17</v>
+      </c>
+      <c r="C312" s="107" t="s">
+        <v>12</v>
+      </c>
+      <c r="D312" s="107" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A313" s="119">
+      <c r="A313" s="107">
         <v>47</v>
       </c>
-      <c r="B313" s="119" t="s">
-        <v>17</v>
-      </c>
-      <c r="C313" s="119" t="s">
-        <v>13</v>
-      </c>
-      <c r="D313" s="119" t="s">
+      <c r="B313" s="112" t="s">
+        <v>17</v>
+      </c>
+      <c r="C313" s="107" t="s">
+        <v>13</v>
+      </c>
+      <c r="D313" s="107" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A314" s="119">
+      <c r="A314" s="107">
         <v>47</v>
       </c>
-      <c r="B314" s="119" t="s">
-        <v>17</v>
-      </c>
-      <c r="C314" s="119" t="s">
-        <v>14</v>
-      </c>
-      <c r="D314" s="119" t="s">
+      <c r="B314" s="112" t="s">
+        <v>17</v>
+      </c>
+      <c r="C314" s="107" t="s">
+        <v>14</v>
+      </c>
+      <c r="D314" s="107" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A315" s="119">
+      <c r="A315" s="107">
         <v>47</v>
       </c>
-      <c r="B315" s="119" t="s">
-        <v>17</v>
-      </c>
-      <c r="C315" s="119" t="s">
-        <v>15</v>
-      </c>
-      <c r="D315" s="119" t="s">
+      <c r="B315" s="112" t="s">
+        <v>17</v>
+      </c>
+      <c r="C315" s="107" t="s">
+        <v>15</v>
+      </c>
+      <c r="D315" s="107" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A316" s="119">
+      <c r="A316" s="107">
         <v>47</v>
       </c>
-      <c r="B316" s="119" t="s">
-        <v>17</v>
-      </c>
-      <c r="C316" s="119" t="s">
-        <v>16</v>
-      </c>
-      <c r="D316" s="119" t="s">
+      <c r="B316" s="112" t="s">
+        <v>17</v>
+      </c>
+      <c r="C316" s="107" t="s">
+        <v>16</v>
+      </c>
+      <c r="D316" s="107" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A317" s="108">
+        <v>47</v>
+      </c>
+      <c r="B317" s="109" t="s">
+        <v>17</v>
+      </c>
+      <c r="C317" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="D317" s="108" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A318" s="108">
+        <v>47</v>
+      </c>
+      <c r="B318" s="109" t="s">
+        <v>17</v>
+      </c>
+      <c r="C318" s="108" t="s">
+        <v>13</v>
+      </c>
+      <c r="D318" s="108" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A319" s="108">
+        <v>47</v>
+      </c>
+      <c r="B319" s="109" t="s">
+        <v>17</v>
+      </c>
+      <c r="C319" s="108" t="s">
+        <v>14</v>
+      </c>
+      <c r="D319" s="108" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A320" s="108">
+        <v>47</v>
+      </c>
+      <c r="B320" s="109" t="s">
+        <v>17</v>
+      </c>
+      <c r="C320" s="108" t="s">
+        <v>15</v>
+      </c>
+      <c r="D320" s="108" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A321" s="108">
+        <v>47</v>
+      </c>
+      <c r="B321" s="109" t="s">
+        <v>17</v>
+      </c>
+      <c r="C321" s="108" t="s">
+        <v>16</v>
+      </c>
+      <c r="D321" s="108" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A322" s="110">
+        <v>49</v>
+      </c>
+      <c r="B322" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="C322" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="D322" s="110" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A323" s="110">
+        <v>49</v>
+      </c>
+      <c r="B323" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="C323" s="110" t="s">
+        <v>13</v>
+      </c>
+      <c r="D323" s="110" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A324" s="110">
+        <v>49</v>
+      </c>
+      <c r="B324" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="C324" s="110" t="s">
+        <v>14</v>
+      </c>
+      <c r="D324" s="110" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A325" s="110">
+        <v>49</v>
+      </c>
+      <c r="B325" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="C325" s="110" t="s">
+        <v>15</v>
+      </c>
+      <c r="D325" s="110" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A317" s="120">
-        <v>47</v>
-      </c>
-      <c r="B317" s="121" t="s">
-        <v>17</v>
-      </c>
-      <c r="C317" s="120" t="s">
-        <v>12</v>
-      </c>
-      <c r="D317" s="120" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A318" s="120">
-        <v>47</v>
-      </c>
-      <c r="B318" s="121" t="s">
-        <v>17</v>
-      </c>
-      <c r="C318" s="120" t="s">
-        <v>13</v>
-      </c>
-      <c r="D318" s="120" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A319" s="120">
-        <v>47</v>
-      </c>
-      <c r="B319" s="121" t="s">
-        <v>17</v>
-      </c>
-      <c r="C319" s="120" t="s">
-        <v>14</v>
-      </c>
-      <c r="D319" s="120" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A320" s="120">
-        <v>47</v>
-      </c>
-      <c r="B320" s="121" t="s">
-        <v>17</v>
-      </c>
-      <c r="C320" s="120" t="s">
-        <v>15</v>
-      </c>
-      <c r="D320" s="120" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A321" s="120">
-        <v>47</v>
-      </c>
-      <c r="B321" s="121" t="s">
-        <v>17</v>
-      </c>
-      <c r="C321" s="120" t="s">
-        <v>16</v>
-      </c>
-      <c r="D321" s="120" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A322" s="122">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A326" s="110">
         <v>49</v>
       </c>
-      <c r="B322" s="122" t="s">
-        <v>18</v>
-      </c>
-      <c r="C322" s="122" t="s">
-        <v>12</v>
-      </c>
-      <c r="D322" s="122" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A323" s="122">
-        <v>49</v>
-      </c>
-      <c r="B323" s="122" t="s">
-        <v>18</v>
-      </c>
-      <c r="C323" s="122" t="s">
-        <v>13</v>
-      </c>
-      <c r="D323" s="122" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A324" s="122">
-        <v>49</v>
-      </c>
-      <c r="B324" s="122" t="s">
-        <v>18</v>
-      </c>
-      <c r="C324" s="122" t="s">
-        <v>14</v>
-      </c>
-      <c r="D324" s="122" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A325" s="122">
-        <v>49</v>
-      </c>
-      <c r="B325" s="122" t="s">
-        <v>18</v>
-      </c>
-      <c r="C325" s="122" t="s">
-        <v>15</v>
-      </c>
-      <c r="D325" s="122" t="s">
+      <c r="B326" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="C326" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="D326" s="110" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A327" s="90">
+        <v>55</v>
+      </c>
+      <c r="B327" s="84" t="s">
+        <v>17</v>
+      </c>
+      <c r="C327" s="90" t="s">
+        <v>12</v>
+      </c>
+      <c r="D327" s="90" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A328" s="90">
+        <v>55</v>
+      </c>
+      <c r="B328" s="84" t="s">
+        <v>17</v>
+      </c>
+      <c r="C328" s="90" t="s">
+        <v>13</v>
+      </c>
+      <c r="D328" s="90" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A329" s="90">
+        <v>55</v>
+      </c>
+      <c r="B329" s="84" t="s">
+        <v>17</v>
+      </c>
+      <c r="C329" s="90" t="s">
+        <v>14</v>
+      </c>
+      <c r="D329" s="90" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A330" s="90">
+        <v>55</v>
+      </c>
+      <c r="B330" s="84" t="s">
+        <v>17</v>
+      </c>
+      <c r="C330" s="90" t="s">
+        <v>15</v>
+      </c>
+      <c r="D330" s="90" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A326" s="122">
-        <v>49</v>
-      </c>
-      <c r="B326" s="122" t="s">
-        <v>18</v>
-      </c>
-      <c r="C326" s="122" t="s">
-        <v>16</v>
-      </c>
-      <c r="D326" s="122" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A327" s="94">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A331" s="90">
         <v>55</v>
       </c>
-      <c r="B327" s="88" t="s">
-        <v>17</v>
-      </c>
-      <c r="C327" s="94" t="s">
-        <v>12</v>
-      </c>
-      <c r="D327" s="94" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A328" s="94">
-        <v>55</v>
-      </c>
-      <c r="B328" s="88" t="s">
-        <v>17</v>
-      </c>
-      <c r="C328" s="94" t="s">
-        <v>13</v>
-      </c>
-      <c r="D328" s="94" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A329" s="94">
-        <v>55</v>
-      </c>
-      <c r="B329" s="88" t="s">
-        <v>17</v>
-      </c>
-      <c r="C329" s="94" t="s">
-        <v>14</v>
-      </c>
-      <c r="D329" s="94" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A330" s="94">
-        <v>55</v>
-      </c>
-      <c r="B330" s="88" t="s">
-        <v>17</v>
-      </c>
-      <c r="C330" s="94" t="s">
-        <v>15</v>
-      </c>
-      <c r="D330" s="94" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A331" s="94">
-        <v>55</v>
-      </c>
-      <c r="B331" s="88" t="s">
-        <v>17</v>
-      </c>
-      <c r="C331" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="D331" s="94" t="s">
+      <c r="B331" s="84" t="s">
+        <v>17</v>
+      </c>
+      <c r="C331" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="D331" s="90" t="s">
         <v>11</v>
       </c>
     </row>
